--- a/SO SACH - LA/CONG NO/CONG NO 2015/Cong no NL ca 2015.xlsx
+++ b/SO SACH - LA/CONG NO/CONG NO 2015/Cong no NL ca 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968"/>
   </bookViews>
   <sheets>
     <sheet name="T.KẾT" sheetId="26" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">D.ĐIỂM!$A$9:$H$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'DANH BL'!$A$9:$I$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DŨNG KG'!$A$9:$J$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'HIỆP (PT)'!$A$9:$I$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'HIỆP (PT)'!$A$9:$I$150</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'HƯƠNG ST'!$A$9:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'LEE CÁ BÒ'!$A$9:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'LÙN TV'!$A$9:$I$9</definedName>
@@ -64,7 +64,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">THANHMN!$A$9:$H$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'THỦY KG'!$A$9:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'TRẮNG (VL)'!$A$9:$I$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'TRÍ HẢO VT'!$A$9:$J$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'TRÍ HẢO VT'!$A$9:$J$215</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TỶ LIÊN'!$A$9:$H$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="27">Sheet1!$C$16:$L$16</definedName>
   </definedNames>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="446">
   <si>
     <t xml:space="preserve">NGÀY </t>
   </si>
@@ -1478,9 +1478,6 @@
     <t>Chuyển khoản TK Cô</t>
   </si>
   <si>
-    <t>Tiền xe trả hàng</t>
-  </si>
-  <si>
     <t>A LEE CÁ BÒ</t>
   </si>
   <si>
@@ -1506,6 +1503,27 @@
   </si>
   <si>
     <t>Băng keo</t>
+  </si>
+  <si>
+    <t>Chỉ mặn A</t>
+  </si>
+  <si>
+    <t>Hàng Hư</t>
+  </si>
+  <si>
+    <t>Gia công A. Hoàng</t>
+  </si>
+  <si>
+    <t>Đục NL</t>
+  </si>
+  <si>
+    <t>Bò đông</t>
+  </si>
+  <si>
+    <t>Bò VN (GC)</t>
+  </si>
+  <si>
+    <t>Bò lai (lớn)</t>
   </si>
 </sst>
 </file>
@@ -2121,7 +2139,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2818,6 +2836,9 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2939,6 +2960,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3268,9 +3298,9 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" activeCellId="1" sqref="B4:B18 B20:B22"/>
+      <selection pane="bottomLeft" activeCell="B21" activeCellId="1" sqref="B4:B18 B20:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -3361,7 +3391,7 @@
       </c>
       <c r="C5" s="151">
         <f>'TỶ LIÊN'!$G$152</f>
-        <v>500562</v>
+        <v>50562</v>
       </c>
       <c r="E5" s="149">
         <f t="array" ref="E5">IF(G5&lt;&gt;0,SUM(($G$4:G5&lt;&gt;0)*1),"")</f>
@@ -3385,7 +3415,7 @@
       </c>
       <c r="C6" s="151">
         <f>'CƠ HT'!$H$164</f>
-        <v>129826.5</v>
+        <v>79826.5</v>
       </c>
       <c r="E6" s="149" t="str">
         <f t="array" ref="E6">IF(G6&lt;&gt;0,SUM(($G$4:G6&lt;&gt;0)*1),"")</f>
@@ -3409,18 +3439,18 @@
       </c>
       <c r="C7" s="151">
         <f>'DŨNG KG'!I95</f>
-        <v>666896</v>
-      </c>
-      <c r="E7" s="149">
+        <v>466896</v>
+      </c>
+      <c r="E7" s="149" t="str">
         <f t="array" ref="E7">IF(G7&lt;&gt;0,SUM(($G$4:G7&lt;&gt;0)*1),"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="F7" s="150" t="s">
         <v>417</v>
       </c>
       <c r="G7" s="151">
         <f>'7 NGHĨA'!H22</f>
-        <v>239360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="15" customFormat="1" ht="21.75" customHeight="1">
@@ -3433,7 +3463,7 @@
       </c>
       <c r="C8" s="151">
         <f>'SÁCH VT'!G17</f>
-        <v>245985</v>
+        <v>145985</v>
       </c>
       <c r="E8" s="149" t="str">
         <f t="array" ref="E8">IF(G8&lt;&gt;0,SUM(($G$4:G8&lt;&gt;0)*1),"")</f>
@@ -3505,16 +3535,16 @@
       <c r="G11" s="151"/>
     </row>
     <row r="12" spans="1:7" s="15" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A12" s="149" t="str">
+      <c r="A12" s="149">
         <f t="array" ref="A12">IF(C12&lt;&gt;0,SUM(($C$4:C12&lt;&gt;0)*1),"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="B12" s="150" t="s">
         <v>424</v>
       </c>
       <c r="C12" s="151">
         <f>'DANH BL'!$H$26</f>
-        <v>0</v>
+        <v>137320</v>
       </c>
       <c r="E12" s="149" t="str">
         <f t="array" ref="E12">IF(G12&lt;&gt;0,SUM(($G$4:G12&lt;&gt;0)*1),"")</f>
@@ -3526,14 +3556,14 @@
     <row r="13" spans="1:7" s="15" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="149">
         <f t="array" ref="A13">IF(C13&lt;&gt;0,SUM(($C$4:C13&lt;&gt;0)*1),"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="150" t="s">
         <v>122</v>
       </c>
       <c r="C13" s="151">
-        <f>'HIỆP (PT)'!$H$143</f>
-        <v>300670</v>
+        <f>'HIỆP (PT)'!$H$150</f>
+        <v>200670</v>
       </c>
       <c r="E13" s="149" t="str">
         <f t="array" ref="E13">IF(G13&lt;&gt;0,SUM(($G$4:G13&lt;&gt;0)*1),"")</f>
@@ -3545,14 +3575,14 @@
     <row r="14" spans="1:7" s="15" customFormat="1" ht="21.75" customHeight="1">
       <c r="A14" s="149">
         <f t="array" ref="A14">IF(C14&lt;&gt;0,SUM(($C$4:C14&lt;&gt;0)*1),"")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="150" t="s">
         <v>374</v>
       </c>
       <c r="C14" s="151">
         <f>THANHMN!$G$80</f>
-        <v>1893426</v>
+        <v>1214932</v>
       </c>
       <c r="E14" s="149" t="str">
         <f t="array" ref="E14">IF(G14&lt;&gt;0,SUM(($G$4:G14&lt;&gt;0)*1),"")</f>
@@ -3562,16 +3592,16 @@
       <c r="G14" s="151"/>
     </row>
     <row r="15" spans="1:7" s="15" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A15" s="149">
+      <c r="A15" s="149" t="str">
         <f t="array" ref="A15">IF(C15&lt;&gt;0,SUM(($C$4:C15&lt;&gt;0)*1),"")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="B15" s="150" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C15" s="151">
-        <f>'LEE CÁ BÒ'!$H$27</f>
-        <v>118577</v>
+        <f>'LEE CÁ BÒ'!$H$36</f>
+        <v>0</v>
       </c>
       <c r="E15" s="149" t="str">
         <f t="array" ref="E15">IF(G15&lt;&gt;0,SUM(($G$4:G15&lt;&gt;0)*1),"")</f>
@@ -3608,8 +3638,8 @@
         <v>376</v>
       </c>
       <c r="C17" s="151">
-        <f>'HƯƠNG ST'!$H$37</f>
-        <v>271534.90000000002</v>
+        <f>'HƯƠNG ST'!$H$46</f>
+        <v>205324.90000000002</v>
       </c>
       <c r="E17" s="149" t="str">
         <f t="array" ref="E17">IF(G17&lt;&gt;0,SUM(($G$4:G17&lt;&gt;0)*1),"")</f>
@@ -3627,8 +3657,8 @@
         <v>306</v>
       </c>
       <c r="C18" s="151">
-        <f>'TRÍ HẢO VT'!$I$206</f>
-        <v>-120263.5</v>
+        <f>'TRÍ HẢO VT'!$I$215</f>
+        <v>-56321.799999999814</v>
       </c>
       <c r="E18" s="149" t="str">
         <f t="array" ref="E18">IF(G18&lt;&gt;0,SUM(($G$4:G18&lt;&gt;0)*1),"")</f>
@@ -3665,8 +3695,8 @@
         <v>377</v>
       </c>
       <c r="C20" s="151">
-        <f>D.ĐIỂM!$G$84</f>
-        <v>695500</v>
+        <f>D.ĐIỂM!$G$93</f>
+        <v>801305.29999999981</v>
       </c>
       <c r="E20" s="149" t="str">
         <f t="array" ref="E20">IF(G20&lt;&gt;0,SUM(($G$4:G20&lt;&gt;0)*1),"")</f>
@@ -3685,7 +3715,7 @@
       </c>
       <c r="C21" s="151">
         <f>'TRẮNG (VL)'!$H$68</f>
-        <v>104996</v>
+        <v>44996</v>
       </c>
       <c r="E21" s="149" t="str">
         <f t="array" ref="E21">IF(G21&lt;&gt;0,SUM(($G$4:G21&lt;&gt;0)*1),"")</f>
@@ -3882,21 +3912,21 @@
       <c r="G34" s="212"/>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A35" s="242" t="s">
+      <c r="A35" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="242"/>
+      <c r="B35" s="243"/>
       <c r="C35" s="213">
         <f>SUM(C4:C34)</f>
-        <v>6821095.5</v>
-      </c>
-      <c r="E35" s="242" t="s">
+        <v>5304881.5</v>
+      </c>
+      <c r="E35" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="242"/>
+      <c r="F35" s="243"/>
       <c r="G35" s="213">
         <f>SUM(G4:G34)</f>
-        <v>331700</v>
+        <v>92340</v>
       </c>
     </row>
   </sheetData>
@@ -3920,7 +3950,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A184" sqref="A184"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -3938,39 +3968,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="93"/>
       <c r="G3" s="226"/>
       <c r="H3" s="62"/>
@@ -3985,18 +4015,18 @@
       <c r="I4" s="233"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="245"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -4007,17 +4037,17 @@
       <c r="I6" s="233"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>424</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="265" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
       <c r="I7" s="233"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -4067,175 +4097,253 @@
       <c r="C10" s="26">
         <v>2110</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="27">
+        <v>11</v>
+      </c>
       <c r="E10" s="27">
         <f t="shared" ref="E10:E20" si="0">C10*D10</f>
-        <v>0</v>
+        <v>23210</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="22"/>
       <c r="H10" s="32">
         <f>E10-F10-G10</f>
-        <v>0</v>
+        <v>23210</v>
       </c>
       <c r="I10" s="229"/>
     </row>
     <row r="11" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
+      <c r="A11" s="24">
+        <v>42343</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="26">
+        <v>1930</v>
+      </c>
+      <c r="D11" s="27">
+        <v>11</v>
+      </c>
       <c r="E11" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21230</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="29"/>
       <c r="H11" s="27">
         <f>IF(B11&lt;&gt;"",H10+E11-F11-G11,0)</f>
-        <v>0</v>
+        <v>44440</v>
       </c>
       <c r="I11" s="229"/>
     </row>
     <row r="12" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
+      <c r="A12" s="24">
+        <v>42345</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="26">
+        <v>1590</v>
+      </c>
+      <c r="D12" s="27">
+        <v>11</v>
+      </c>
       <c r="E12" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17490</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="42"/>
       <c r="H12" s="27">
         <f t="shared" ref="H12:H25" si="1">IF(B12&lt;&gt;"",H11+E12-F12-G12,0)</f>
-        <v>0</v>
+        <v>61930</v>
       </c>
       <c r="I12" s="229"/>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="24">
+        <v>42349</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1740</v>
+      </c>
+      <c r="D13" s="27">
+        <v>11</v>
+      </c>
       <c r="E13" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19140</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
       <c r="H13" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>81070</v>
       </c>
       <c r="I13" s="229"/>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="24">
+        <v>42350</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="26">
+        <v>1640</v>
+      </c>
+      <c r="D14" s="27">
+        <v>11</v>
+      </c>
       <c r="E14" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18040</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="29"/>
       <c r="H14" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99110</v>
       </c>
       <c r="I14" s="229"/>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="24">
+        <v>42351</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="26">
+        <v>2100</v>
+      </c>
+      <c r="D15" s="27">
+        <v>11</v>
+      </c>
       <c r="E15" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23100</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="29"/>
       <c r="H15" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>122210</v>
       </c>
       <c r="I15" s="229"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="24">
+        <v>42352</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="26">
+        <v>1360</v>
+      </c>
+      <c r="D16" s="27">
+        <v>11</v>
+      </c>
       <c r="E16" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14960</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
       <c r="H16" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>137170</v>
       </c>
       <c r="I16" s="229"/>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
+      <c r="A17" s="24">
+        <v>42354</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="26">
+        <v>4880</v>
+      </c>
+      <c r="D17" s="27">
+        <v>11</v>
+      </c>
       <c r="E17" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53680</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
       <c r="H17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>190850</v>
       </c>
       <c r="I17" s="229"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="41"/>
+      <c r="A18" s="24">
+        <v>42355</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="26">
+        <v>5850</v>
+      </c>
+      <c r="D18" s="27">
+        <v>11</v>
+      </c>
       <c r="E18" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64350</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="29"/>
       <c r="H18" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>255200</v>
       </c>
       <c r="I18" s="229"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
+      <c r="A19" s="39">
+        <v>42361</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="40">
+        <v>2920</v>
+      </c>
+      <c r="D19" s="27">
+        <v>11</v>
+      </c>
       <c r="E19" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32120</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="42"/>
       <c r="H19" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>287320</v>
       </c>
       <c r="I19" s="229"/>
     </row>
     <row r="20" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="24">
+        <v>42353</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C20" s="26"/>
       <c r="D20" s="41"/>
       <c r="E20" s="27">
@@ -4243,16 +4351,22 @@
         <v>0</v>
       </c>
       <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
+      <c r="G20" s="29">
+        <v>50000</v>
+      </c>
       <c r="H20" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>237320</v>
       </c>
       <c r="I20" s="229"/>
     </row>
     <row r="21" spans="1:10" s="8" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="18">
+        <v>42363</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C21" s="20"/>
       <c r="D21" s="41"/>
       <c r="E21" s="19">
@@ -4260,10 +4374,12 @@
         <v>0</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19">
+        <v>100000</v>
+      </c>
       <c r="H21" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>137320</v>
       </c>
       <c r="I21" s="229"/>
     </row>
@@ -4336,15 +4452,15 @@
       <c r="I25" s="229"/>
     </row>
     <row r="26" spans="1:10" s="227" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A26" s="242" t="s">
+      <c r="A26" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="242"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="242"/>
+      <c r="B26" s="243"/>
+      <c r="C26" s="243"/>
+      <c r="D26" s="243"/>
       <c r="E26" s="68">
         <f>SUM(E10:E25)</f>
-        <v>0</v>
+        <v>287320</v>
       </c>
       <c r="F26" s="68">
         <f>SUM(F10:F25)</f>
@@ -4352,11 +4468,11 @@
       </c>
       <c r="G26" s="68">
         <f>SUM(G10:G25)</f>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="H26" s="68">
         <f>E26-F26-G26</f>
-        <v>0</v>
+        <v>137320</v>
       </c>
       <c r="I26" s="68"/>
       <c r="J26" s="232"/>
@@ -4387,12 +4503,12 @@
   <sheetPr codeName="Sheet30" enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A184" sqref="A184"/>
-      <selection pane="bottomLeft" activeCell="G140" sqref="G140"/>
+      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -4410,39 +4526,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="93"/>
       <c r="G3" s="59"/>
       <c r="H3" s="62"/>
@@ -4457,18 +4573,18 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="245"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -4479,19 +4595,19 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="246" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="247" t="s">
         <v>372</v>
       </c>
-      <c r="D7" s="246"/>
-      <c r="E7" s="265" t="s">
+      <c r="D7" s="247"/>
+      <c r="E7" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -4778,17 +4894,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1">
-      <c r="A20" s="270" t="s">
+      <c r="A20" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="B20" s="271"/>
-      <c r="C20" s="271"/>
-      <c r="D20" s="271"/>
-      <c r="E20" s="271"/>
-      <c r="F20" s="271"/>
-      <c r="G20" s="271"/>
-      <c r="H20" s="271"/>
-      <c r="I20" s="272"/>
+      <c r="B20" s="272"/>
+      <c r="C20" s="272"/>
+      <c r="D20" s="272"/>
+      <c r="E20" s="272"/>
+      <c r="F20" s="272"/>
+      <c r="G20" s="272"/>
+      <c r="H20" s="272"/>
+      <c r="I20" s="273"/>
     </row>
     <row r="21" spans="1:9" s="8" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="18">
@@ -7446,7 +7562,7 @@
       </c>
       <c r="I128" s="197"/>
     </row>
-    <row r="129" spans="1:10" ht="20.25" customHeight="1">
+    <row r="129" spans="1:9" ht="20.25" customHeight="1">
       <c r="A129" s="24">
         <v>42228</v>
       </c>
@@ -7471,7 +7587,7 @@
       </c>
       <c r="I129" s="197"/>
     </row>
-    <row r="130" spans="1:10" ht="20.25" customHeight="1">
+    <row r="130" spans="1:9" ht="20.25" customHeight="1">
       <c r="A130" s="24">
         <v>42229</v>
       </c>
@@ -7496,7 +7612,7 @@
       </c>
       <c r="I130" s="197"/>
     </row>
-    <row r="131" spans="1:10" ht="20.25" customHeight="1">
+    <row r="131" spans="1:9" ht="20.25" customHeight="1">
       <c r="A131" s="24">
         <v>42230</v>
       </c>
@@ -7521,7 +7637,7 @@
       </c>
       <c r="I131" s="197"/>
     </row>
-    <row r="132" spans="1:10" ht="20.25" customHeight="1">
+    <row r="132" spans="1:9" ht="20.25" customHeight="1">
       <c r="A132" s="24">
         <v>42231</v>
       </c>
@@ -7546,7 +7662,7 @@
       </c>
       <c r="I132" s="197"/>
     </row>
-    <row r="133" spans="1:10" ht="20.25" customHeight="1">
+    <row r="133" spans="1:9" ht="20.25" customHeight="1">
       <c r="A133" s="24">
         <v>42235</v>
       </c>
@@ -7571,7 +7687,7 @@
       </c>
       <c r="I133" s="197"/>
     </row>
-    <row r="134" spans="1:10" ht="20.25" customHeight="1">
+    <row r="134" spans="1:9" ht="20.25" customHeight="1">
       <c r="A134" s="24">
         <v>42238</v>
       </c>
@@ -7596,7 +7712,7 @@
       </c>
       <c r="I134" s="197"/>
     </row>
-    <row r="135" spans="1:10" ht="20.25" customHeight="1">
+    <row r="135" spans="1:9" ht="20.25" customHeight="1">
       <c r="A135" s="24">
         <v>42240</v>
       </c>
@@ -7621,7 +7737,7 @@
       </c>
       <c r="I135" s="197"/>
     </row>
-    <row r="136" spans="1:10" ht="20.25" customHeight="1">
+    <row r="136" spans="1:9" ht="20.25" customHeight="1">
       <c r="A136" s="24">
         <v>42241</v>
       </c>
@@ -7646,7 +7762,7 @@
       </c>
       <c r="I136" s="197"/>
     </row>
-    <row r="137" spans="1:10" ht="20.25" customHeight="1">
+    <row r="137" spans="1:9" ht="20.25" customHeight="1">
       <c r="A137" s="24"/>
       <c r="B137" s="31" t="s">
         <v>17</v>
@@ -7669,7 +7785,7 @@
         <v>42235</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="20.25" customHeight="1">
+    <row r="138" spans="1:9" ht="20.25" customHeight="1">
       <c r="A138" s="24"/>
       <c r="B138" s="31" t="s">
         <v>17</v>
@@ -7692,7 +7808,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="20.25" customHeight="1">
+    <row r="139" spans="1:9" ht="20.25" customHeight="1">
       <c r="A139" s="24"/>
       <c r="B139" s="31" t="s">
         <v>17</v>
@@ -7715,9 +7831,11 @@
         <v>42340</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="20.25" customHeight="1">
+    <row r="140" spans="1:9" ht="20.25" customHeight="1">
       <c r="A140" s="24"/>
-      <c r="B140" s="31"/>
+      <c r="B140" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C140" s="26"/>
       <c r="D140" s="27"/>
       <c r="E140" s="27">
@@ -7725,14 +7843,18 @@
         <v>0</v>
       </c>
       <c r="F140" s="28"/>
-      <c r="G140" s="29"/>
+      <c r="G140" s="29">
+        <v>100000</v>
+      </c>
       <c r="H140" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I140" s="220"/>
-    </row>
-    <row r="141" spans="1:10" ht="20.25" customHeight="1">
+        <v>200670</v>
+      </c>
+      <c r="I140" s="220">
+        <v>42363</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="20.25" customHeight="1">
       <c r="A141" s="24"/>
       <c r="B141" s="31"/>
       <c r="C141" s="26"/>
@@ -7749,51 +7871,170 @@
       </c>
       <c r="I141" s="220"/>
     </row>
-    <row r="142" spans="1:10" ht="20.25" customHeight="1">
+    <row r="142" spans="1:9" ht="20.25" customHeight="1">
       <c r="A142" s="24"/>
       <c r="B142" s="31"/>
       <c r="C142" s="26"/>
       <c r="D142" s="27"/>
       <c r="E142" s="27">
-        <f t="shared" ref="E142" si="12">C142*D142</f>
+        <f t="shared" ref="E142:E149" si="12">C142*D142</f>
         <v>0</v>
       </c>
       <c r="F142" s="28"/>
       <c r="G142" s="29"/>
       <c r="H142" s="19">
-        <f>IF(B142&lt;&gt;"",#REF!+E142-F142-G142,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I142" s="197"/>
-    </row>
-    <row r="143" spans="1:10" s="37" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A143" s="242" t="s">
+        <f t="shared" ref="H142:H149" si="13">IF(B142&lt;&gt;"",H141+E142-F142-G142,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I142" s="242"/>
+    </row>
+    <row r="143" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A143" s="24"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F143" s="28"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I143" s="242"/>
+    </row>
+    <row r="144" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A144" s="24"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F144" s="28"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I144" s="242"/>
+    </row>
+    <row r="145" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A145" s="24"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F145" s="28"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I145" s="242"/>
+    </row>
+    <row r="146" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A146" s="24"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F146" s="28"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I146" s="242"/>
+    </row>
+    <row r="147" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A147" s="24"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F147" s="28"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I147" s="242"/>
+    </row>
+    <row r="148" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A148" s="24"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F148" s="28"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I148" s="242"/>
+    </row>
+    <row r="149" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A149" s="24"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F149" s="28"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I149" s="242"/>
+    </row>
+    <row r="150" spans="1:10" s="37" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A150" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B143" s="242"/>
-      <c r="C143" s="242"/>
-      <c r="D143" s="242"/>
-      <c r="E143" s="68">
-        <f>SUM(E21:E142)</f>
+      <c r="B150" s="243"/>
+      <c r="C150" s="243"/>
+      <c r="D150" s="243"/>
+      <c r="E150" s="68">
+        <f>SUM(E21:E149)</f>
         <v>2129439.5</v>
       </c>
-      <c r="F143" s="68">
-        <f>SUM(F21:F142)</f>
-        <v>0</v>
-      </c>
-      <c r="G143" s="68">
-        <f>SUM(G21:G142)</f>
-        <v>1828769.5</v>
-      </c>
-      <c r="H143" s="68">
-        <f>E143-F143-G143</f>
-        <v>300670</v>
-      </c>
-      <c r="I143" s="68"/>
-      <c r="J143" s="79"/>
+      <c r="F150" s="68">
+        <f>SUM(F21:F149)</f>
+        <v>0</v>
+      </c>
+      <c r="G150" s="68">
+        <f>SUM(G21:G149)</f>
+        <v>1928769.5</v>
+      </c>
+      <c r="H150" s="68">
+        <f>E150-F150-G150</f>
+        <v>200670</v>
+      </c>
+      <c r="I150" s="68"/>
+      <c r="J150" s="79"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:I143">
+  <autoFilter ref="A9:I150">
     <filterColumn colId="3"/>
   </autoFilter>
   <mergeCells count="10">
@@ -7801,7 +8042,7 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A150:D150"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:G7"/>
@@ -7825,7 +8066,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -7844,66 +8085,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="273" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="273"/>
+      <c r="D7" s="274"/>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="274"/>
-      <c r="D8" s="275"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="276"/>
       <c r="F8" s="56"/>
       <c r="G8" s="38"/>
     </row>
@@ -7955,7 +8196,7 @@
         <f>IF(B10&lt;&gt;"",+E10-F10,0)</f>
         <v>31790</v>
       </c>
-      <c r="H10" s="276" t="s">
+      <c r="H10" s="277" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7980,7 +8221,7 @@
         <f>IF(B11&lt;&gt;"",G10+E11-F11,0)</f>
         <v>153370</v>
       </c>
-      <c r="H11" s="277"/>
+      <c r="H11" s="278"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" hidden="1" customHeight="1">
       <c r="A12" s="24"/>
@@ -7996,14 +8237,14 @@
       <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" hidden="1" customHeight="1">
-      <c r="A13" s="251"/>
-      <c r="B13" s="252"/>
-      <c r="C13" s="252"/>
-      <c r="D13" s="252"/>
-      <c r="E13" s="252"/>
-      <c r="F13" s="252"/>
-      <c r="G13" s="252"/>
-      <c r="H13" s="253"/>
+      <c r="A13" s="252"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="253"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="253"/>
+      <c r="G13" s="253"/>
+      <c r="H13" s="254"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" hidden="1" customHeight="1">
       <c r="A14" s="24">
@@ -8219,14 +8460,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" hidden="1" customHeight="1">
-      <c r="A23" s="251"/>
-      <c r="B23" s="252"/>
-      <c r="C23" s="252"/>
-      <c r="D23" s="252"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="252"/>
-      <c r="G23" s="252"/>
-      <c r="H23" s="253"/>
+      <c r="A23" s="252"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="253"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="254"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" hidden="1" customHeight="1">
       <c r="A24" s="24">
@@ -8359,14 +8600,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" hidden="1" customHeight="1">
-      <c r="A30" s="251"/>
-      <c r="B30" s="252"/>
-      <c r="C30" s="252"/>
-      <c r="D30" s="252"/>
-      <c r="E30" s="252"/>
-      <c r="F30" s="252"/>
-      <c r="G30" s="252"/>
-      <c r="H30" s="253"/>
+      <c r="A30" s="252"/>
+      <c r="B30" s="253"/>
+      <c r="C30" s="253"/>
+      <c r="D30" s="253"/>
+      <c r="E30" s="253"/>
+      <c r="F30" s="253"/>
+      <c r="G30" s="253"/>
+      <c r="H30" s="254"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" hidden="1" customHeight="1">
       <c r="A31" s="24">
@@ -8597,14 +8838,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" hidden="1" customHeight="1">
-      <c r="A41" s="251"/>
-      <c r="B41" s="252"/>
-      <c r="C41" s="252"/>
-      <c r="D41" s="252"/>
-      <c r="E41" s="252"/>
-      <c r="F41" s="252"/>
-      <c r="G41" s="252"/>
-      <c r="H41" s="253"/>
+      <c r="A41" s="252"/>
+      <c r="B41" s="253"/>
+      <c r="C41" s="253"/>
+      <c r="D41" s="253"/>
+      <c r="E41" s="253"/>
+      <c r="F41" s="253"/>
+      <c r="G41" s="253"/>
+      <c r="H41" s="254"/>
     </row>
     <row r="42" spans="1:8" ht="18.75" customHeight="1">
       <c r="A42" s="24">
@@ -8913,16 +9154,16 @@
         <v>8424</v>
       </c>
       <c r="D55" s="27">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E55" s="27">
         <f t="shared" si="2"/>
-        <v>370656</v>
+        <v>379080</v>
       </c>
       <c r="F55" s="29"/>
       <c r="G55" s="27">
         <f>IF(B55&lt;&gt;"",G54+E55-F55,0)</f>
-        <v>370656</v>
+        <v>379080</v>
       </c>
       <c r="H55" s="30"/>
     </row>
@@ -8937,16 +9178,16 @@
         <v>10374</v>
       </c>
       <c r="D56" s="27">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E56" s="27">
         <f t="shared" si="2"/>
-        <v>622440</v>
+        <v>705432</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="27">
         <f t="shared" si="3"/>
-        <v>993096</v>
+        <v>1084512</v>
       </c>
       <c r="H56" s="30"/>
     </row>
@@ -8961,16 +9202,16 @@
         <v>7420</v>
       </c>
       <c r="D57" s="27">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="2"/>
-        <v>445200</v>
+        <v>504560</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="27">
         <f t="shared" si="3"/>
-        <v>1438296</v>
+        <v>1589072</v>
       </c>
       <c r="H57" s="30"/>
     </row>
@@ -8994,7 +9235,7 @@
       <c r="F58" s="29"/>
       <c r="G58" s="27">
         <f t="shared" ref="G58:G78" si="5">IF(B58&lt;&gt;"",G57+E58-F58,0)</f>
-        <v>1710456</v>
+        <v>1861232</v>
       </c>
       <c r="H58" s="30"/>
     </row>
@@ -9007,16 +9248,16 @@
         <v>3090</v>
       </c>
       <c r="D59" s="27">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E59" s="27">
         <f t="shared" si="4"/>
-        <v>169950</v>
+        <v>185400</v>
       </c>
       <c r="F59" s="29"/>
       <c r="G59" s="27">
         <f t="shared" si="5"/>
-        <v>1880406</v>
+        <v>2046632</v>
       </c>
       <c r="H59" s="30"/>
     </row>
@@ -9031,16 +9272,16 @@
         <v>2700</v>
       </c>
       <c r="D60" s="27">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E60" s="27">
         <f t="shared" si="4"/>
-        <v>148500</v>
+        <v>162000</v>
       </c>
       <c r="F60" s="29"/>
       <c r="G60" s="27">
         <f t="shared" si="5"/>
-        <v>2028906</v>
+        <v>2208632</v>
       </c>
       <c r="H60" s="30"/>
     </row>
@@ -9053,16 +9294,16 @@
         <v>525</v>
       </c>
       <c r="D61" s="27">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E61" s="27">
         <f t="shared" si="4"/>
-        <v>23625</v>
+        <v>26250</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="27">
         <f t="shared" si="5"/>
-        <v>2052531</v>
+        <v>2234882</v>
       </c>
       <c r="H61" s="30"/>
     </row>
@@ -9082,7 +9323,7 @@
       </c>
       <c r="G62" s="27">
         <f t="shared" si="5"/>
-        <v>1652531</v>
+        <v>1834882</v>
       </c>
       <c r="H62" s="30">
         <v>42235</v>
@@ -9099,16 +9340,16 @@
         <v>7410</v>
       </c>
       <c r="D63" s="27">
-        <v>59.5</v>
+        <v>55</v>
       </c>
       <c r="E63" s="27">
         <f t="shared" si="4"/>
-        <v>440895</v>
+        <v>407550</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="27">
         <f t="shared" si="5"/>
-        <v>2093426</v>
+        <v>2242432</v>
       </c>
       <c r="H63" s="30"/>
     </row>
@@ -9122,15 +9363,17 @@
       <c r="C64" s="26">
         <v>550</v>
       </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27">
-        <f t="shared" ref="E64:E77" si="6">C64*D64</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="29"/>
+      <c r="D64" s="27">
+        <v>50</v>
+      </c>
+      <c r="E64" s="27"/>
+      <c r="F64" s="29">
+        <f>C64*D64</f>
+        <v>27500</v>
+      </c>
       <c r="G64" s="27">
-        <f t="shared" ref="G64:G77" si="7">IF(B64&lt;&gt;"",G63+E64-F64,0)</f>
-        <v>2093426</v>
+        <f t="shared" ref="G64:G77" si="6">IF(B64&lt;&gt;"",G63+E64-F64,0)</f>
+        <v>2214932</v>
       </c>
       <c r="H64" s="30"/>
     </row>
@@ -9144,31 +9387,37 @@
       <c r="C65" s="26"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E64:E77" si="7">C65*D65</f>
         <v>0</v>
       </c>
       <c r="F65" s="29">
         <v>200000</v>
       </c>
       <c r="G65" s="27">
-        <f t="shared" si="7"/>
-        <v>1893426</v>
+        <f t="shared" si="6"/>
+        <v>2014932</v>
       </c>
       <c r="H65" s="30"/>
     </row>
     <row r="66" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A66" s="24"/>
-      <c r="B66" s="31"/>
+      <c r="A66" s="24">
+        <v>42363</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C66" s="26"/>
       <c r="D66" s="27"/>
       <c r="E66" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="29">
+        <v>800000</v>
+      </c>
+      <c r="G66" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="29"/>
-      <c r="G66" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1214932</v>
       </c>
       <c r="H66" s="30"/>
     </row>
@@ -9178,12 +9427,12 @@
       <c r="C67" s="26"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H67" s="30"/>
@@ -9194,12 +9443,12 @@
       <c r="C68" s="26"/>
       <c r="D68" s="27"/>
       <c r="E68" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H68" s="30"/>
@@ -9210,12 +9459,12 @@
       <c r="C69" s="26"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H69" s="30"/>
@@ -9226,12 +9475,12 @@
       <c r="C70" s="26"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H70" s="30"/>
@@ -9242,12 +9491,12 @@
       <c r="C71" s="26"/>
       <c r="D71" s="27"/>
       <c r="E71" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H71" s="30"/>
@@ -9258,12 +9507,12 @@
       <c r="C72" s="26"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H72" s="30"/>
@@ -9274,12 +9523,12 @@
       <c r="C73" s="26"/>
       <c r="D73" s="27"/>
       <c r="E73" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H73" s="30"/>
@@ -9290,12 +9539,12 @@
       <c r="C74" s="26"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F74" s="29"/>
       <c r="G74" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H74" s="30"/>
@@ -9306,12 +9555,12 @@
       <c r="C75" s="26"/>
       <c r="D75" s="27"/>
       <c r="E75" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F75" s="29"/>
       <c r="G75" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H75" s="30"/>
@@ -9322,12 +9571,12 @@
       <c r="C76" s="26"/>
       <c r="D76" s="27"/>
       <c r="E76" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F76" s="29"/>
       <c r="G76" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H76" s="30"/>
@@ -9338,12 +9587,12 @@
       <c r="C77" s="26"/>
       <c r="D77" s="27"/>
       <c r="E77" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H77" s="30"/>
@@ -9381,23 +9630,23 @@
       <c r="H79" s="30"/>
     </row>
     <row r="80" spans="1:8" s="37" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A80" s="242" t="s">
+      <c r="A80" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="242"/>
-      <c r="C80" s="242"/>
-      <c r="D80" s="242"/>
+      <c r="B80" s="243"/>
+      <c r="C80" s="243"/>
+      <c r="D80" s="243"/>
       <c r="E80" s="68">
         <f>SUM(E10:E79)</f>
-        <v>6859489</v>
+        <v>7008495</v>
       </c>
       <c r="F80" s="68">
         <f>SUM(F10:F79)</f>
-        <v>4966063</v>
+        <v>5793563</v>
       </c>
       <c r="G80" s="82">
         <f>E80-F80</f>
-        <v>1893426</v>
+        <v>1214932</v>
       </c>
       <c r="H80" s="69"/>
     </row>
@@ -9434,12 +9683,12 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -9458,67 +9707,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
       <c r="F2" s="236"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="236"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="247"/>
-      <c r="B7" s="247"/>
-      <c r="C7" s="273" t="s">
+      <c r="A7" s="248"/>
+      <c r="B7" s="248"/>
+      <c r="C7" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="273"/>
+      <c r="D7" s="274"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="274"/>
-      <c r="D8" s="275"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="276"/>
       <c r="G8" s="56"/>
       <c r="H8" s="38"/>
     </row>
@@ -9539,7 +9788,7 @@
         <v>75</v>
       </c>
       <c r="F9" s="72" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G9" s="73" t="s">
         <v>15</v>
@@ -9588,7 +9837,7 @@
         <v>169</v>
       </c>
       <c r="E11" s="27">
-        <f t="shared" ref="E11:E24" si="0">C11*D11</f>
+        <f t="shared" ref="E11:E23" si="0">C11*D11</f>
         <v>5070</v>
       </c>
       <c r="F11" s="27"/>
@@ -9617,7 +9866,7 @@
       <c r="F12" s="27"/>
       <c r="G12" s="29"/>
       <c r="H12" s="27">
-        <f t="shared" ref="H12:H26" si="1">IF(B12&lt;&gt;"",H11+E12-F12-G12,0)</f>
+        <f t="shared" ref="H12:H35" si="1">IF(B12&lt;&gt;"",H11+E12-F12-G12,0)</f>
         <v>623900</v>
       </c>
       <c r="I12" s="30"/>
@@ -9668,45 +9917,54 @@
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A15" s="24"/>
+      <c r="A15" s="24">
+        <v>42310</v>
+      </c>
       <c r="B15" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27">
-        <v>3750</v>
-      </c>
-      <c r="F15" s="27"/>
+        <v>162</v>
+      </c>
+      <c r="C15" s="26">
+        <v>7000</v>
+      </c>
+      <c r="D15" s="27">
+        <v>48</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27">
+        <f>C15*D15</f>
+        <v>336000</v>
+      </c>
       <c r="G15" s="29"/>
       <c r="H15" s="27">
         <f t="shared" si="1"/>
-        <v>1072940</v>
-      </c>
-      <c r="I15" s="30"/>
+        <v>733190</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1">
       <c r="A16" s="24">
-        <v>42310</v>
+        <v>42315</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>162</v>
       </c>
       <c r="C16" s="26">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="D16" s="27">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27">
-        <f>C16*D16</f>
-        <v>336000</v>
+        <f t="shared" ref="F16:F18" si="2">C16*D16</f>
+        <v>121250</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="27">
         <f t="shared" si="1"/>
-        <v>736940</v>
+        <v>611940</v>
       </c>
       <c r="I16" s="30" t="s">
         <v>79</v>
@@ -9714,7 +9972,7 @@
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
       <c r="A17" s="24">
-        <v>42315</v>
+        <v>42317</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>162</v>
@@ -9727,92 +9985,88 @@
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27">
-        <f t="shared" ref="F17:F19" si="2">C17*D17</f>
+        <f t="shared" si="2"/>
         <v>121250</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="27">
         <f t="shared" si="1"/>
-        <v>615690</v>
+        <v>490690</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A18" s="24">
-        <v>42317</v>
-      </c>
+      <c r="A18" s="24"/>
       <c r="B18" s="31" t="s">
         <v>162</v>
       </c>
       <c r="C18" s="26">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="D18" s="27">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27">
         <f t="shared" si="2"/>
-        <v>121250</v>
+        <v>73500</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="27">
         <f t="shared" si="1"/>
-        <v>494440</v>
+        <v>417190</v>
       </c>
       <c r="I18" s="30" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A19" s="24"/>
+      <c r="A19" s="24">
+        <v>42329</v>
+      </c>
       <c r="B19" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="26">
-        <v>1500</v>
-      </c>
-      <c r="D19" s="27">
-        <v>49</v>
-      </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27">
-        <f t="shared" si="2"/>
-        <v>73500</v>
-      </c>
-      <c r="G19" s="29"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="29">
+        <v>300000</v>
+      </c>
       <c r="H19" s="27">
         <f t="shared" si="1"/>
-        <v>420940</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A20" s="24">
-        <v>42329</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="29">
-        <v>300000</v>
-      </c>
+        <v>117190</v>
+      </c>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A20" s="237"/>
+      <c r="B20" s="238" t="s">
+        <v>436</v>
+      </c>
+      <c r="C20" s="239">
+        <v>10</v>
+      </c>
+      <c r="D20" s="240">
+        <v>150</v>
+      </c>
+      <c r="E20" s="240"/>
+      <c r="F20" s="240">
+        <f>C20*D20</f>
+        <v>1500</v>
+      </c>
+      <c r="G20" s="240"/>
       <c r="H20" s="27">
         <f t="shared" si="1"/>
-        <v>120940</v>
-      </c>
-      <c r="I20" s="30"/>
+        <v>115690</v>
+      </c>
+      <c r="I20" s="237"/>
     </row>
     <row r="21" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="237"/>
@@ -9820,20 +10074,20 @@
         <v>437</v>
       </c>
       <c r="C21" s="239">
-        <v>10</v>
+        <v>10.95</v>
       </c>
       <c r="D21" s="240">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="E21" s="240"/>
       <c r="F21" s="240">
-        <f>C21*D21</f>
-        <v>1500</v>
+        <f t="shared" ref="F21:F24" si="3">C21*D21</f>
+        <v>438</v>
       </c>
       <c r="G21" s="240"/>
-      <c r="H21" s="240">
+      <c r="H21" s="27">
         <f t="shared" si="1"/>
-        <v>119440</v>
+        <v>115252</v>
       </c>
       <c r="I21" s="237"/>
     </row>
@@ -9843,76 +10097,89 @@
         <v>438</v>
       </c>
       <c r="C22" s="239">
-        <v>10.95</v>
+        <v>50</v>
       </c>
       <c r="D22" s="240">
-        <v>40</v>
+        <v>8.5</v>
       </c>
       <c r="E22" s="240"/>
       <c r="F22" s="240">
-        <f t="shared" ref="F22:F23" si="3">C22*D22</f>
-        <v>438</v>
+        <f t="shared" si="3"/>
+        <v>425</v>
       </c>
       <c r="G22" s="240"/>
-      <c r="H22" s="240">
+      <c r="H22" s="27">
         <f t="shared" si="1"/>
-        <v>119002</v>
-      </c>
-      <c r="I22" s="237"/>
-    </row>
-    <row r="23" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A23" s="237"/>
+        <v>114827</v>
+      </c>
+      <c r="I22" s="238"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A23" s="24"/>
       <c r="B23" s="238" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C23" s="239">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D23" s="240">
-        <v>8.5</v>
+        <v>167</v>
       </c>
       <c r="E23" s="240"/>
       <c r="F23" s="240">
         <f t="shared" si="3"/>
-        <v>425</v>
+        <v>4175</v>
       </c>
       <c r="G23" s="240"/>
-      <c r="H23" s="240">
+      <c r="H23" s="27">
         <f t="shared" si="1"/>
-        <v>118577</v>
-      </c>
-      <c r="I23" s="238"/>
+        <v>110652</v>
+      </c>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="29"/>
+      <c r="A24" s="284"/>
+      <c r="B24" s="285" t="s">
+        <v>441</v>
+      </c>
+      <c r="C24" s="286">
+        <v>1597</v>
+      </c>
+      <c r="D24" s="223">
+        <v>15</v>
+      </c>
+      <c r="E24" s="223"/>
+      <c r="F24" s="223">
+        <f t="shared" si="3"/>
+        <v>23955</v>
+      </c>
+      <c r="G24" s="223"/>
       <c r="H24" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86697</v>
       </c>
       <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="24">
+        <v>42329</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27">
-        <f>C25*D25</f>
+        <f t="shared" ref="E25" si="4">C25*D25</f>
         <v>0</v>
       </c>
       <c r="F25" s="27"/>
-      <c r="G25" s="29"/>
+      <c r="G25" s="29">
+        <f>H24</f>
+        <v>86697</v>
+      </c>
       <c r="H25" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H25" si="5">IF(B25&lt;&gt;"",H24+E25-F25-G25,0)</f>
         <v>0</v>
       </c>
       <c r="I25" s="30"/>
@@ -9923,7 +10190,7 @@
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27">
-        <f>C26*D26</f>
+        <f t="shared" ref="E24:E34" si="6">C26*D26</f>
         <v>0</v>
       </c>
       <c r="F26" s="27"/>
@@ -9932,36 +10199,189 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" s="227" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="242" t="s">
+      <c r="I26" s="31"/>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="27">
+        <f t="shared" ref="H24:H34" si="7">IF(B27&lt;&gt;"",H26+E27-F27-G27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A31" s="24"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A32" s="24"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="31"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A33" s="24"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="31"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A34" s="24"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A35" s="24"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27">
+        <f>C35*D35</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:9" s="227" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A36" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="242"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="242"/>
-      <c r="E27" s="68">
-        <f>SUM(E10:E26)</f>
-        <v>1072940</v>
-      </c>
-      <c r="F27" s="68">
-        <f>SUM(F10:F26)</f>
-        <v>654363</v>
-      </c>
-      <c r="G27" s="68">
-        <f>SUM(G10:G26)</f>
-        <v>300000</v>
-      </c>
-      <c r="H27" s="82">
-        <f>E27-G27-F27</f>
-        <v>118577</v>
-      </c>
-      <c r="I27" s="225"/>
-    </row>
-    <row r="28" spans="1:9" ht="21.75" customHeight="1">
-      <c r="G28" s="11"/>
-      <c r="H28" s="228"/>
+      <c r="B36" s="243"/>
+      <c r="C36" s="243"/>
+      <c r="D36" s="243"/>
+      <c r="E36" s="68">
+        <f>SUM(E10:E35)</f>
+        <v>1069190</v>
+      </c>
+      <c r="F36" s="68">
+        <f>SUM(F10:F35)</f>
+        <v>682493</v>
+      </c>
+      <c r="G36" s="68">
+        <f>SUM(G10:G35)</f>
+        <v>386697</v>
+      </c>
+      <c r="H36" s="82">
+        <f>E36-G36-F36</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="225"/>
+    </row>
+    <row r="37" spans="1:9" ht="21.75" customHeight="1">
+      <c r="G37" s="11"/>
+      <c r="H37" s="228"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:I9">
@@ -9969,7 +10389,7 @@
   </autoFilter>
   <mergeCells count="9">
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:B3"/>
@@ -10012,66 +10432,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="273" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="273"/>
+      <c r="D7" s="274"/>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="274"/>
-      <c r="D8" s="275"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="276"/>
       <c r="F8" s="56"/>
       <c r="G8" s="38"/>
     </row>
@@ -10416,12 +10836,12 @@
       <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" s="200" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="242" t="s">
+      <c r="A27" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="242"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="242"/>
+      <c r="B27" s="243"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="243"/>
       <c r="E27" s="68">
         <f>SUM(E10:E26)</f>
         <v>165493.6</v>
@@ -10463,12 +10883,12 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -10488,71 +10908,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
+      <c r="B3" s="244"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="243" t="s">
+      <c r="D3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>390</v>
       </c>
-      <c r="B7" s="247"/>
+      <c r="B7" s="248"/>
       <c r="C7" s="227"/>
-      <c r="D7" s="273" t="s">
+      <c r="D7" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="273"/>
+      <c r="E7" s="274"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D8" s="274"/>
-      <c r="E8" s="275"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="276"/>
       <c r="G8" s="56"/>
       <c r="H8" s="38"/>
     </row>
@@ -10659,7 +11079,7 @@
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="27">
-        <f t="shared" ref="H12:H36" si="1">IF(B12&lt;&gt;"",H11+F12-G12,0)</f>
+        <f t="shared" ref="H12:H24" si="1">IF(B12&lt;&gt;"",H11+F12-G12,0)</f>
         <v>122625.7</v>
       </c>
       <c r="I12" s="30"/>
@@ -10953,7 +11373,7 @@
     <row r="24" spans="1:9" ht="18.75" customHeight="1">
       <c r="A24" s="24"/>
       <c r="B24" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>403</v>
@@ -10978,7 +11398,7 @@
     <row r="25" spans="1:9" ht="18.75" customHeight="1">
       <c r="A25" s="24"/>
       <c r="B25" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>403</v>
@@ -11003,7 +11423,7 @@
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
       <c r="A26" s="24"/>
       <c r="B26" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>403</v>
@@ -11036,19 +11456,19 @@
         <v>341</v>
       </c>
       <c r="D27" s="26">
-        <v>1400</v>
+        <v>14000</v>
       </c>
       <c r="E27" s="27">
         <v>8.1999999999999993</v>
       </c>
       <c r="F27" s="27">
         <f t="shared" si="4"/>
-        <v>11479.999999999998</v>
+        <v>114799.99999999999</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="27">
         <f t="shared" si="5"/>
-        <v>175111.40000000002</v>
+        <v>278431.40000000002</v>
       </c>
       <c r="I27" s="31"/>
     </row>
@@ -11073,7 +11493,7 @@
       <c r="G28" s="29"/>
       <c r="H28" s="27">
         <f t="shared" si="5"/>
-        <v>287421.90000000002</v>
+        <v>390741.9</v>
       </c>
       <c r="I28" s="31"/>
     </row>
@@ -11100,7 +11520,7 @@
       <c r="G29" s="29"/>
       <c r="H29" s="27">
         <f t="shared" si="5"/>
-        <v>366981.9</v>
+        <v>470301.9</v>
       </c>
       <c r="I29" s="31"/>
     </row>
@@ -11125,7 +11545,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="27">
         <f t="shared" si="5"/>
-        <v>372445.9</v>
+        <v>475765.9</v>
       </c>
       <c r="I30" s="31"/>
     </row>
@@ -11150,7 +11570,7 @@
       <c r="G31" s="29"/>
       <c r="H31" s="27">
         <f t="shared" si="5"/>
-        <v>467050.9</v>
+        <v>570370.9</v>
       </c>
       <c r="I31" s="31"/>
     </row>
@@ -11177,7 +11597,7 @@
       <c r="G32" s="29"/>
       <c r="H32" s="27">
         <f t="shared" si="5"/>
-        <v>493726.9</v>
+        <v>597046.9</v>
       </c>
       <c r="I32" s="31"/>
     </row>
@@ -11202,7 +11622,7 @@
       <c r="G33" s="29"/>
       <c r="H33" s="27">
         <f t="shared" si="5"/>
-        <v>521534.9</v>
+        <v>624854.9</v>
       </c>
       <c r="I33" s="31"/>
     </row>
@@ -11225,13 +11645,17 @@
       </c>
       <c r="H34" s="27">
         <f t="shared" si="5"/>
-        <v>271534.90000000002</v>
+        <v>374854.9</v>
       </c>
       <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="24">
+        <v>42360</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C35" s="31"/>
       <c r="D35" s="26"/>
       <c r="E35" s="27"/>
@@ -11239,62 +11663,251 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="29">
+        <v>200000</v>
+      </c>
       <c r="H35" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>174854.90000000002</v>
       </c>
       <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
+      <c r="A36" s="24">
+        <v>42355</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="D36" s="26">
+        <v>1140</v>
+      </c>
+      <c r="E36" s="27">
+        <v>16</v>
+      </c>
       <c r="F36" s="27">
-        <f>D36*E36</f>
-        <v>0</v>
+        <f t="shared" ref="F36:F45" si="6">D36*E36</f>
+        <v>18240</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="30"/>
-    </row>
-    <row r="37" spans="1:9" s="200" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A37" s="242" t="s">
+        <f t="shared" ref="H36:H45" si="7">IF(B36&lt;&gt;"",H35+F36-G36,0)</f>
+        <v>193094.90000000002</v>
+      </c>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="D37" s="26">
+        <v>975</v>
+      </c>
+      <c r="E37" s="27">
+        <v>10</v>
+      </c>
+      <c r="F37" s="27">
+        <f t="shared" si="6"/>
+        <v>9750</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="27">
+        <f t="shared" si="7"/>
+        <v>202844.90000000002</v>
+      </c>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A38" s="24">
+        <v>42356</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="D38" s="26">
+        <v>1276</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="29"/>
+      <c r="H38" s="27">
+        <f t="shared" si="7"/>
+        <v>202844.90000000002</v>
+      </c>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A39" s="24"/>
+      <c r="B39" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="D39" s="26">
+        <v>248</v>
+      </c>
+      <c r="E39" s="27">
+        <v>10</v>
+      </c>
+      <c r="F39" s="27">
+        <f t="shared" si="6"/>
+        <v>2480</v>
+      </c>
+      <c r="G39" s="29"/>
+      <c r="H39" s="27">
+        <f t="shared" si="7"/>
+        <v>205324.90000000002</v>
+      </c>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="29"/>
+      <c r="H40" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="29"/>
+      <c r="H41" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="29"/>
+      <c r="H42" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="29"/>
+      <c r="H43" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A44" s="24"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="31"/>
+    </row>
+    <row r="45" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A45" s="24"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="29"/>
+      <c r="H45" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:9" s="200" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A46" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="242"/>
-      <c r="C37" s="242"/>
-      <c r="D37" s="242"/>
-      <c r="E37" s="242"/>
-      <c r="F37" s="68">
-        <f>SUM(F10:F36)</f>
-        <v>848058</v>
-      </c>
-      <c r="G37" s="68">
-        <f>SUM(G10:G36)</f>
-        <v>576523.1</v>
-      </c>
-      <c r="H37" s="82">
-        <f>F37-G37</f>
-        <v>271534.90000000002</v>
-      </c>
-      <c r="I37" s="199"/>
-    </row>
-    <row r="38" spans="1:9" ht="21.75" customHeight="1">
-      <c r="G38" s="11"/>
-      <c r="H38" s="205"/>
+      <c r="B46" s="243"/>
+      <c r="C46" s="243"/>
+      <c r="D46" s="243"/>
+      <c r="E46" s="243"/>
+      <c r="F46" s="68">
+        <f>SUM(F10:F45)</f>
+        <v>981848</v>
+      </c>
+      <c r="G46" s="68">
+        <f>SUM(G10:G45)</f>
+        <v>776523.1</v>
+      </c>
+      <c r="H46" s="82">
+        <f>F46-G46</f>
+        <v>205324.90000000002</v>
+      </c>
+      <c r="I46" s="199"/>
+    </row>
+    <row r="47" spans="1:9" ht="21.75" customHeight="1">
+      <c r="G47" s="11"/>
+      <c r="H47" s="205"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:I9">
     <filterColumn colId="2"/>
   </autoFilter>
   <mergeCells count="9">
-    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A46:E46"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:F2"/>
@@ -11314,12 +11927,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:J207"/>
+  <dimension ref="A1:J216"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="H201" sqref="H201"/>
+      <selection pane="bottomLeft" activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -11336,41 +11949,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="270" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
       <c r="I1" s="162"/>
       <c r="J1" s="162"/>
     </row>
     <row r="2" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
       <c r="I2" s="162"/>
       <c r="J2" s="162"/>
     </row>
     <row r="3" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="269" t="s">
+      <c r="A3" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="269"/>
+      <c r="B3" s="270"/>
       <c r="C3" s="190"/>
-      <c r="D3" s="269" t="s">
+      <c r="D3" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
       <c r="G3" s="190"/>
       <c r="H3" s="186"/>
       <c r="I3" s="162"/>
@@ -11385,18 +11998,18 @@
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="268" t="s">
+      <c r="A5" s="269" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="268"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="268"/>
-      <c r="H5" s="268"/>
-      <c r="I5" s="268"/>
-      <c r="J5" s="268"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
+      <c r="J5" s="269"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="D6" s="8"/>
@@ -11407,10 +12020,10 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A7" s="266" t="s">
+      <c r="A7" s="267" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="266"/>
+      <c r="B7" s="267"/>
       <c r="C7" s="189"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" hidden="1" customHeight="1">
@@ -11695,16 +12308,16 @@
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="270" t="s">
+      <c r="A20" s="271" t="s">
         <v>353</v>
       </c>
-      <c r="B20" s="271"/>
-      <c r="C20" s="271"/>
-      <c r="D20" s="271"/>
-      <c r="E20" s="271"/>
-      <c r="F20" s="271"/>
-      <c r="G20" s="271"/>
-      <c r="H20" s="271"/>
+      <c r="B20" s="272"/>
+      <c r="C20" s="272"/>
+      <c r="D20" s="272"/>
+      <c r="E20" s="272"/>
+      <c r="F20" s="272"/>
+      <c r="G20" s="272"/>
+      <c r="H20" s="272"/>
       <c r="I20" s="99">
         <f>I19</f>
         <v>170230</v>
@@ -12202,16 +12815,16 @@
       <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A41" s="270" t="s">
+      <c r="A41" s="271" t="s">
         <v>354</v>
       </c>
-      <c r="B41" s="271"/>
-      <c r="C41" s="271"/>
-      <c r="D41" s="271"/>
-      <c r="E41" s="271"/>
-      <c r="F41" s="271"/>
-      <c r="G41" s="271"/>
-      <c r="H41" s="271"/>
+      <c r="B41" s="272"/>
+      <c r="C41" s="272"/>
+      <c r="D41" s="272"/>
+      <c r="E41" s="272"/>
+      <c r="F41" s="272"/>
+      <c r="G41" s="272"/>
+      <c r="H41" s="272"/>
       <c r="I41" s="99">
         <f>I40</f>
         <v>-14903</v>
@@ -12746,16 +13359,16 @@
       <c r="J62" s="16"/>
     </row>
     <row r="63" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A63" s="270" t="s">
+      <c r="A63" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="B63" s="271"/>
-      <c r="C63" s="271"/>
-      <c r="D63" s="271"/>
-      <c r="E63" s="271"/>
-      <c r="F63" s="271"/>
-      <c r="G63" s="271"/>
-      <c r="H63" s="271"/>
+      <c r="B63" s="272"/>
+      <c r="C63" s="272"/>
+      <c r="D63" s="272"/>
+      <c r="E63" s="272"/>
+      <c r="F63" s="272"/>
+      <c r="G63" s="272"/>
+      <c r="H63" s="272"/>
       <c r="I63" s="99">
         <f>I62</f>
         <v>-22885</v>
@@ -13551,16 +14164,16 @@
       <c r="J93" s="16"/>
     </row>
     <row r="94" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A94" s="270" t="s">
+      <c r="A94" s="271" t="s">
         <v>356</v>
       </c>
-      <c r="B94" s="271"/>
-      <c r="C94" s="271"/>
-      <c r="D94" s="271"/>
-      <c r="E94" s="271"/>
-      <c r="F94" s="271"/>
-      <c r="G94" s="271"/>
-      <c r="H94" s="271"/>
+      <c r="B94" s="272"/>
+      <c r="C94" s="272"/>
+      <c r="D94" s="272"/>
+      <c r="E94" s="272"/>
+      <c r="F94" s="272"/>
+      <c r="G94" s="272"/>
+      <c r="H94" s="272"/>
       <c r="I94" s="99">
         <f>I93</f>
         <v>-433838</v>
@@ -14254,16 +14867,16 @@
       <c r="J120" s="16"/>
     </row>
     <row r="121" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A121" s="270" t="s">
+      <c r="A121" s="271" t="s">
         <v>357</v>
       </c>
-      <c r="B121" s="271"/>
-      <c r="C121" s="271"/>
-      <c r="D121" s="271"/>
-      <c r="E121" s="271"/>
-      <c r="F121" s="271"/>
-      <c r="G121" s="271"/>
-      <c r="H121" s="271"/>
+      <c r="B121" s="272"/>
+      <c r="C121" s="272"/>
+      <c r="D121" s="272"/>
+      <c r="E121" s="272"/>
+      <c r="F121" s="272"/>
+      <c r="G121" s="272"/>
+      <c r="H121" s="272"/>
       <c r="I121" s="99">
         <f>I120</f>
         <v>-225994.5</v>
@@ -14753,16 +15366,16 @@
       <c r="J139" s="16"/>
     </row>
     <row r="140" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A140" s="270" t="s">
+      <c r="A140" s="271" t="s">
         <v>358</v>
       </c>
-      <c r="B140" s="271"/>
-      <c r="C140" s="271"/>
-      <c r="D140" s="271"/>
-      <c r="E140" s="271"/>
-      <c r="F140" s="271"/>
-      <c r="G140" s="271"/>
-      <c r="H140" s="271"/>
+      <c r="B140" s="272"/>
+      <c r="C140" s="272"/>
+      <c r="D140" s="272"/>
+      <c r="E140" s="272"/>
+      <c r="F140" s="272"/>
+      <c r="G140" s="272"/>
+      <c r="H140" s="272"/>
       <c r="I140" s="99">
         <f>I139</f>
         <v>-92729.3</v>
@@ -15260,16 +15873,16 @@
       <c r="J158" s="16"/>
     </row>
     <row r="159" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A159" s="270" t="s">
+      <c r="A159" s="271" t="s">
         <v>362</v>
       </c>
-      <c r="B159" s="271"/>
-      <c r="C159" s="271"/>
-      <c r="D159" s="271"/>
-      <c r="E159" s="271"/>
-      <c r="F159" s="271"/>
-      <c r="G159" s="271"/>
-      <c r="H159" s="271"/>
+      <c r="B159" s="272"/>
+      <c r="C159" s="272"/>
+      <c r="D159" s="272"/>
+      <c r="E159" s="272"/>
+      <c r="F159" s="272"/>
+      <c r="G159" s="272"/>
+      <c r="H159" s="272"/>
       <c r="I159" s="99">
         <f>I158</f>
         <v>-261663.69999999998</v>
@@ -15843,16 +16456,16 @@
       <c r="J180" s="16"/>
     </row>
     <row r="181" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A181" s="270" t="s">
+      <c r="A181" s="271" t="s">
         <v>415</v>
       </c>
-      <c r="B181" s="271"/>
-      <c r="C181" s="271"/>
-      <c r="D181" s="271"/>
-      <c r="E181" s="271"/>
-      <c r="F181" s="271"/>
-      <c r="G181" s="271"/>
-      <c r="H181" s="271"/>
+      <c r="B181" s="272"/>
+      <c r="C181" s="272"/>
+      <c r="D181" s="272"/>
+      <c r="E181" s="272"/>
+      <c r="F181" s="272"/>
+      <c r="G181" s="272"/>
+      <c r="H181" s="272"/>
       <c r="I181" s="99">
         <f>I180</f>
         <v>-29693.799999999945</v>
@@ -15930,7 +16543,7 @@
         <v>55</v>
       </c>
       <c r="F184" s="19">
-        <f t="shared" ref="F184:F205" si="26">D184*E184</f>
+        <f t="shared" ref="F184:F214" si="26">D184*E184</f>
         <v>108075</v>
       </c>
       <c r="G184" s="19"/>
@@ -15968,489 +16581,800 @@
       <c r="J185" s="16"/>
     </row>
     <row r="186" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A186" s="18"/>
-      <c r="B186" s="16"/>
-      <c r="C186" s="16"/>
-      <c r="D186" s="20"/>
-      <c r="E186" s="19"/>
+      <c r="A186" s="18">
+        <v>42342</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D186" s="20">
+        <v>2570</v>
+      </c>
+      <c r="E186" s="19">
+        <v>46</v>
+      </c>
       <c r="F186" s="19">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>118220</v>
       </c>
       <c r="G186" s="19"/>
       <c r="H186" s="19"/>
       <c r="I186" s="19">
-        <f t="shared" ref="I186:I205" si="27">IF(B186&lt;&gt;"",I185+F186-H186-G186,0)</f>
-        <v>0</v>
+        <f t="shared" ref="I186:I214" si="27">IF(B186&lt;&gt;"",I185+F186-H186-G186,0)</f>
+        <v>392776.20000000007</v>
       </c>
       <c r="J186" s="16"/>
     </row>
     <row r="187" spans="1:10" ht="20.25" customHeight="1">
       <c r="A187" s="18"/>
-      <c r="B187" s="16"/>
-      <c r="C187" s="16"/>
-      <c r="D187" s="20"/>
-      <c r="E187" s="19"/>
+      <c r="B187" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D187" s="20">
+        <v>6480</v>
+      </c>
+      <c r="E187" s="19">
+        <v>25</v>
+      </c>
       <c r="F187" s="19">
         <f t="shared" ref="F187" si="28">D187*E187</f>
-        <v>0</v>
+        <v>162000</v>
       </c>
       <c r="G187" s="19"/>
       <c r="H187" s="19"/>
       <c r="I187" s="19">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>554776.20000000007</v>
       </c>
       <c r="J187" s="16"/>
     </row>
     <row r="188" spans="1:10" ht="20.25" customHeight="1">
       <c r="A188" s="18"/>
-      <c r="B188" s="16"/>
-      <c r="C188" s="16"/>
-      <c r="D188" s="20"/>
-      <c r="E188" s="19"/>
+      <c r="B188" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D188" s="20">
+        <v>965</v>
+      </c>
+      <c r="E188" s="19">
+        <v>6</v>
+      </c>
       <c r="F188" s="19">
         <f t="shared" ref="F188:F189" si="29">D188*E188</f>
-        <v>0</v>
+        <v>5790</v>
       </c>
       <c r="G188" s="19"/>
       <c r="H188" s="19"/>
       <c r="I188" s="19">
         <f t="shared" ref="I188:I189" si="30">IF(B188&lt;&gt;"",I187+F188-H188-G188,0)</f>
-        <v>0</v>
+        <v>560566.20000000007</v>
       </c>
       <c r="J188" s="16"/>
     </row>
     <row r="189" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A189" s="18"/>
-      <c r="B189" s="16"/>
-      <c r="C189" s="16"/>
-      <c r="D189" s="20"/>
-      <c r="E189" s="19"/>
+      <c r="A189" s="18">
+        <v>42348</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D189" s="20">
+        <v>1135</v>
+      </c>
+      <c r="E189" s="19">
+        <v>46</v>
+      </c>
       <c r="F189" s="19">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>52210</v>
       </c>
       <c r="G189" s="19"/>
       <c r="H189" s="19"/>
       <c r="I189" s="19">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>612776.20000000007</v>
       </c>
       <c r="J189" s="16"/>
     </row>
     <row r="190" spans="1:10" ht="20.25" customHeight="1">
       <c r="A190" s="18"/>
-      <c r="B190" s="16"/>
-      <c r="C190" s="16"/>
-      <c r="D190" s="20"/>
-      <c r="E190" s="19"/>
+      <c r="B190" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D190" s="20">
+        <v>235</v>
+      </c>
+      <c r="E190" s="19">
+        <v>48</v>
+      </c>
       <c r="F190" s="19">
-        <f t="shared" ref="F190" si="31">D190*E190</f>
-        <v>0</v>
+        <f t="shared" ref="F190:F193" si="31">D190*E190</f>
+        <v>11280</v>
       </c>
       <c r="G190" s="19"/>
       <c r="H190" s="19"/>
       <c r="I190" s="19">
-        <f t="shared" ref="I190:I201" si="32">IF(B190&lt;&gt;"",I189+F190-H190-G190,0)</f>
-        <v>0</v>
+        <f t="shared" ref="I190:I198" si="32">IF(B190&lt;&gt;"",I189+F190-H190-G190,0)</f>
+        <v>624056.20000000007</v>
       </c>
       <c r="J190" s="16"/>
     </row>
     <row r="191" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A191" s="18"/>
-      <c r="B191" s="31" t="s">
-        <v>162</v>
+      <c r="A191" s="18">
+        <v>42356</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>310</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="D191" s="26">
-        <v>480</v>
-      </c>
-      <c r="E191" s="27">
-        <v>8.5</v>
-      </c>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19">
-        <f t="shared" ref="G191:G193" si="33">D191*E191</f>
-        <v>4080</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D191" s="20">
+        <v>320</v>
+      </c>
+      <c r="E191" s="19">
+        <v>55</v>
+      </c>
+      <c r="F191" s="19">
+        <f t="shared" si="31"/>
+        <v>17600</v>
+      </c>
+      <c r="G191" s="19"/>
       <c r="H191" s="19"/>
       <c r="I191" s="19">
         <f t="shared" si="32"/>
-        <v>-4080</v>
+        <v>641656.20000000007</v>
       </c>
       <c r="J191" s="16"/>
     </row>
     <row r="192" spans="1:10" ht="20.25" customHeight="1">
       <c r="A192" s="18"/>
-      <c r="B192" s="31" t="s">
-        <v>162</v>
+      <c r="B192" s="16" t="s">
+        <v>330</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="D192" s="26">
-        <v>7171</v>
-      </c>
-      <c r="E192" s="27">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F192" s="19"/>
-      <c r="G192" s="19">
-        <f t="shared" si="33"/>
-        <v>65973.2</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D192" s="20">
+        <v>480</v>
+      </c>
+      <c r="E192" s="19">
+        <v>46</v>
+      </c>
+      <c r="F192" s="19">
+        <f t="shared" si="31"/>
+        <v>22080</v>
+      </c>
+      <c r="G192" s="19"/>
       <c r="H192" s="19"/>
       <c r="I192" s="19">
         <f t="shared" si="32"/>
-        <v>-70053.2</v>
+        <v>663736.20000000007</v>
       </c>
       <c r="J192" s="16"/>
     </row>
     <row r="193" spans="1:10" ht="20.25" customHeight="1">
       <c r="A193" s="18"/>
-      <c r="B193" s="31" t="s">
-        <v>416</v>
+      <c r="B193" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="D193" s="26">
-        <v>2604</v>
-      </c>
-      <c r="E193" s="27">
-        <v>19</v>
-      </c>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19">
-        <f t="shared" si="33"/>
-        <v>49476</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D193" s="20">
+        <v>1635</v>
+      </c>
+      <c r="E193" s="19">
+        <v>48</v>
+      </c>
+      <c r="F193" s="19">
+        <f t="shared" si="31"/>
+        <v>78480</v>
+      </c>
+      <c r="G193" s="19"/>
       <c r="H193" s="19"/>
       <c r="I193" s="19">
         <f t="shared" si="32"/>
-        <v>-119529.2</v>
+        <v>742216.20000000007</v>
       </c>
       <c r="J193" s="16"/>
     </row>
     <row r="194" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A194" s="18"/>
-      <c r="B194" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C194" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="D194" s="26">
-        <v>1400</v>
-      </c>
-      <c r="E194" s="27">
-        <v>8.1999999999999993</v>
+      <c r="A194" s="18">
+        <v>42328</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C194" s="16"/>
+      <c r="D194" s="20">
+        <f>10*50</f>
+        <v>500</v>
+      </c>
+      <c r="E194" s="19">
+        <v>16.8</v>
       </c>
       <c r="F194" s="19"/>
       <c r="G194" s="19">
-        <f>D194*E194</f>
-        <v>11479.999999999998</v>
+        <f t="shared" ref="G194:G197" si="33">D194*E194</f>
+        <v>8400</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19">
         <f t="shared" si="32"/>
-        <v>-131009.2</v>
+        <v>733816.20000000007</v>
       </c>
       <c r="J194" s="16"/>
     </row>
     <row r="195" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A195" s="18"/>
+      <c r="A195" s="18">
+        <v>42310</v>
+      </c>
       <c r="B195" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C195" s="31" t="s">
-        <v>350</v>
+      <c r="C195" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="D195" s="26">
-        <v>13213</v>
+        <v>458</v>
       </c>
       <c r="E195" s="27">
         <v>8.5</v>
       </c>
       <c r="F195" s="19"/>
       <c r="G195" s="19">
-        <f>D195*E195</f>
-        <v>112310.5</v>
+        <f t="shared" si="33"/>
+        <v>3893</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19">
         <f t="shared" si="32"/>
-        <v>-243319.7</v>
+        <v>729923.20000000007</v>
       </c>
       <c r="J195" s="16"/>
     </row>
     <row r="196" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A196" s="18"/>
-      <c r="B196" s="16" t="s">
+      <c r="A196" s="18">
+        <v>42309</v>
+      </c>
+      <c r="B196" s="31" t="s">
         <v>162</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="D196" s="26">
-        <v>3000</v>
+        <v>7171</v>
       </c>
       <c r="E196" s="27">
-        <v>14.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F196" s="19"/>
       <c r="G196" s="19">
-        <f t="shared" ref="G196:G198" si="34">D196*E196</f>
-        <v>43500</v>
+        <f t="shared" si="33"/>
+        <v>65973.2</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19">
         <f t="shared" si="32"/>
-        <v>-286819.7</v>
+        <v>663950.00000000012</v>
       </c>
       <c r="J196" s="16"/>
     </row>
     <row r="197" spans="1:10" ht="20.25" customHeight="1">
       <c r="A197" s="18">
-        <v>42311</v>
-      </c>
-      <c r="B197" s="16" t="s">
-        <v>17</v>
+        <v>42309</v>
+      </c>
+      <c r="B197" s="31" t="s">
+        <v>416</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D197" s="20"/>
-      <c r="E197" s="19"/>
-      <c r="F197" s="19">
-        <f t="shared" ref="F197:F199" si="35">D197*E197</f>
-        <v>0</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="D197" s="26">
+        <v>2604</v>
+      </c>
+      <c r="E197" s="27">
+        <v>19</v>
+      </c>
+      <c r="F197" s="19"/>
       <c r="G197" s="19">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H197" s="19">
-        <v>30000</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>49476</v>
+      </c>
+      <c r="H197" s="19"/>
       <c r="I197" s="19">
         <f t="shared" si="32"/>
-        <v>-316819.7</v>
+        <v>614474.00000000012</v>
       </c>
       <c r="J197" s="16"/>
     </row>
     <row r="198" spans="1:10" ht="20.25" customHeight="1">
       <c r="A198" s="18">
-        <v>42322</v>
-      </c>
-      <c r="B198" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C198" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D198" s="20"/>
-      <c r="E198" s="19"/>
-      <c r="F198" s="19">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
+        <v>42333</v>
+      </c>
+      <c r="B198" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C198" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="D198" s="26">
+        <v>14000</v>
+      </c>
+      <c r="E198" s="27">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F198" s="19"/>
       <c r="G198" s="19">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H198" s="19">
-        <v>40000</v>
-      </c>
+        <f>D198*E198</f>
+        <v>114799.99999999999</v>
+      </c>
+      <c r="H198" s="19"/>
       <c r="I198" s="19">
         <f t="shared" si="32"/>
-        <v>-356819.7</v>
+        <v>499674.00000000012</v>
       </c>
       <c r="J198" s="16"/>
     </row>
     <row r="199" spans="1:10" ht="20.25" customHeight="1">
       <c r="A199" s="18">
-        <v>42336</v>
-      </c>
-      <c r="B199" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D199" s="20"/>
-      <c r="E199" s="19"/>
-      <c r="F199" s="19">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="G199" s="19"/>
-      <c r="H199" s="19">
-        <v>20000</v>
-      </c>
+        <v>42333</v>
+      </c>
+      <c r="B199" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C199" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="D199" s="26">
+        <v>13213</v>
+      </c>
+      <c r="E199" s="27">
+        <v>8.5</v>
+      </c>
+      <c r="F199" s="19"/>
+      <c r="G199" s="19">
+        <f>D199*E199</f>
+        <v>112310.5</v>
+      </c>
+      <c r="H199" s="19"/>
       <c r="I199" s="19">
-        <f t="shared" si="32"/>
-        <v>-376819.7</v>
+        <f t="shared" ref="I199:I210" si="34">IF(B199&lt;&gt;"",I198+F199-H199-G199,0)</f>
+        <v>387363.50000000012</v>
       </c>
       <c r="J199" s="16"/>
     </row>
     <row r="200" spans="1:10" ht="20.25" customHeight="1">
       <c r="A200" s="18">
-        <v>42342</v>
-      </c>
-      <c r="B200" s="16" t="s">
-        <v>17</v>
+        <v>42311</v>
+      </c>
+      <c r="B200" s="31" t="s">
+        <v>416</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D200" s="20"/>
-      <c r="E200" s="19"/>
-      <c r="F200" s="19">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G200" s="19"/>
-      <c r="H200" s="19">
-        <v>18000</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D200" s="26">
+        <v>3000</v>
+      </c>
+      <c r="E200" s="27">
+        <v>14.5</v>
+      </c>
+      <c r="F200" s="19"/>
+      <c r="G200" s="19">
+        <f t="shared" ref="G200:G207" si="35">D200*E200</f>
+        <v>43500</v>
+      </c>
+      <c r="H200" s="19"/>
       <c r="I200" s="19">
-        <f t="shared" si="32"/>
-        <v>-394819.7</v>
+        <f t="shared" si="34"/>
+        <v>343863.50000000012</v>
       </c>
       <c r="J200" s="16"/>
     </row>
     <row r="201" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A201" s="18"/>
-      <c r="B201" s="16"/>
-      <c r="C201" s="16"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="19">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G201" s="19"/>
+      <c r="A201" s="18">
+        <v>42320</v>
+      </c>
+      <c r="B201" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D201" s="26">
+        <v>2000</v>
+      </c>
+      <c r="E201" s="27">
+        <v>14.5</v>
+      </c>
+      <c r="F201" s="19"/>
+      <c r="G201" s="19">
+        <f t="shared" si="35"/>
+        <v>29000</v>
+      </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>314863.50000000012</v>
       </c>
       <c r="J201" s="16"/>
     </row>
     <row r="202" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A202" s="18"/>
-      <c r="B202" s="16"/>
-      <c r="C202" s="16"/>
-      <c r="D202" s="20"/>
-      <c r="E202" s="19"/>
-      <c r="F202" s="19">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G202" s="19"/>
+      <c r="A202" s="18">
+        <v>42330</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D202" s="26">
+        <v>2518</v>
+      </c>
+      <c r="E202" s="27">
+        <v>10</v>
+      </c>
+      <c r="F202" s="19"/>
+      <c r="G202" s="19">
+        <f t="shared" si="35"/>
+        <v>25180</v>
+      </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>289683.50000000012</v>
       </c>
       <c r="J202" s="16"/>
     </row>
     <row r="203" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A203" s="18"/>
-      <c r="B203" s="16"/>
-      <c r="C203" s="16"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="19">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G203" s="19"/>
+      <c r="A203" s="18">
+        <v>42342</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D203" s="26">
+        <v>8758</v>
+      </c>
+      <c r="E203" s="27">
+        <v>7.7</v>
+      </c>
+      <c r="F203" s="19"/>
+      <c r="G203" s="19">
+        <f t="shared" si="35"/>
+        <v>67436.600000000006</v>
+      </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>222246.90000000011</v>
       </c>
       <c r="J203" s="16"/>
     </row>
     <row r="204" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A204" s="18"/>
-      <c r="B204" s="16"/>
-      <c r="C204" s="16"/>
-      <c r="D204" s="20"/>
-      <c r="E204" s="19"/>
-      <c r="F204" s="19">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G204" s="19"/>
+      <c r="A204" s="18">
+        <v>42347</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D204" s="26">
+        <v>5351</v>
+      </c>
+      <c r="E204" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="F204" s="19"/>
+      <c r="G204" s="19">
+        <f t="shared" si="35"/>
+        <v>31035.8</v>
+      </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>191211.10000000012</v>
       </c>
       <c r="J204" s="16"/>
     </row>
     <row r="205" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A205" s="18"/>
-      <c r="B205" s="16"/>
-      <c r="C205" s="16"/>
-      <c r="D205" s="20"/>
-      <c r="E205" s="19"/>
-      <c r="F205" s="19">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G205" s="19"/>
+      <c r="A205" s="18">
+        <v>42347</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D205" s="26">
+        <v>2277</v>
+      </c>
+      <c r="E205" s="27">
+        <v>7.7</v>
+      </c>
+      <c r="F205" s="19"/>
+      <c r="G205" s="19">
+        <f t="shared" si="35"/>
+        <v>17532.900000000001</v>
+      </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19">
+        <f t="shared" si="34"/>
+        <v>173678.20000000013</v>
+      </c>
+      <c r="J205" s="16"/>
+    </row>
+    <row r="206" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A206" s="18">
+        <v>42311</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D206" s="20"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="19">
+        <f t="shared" ref="F206:F208" si="36">D206*E206</f>
+        <v>0</v>
+      </c>
+      <c r="G206" s="19">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H206" s="19">
+        <v>30000</v>
+      </c>
+      <c r="I206" s="19">
+        <f t="shared" si="34"/>
+        <v>143678.20000000013</v>
+      </c>
+      <c r="J206" s="16"/>
+    </row>
+    <row r="207" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A207" s="18">
+        <v>42322</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D207" s="20"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G207" s="19">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H207" s="19">
+        <v>40000</v>
+      </c>
+      <c r="I207" s="19">
+        <f t="shared" si="34"/>
+        <v>103678.20000000013</v>
+      </c>
+      <c r="J207" s="16"/>
+    </row>
+    <row r="208" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A208" s="18">
+        <v>42336</v>
+      </c>
+      <c r="B208" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D208" s="20"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="19">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G208" s="19"/>
+      <c r="H208" s="19">
+        <v>20000</v>
+      </c>
+      <c r="I208" s="19">
+        <f t="shared" si="34"/>
+        <v>83678.200000000128</v>
+      </c>
+      <c r="J208" s="16"/>
+    </row>
+    <row r="209" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A209" s="18">
+        <v>42348</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D209" s="20"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="19">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G209" s="19"/>
+      <c r="H209" s="19">
+        <v>70000</v>
+      </c>
+      <c r="I209" s="19">
+        <f t="shared" si="34"/>
+        <v>13678.200000000128</v>
+      </c>
+      <c r="J209" s="16"/>
+    </row>
+    <row r="210" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A210" s="18">
+        <v>42363</v>
+      </c>
+      <c r="B210" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D210" s="20"/>
+      <c r="E210" s="19"/>
+      <c r="F210" s="19">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G210" s="19"/>
+      <c r="H210" s="19">
+        <v>70000</v>
+      </c>
+      <c r="I210" s="19">
+        <f t="shared" si="34"/>
+        <v>-56321.799999999872</v>
+      </c>
+      <c r="J210" s="16"/>
+    </row>
+    <row r="211" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A211" s="18"/>
+      <c r="B211" s="16"/>
+      <c r="C211" s="16"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="19"/>
+      <c r="F211" s="19">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G211" s="19"/>
+      <c r="H211" s="19"/>
+      <c r="I211" s="19">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J205" s="16"/>
-    </row>
-    <row r="206" spans="1:10" s="158" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A206" s="267" t="s">
+      <c r="J211" s="16"/>
+    </row>
+    <row r="212" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A212" s="18"/>
+      <c r="B212" s="16"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="19">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G212" s="19"/>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J212" s="16"/>
+    </row>
+    <row r="213" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A213" s="18"/>
+      <c r="B213" s="16"/>
+      <c r="C213" s="16"/>
+      <c r="D213" s="20"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="19">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G213" s="19"/>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J213" s="16"/>
+    </row>
+    <row r="214" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A214" s="18"/>
+      <c r="B214" s="16"/>
+      <c r="C214" s="16"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="19"/>
+      <c r="F214" s="19">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G214" s="19"/>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J214" s="16"/>
+    </row>
+    <row r="215" spans="1:10" s="158" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A215" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="B206" s="267"/>
-      <c r="C206" s="267"/>
-      <c r="D206" s="267"/>
-      <c r="E206" s="267"/>
-      <c r="F206" s="170">
-        <f>SUM(F10:F205)</f>
-        <v>4634462</v>
-      </c>
-      <c r="G206" s="170">
-        <f>SUM(G10:G205)</f>
-        <v>3192114.5</v>
-      </c>
-      <c r="H206" s="170">
-        <f>SUM(H10:H205)</f>
-        <v>1562611</v>
-      </c>
-      <c r="I206" s="171">
-        <f>F206-G206-H206</f>
-        <v>-120263.5</v>
-      </c>
-      <c r="J206" s="169"/>
-    </row>
-    <row r="207" spans="1:10" ht="21.75" customHeight="1">
-      <c r="H207" s="187"/>
-      <c r="I207" s="10"/>
+      <c r="B215" s="268"/>
+      <c r="C215" s="268"/>
+      <c r="D215" s="268"/>
+      <c r="E215" s="268"/>
+      <c r="F215" s="170">
+        <f>SUM(F10:F214)</f>
+        <v>5102122</v>
+      </c>
+      <c r="G215" s="170">
+        <f>SUM(G10:G214)</f>
+        <v>3473832.8</v>
+      </c>
+      <c r="H215" s="170">
+        <f>SUM(H10:H214)</f>
+        <v>1684611</v>
+      </c>
+      <c r="I215" s="171">
+        <f>F215-G215-H215</f>
+        <v>-56321.799999999814</v>
+      </c>
+      <c r="J215" s="169"/>
+    </row>
+    <row r="216" spans="1:10" ht="21.75" customHeight="1">
+      <c r="H216" s="187"/>
+      <c r="I216" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:J206">
+  <autoFilter ref="A9:J215">
     <filterColumn colId="2"/>
     <filterColumn colId="6"/>
   </autoFilter>
   <mergeCells count="15">
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A215:E215"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:H2"/>
@@ -16499,41 +17423,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="270" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
       <c r="I1" s="162"/>
       <c r="J1" s="162"/>
     </row>
     <row r="2" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
       <c r="I2" s="162"/>
       <c r="J2" s="162"/>
     </row>
     <row r="3" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="269" t="s">
+      <c r="A3" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="269"/>
+      <c r="B3" s="270"/>
       <c r="C3" s="204"/>
-      <c r="D3" s="269" t="s">
+      <c r="D3" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
       <c r="G3" s="204"/>
       <c r="H3" s="204"/>
       <c r="I3" s="162"/>
@@ -16548,18 +17472,18 @@
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="268" t="s">
+      <c r="A5" s="269" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="268"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="268"/>
-      <c r="H5" s="268"/>
-      <c r="I5" s="268"/>
-      <c r="J5" s="268"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
+      <c r="J5" s="269"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="D6" s="8"/>
@@ -16570,10 +17494,10 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A7" s="266" t="s">
+      <c r="A7" s="267" t="s">
         <v>405</v>
       </c>
-      <c r="B7" s="266"/>
+      <c r="B7" s="267"/>
       <c r="C7" s="202"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" hidden="1" customHeight="1">
@@ -16921,13 +17845,13 @@
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10" s="202" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A26" s="267" t="s">
+      <c r="A26" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="267"/>
-      <c r="C26" s="267"/>
-      <c r="D26" s="267"/>
-      <c r="E26" s="267"/>
+      <c r="B26" s="268"/>
+      <c r="C26" s="268"/>
+      <c r="D26" s="268"/>
+      <c r="E26" s="268"/>
       <c r="F26" s="170">
         <f>SUM(F10:F25)</f>
         <v>216000</v>
@@ -16975,12 +17899,12 @@
   <sheetPr codeName="Sheet17" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -16999,37 +17923,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
       <c r="G2" s="54"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="255"/>
-      <c r="C3" s="255" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="51"/>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
@@ -17042,16 +17966,16 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:9" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="254" t="s">
+      <c r="A5" s="255" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="254"/>
-      <c r="C5" s="254"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="255"/>
+      <c r="G5" s="255"/>
+      <c r="H5" s="255"/>
       <c r="I5" s="76"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
@@ -17062,18 +17986,18 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="246" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="246"/>
-      <c r="E7" s="265" t="s">
+      <c r="D7" s="247"/>
+      <c r="E7" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="265"/>
+      <c r="F7" s="266"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="18" customHeight="1">
@@ -17112,14 +18036,14 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1">
-      <c r="A10" s="279" t="s">
+      <c r="A10" s="280" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="280"/>
-      <c r="C10" s="280"/>
-      <c r="D10" s="280"/>
-      <c r="E10" s="280"/>
-      <c r="F10" s="280"/>
+      <c r="B10" s="281"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="281"/>
+      <c r="E10" s="281"/>
+      <c r="F10" s="281"/>
       <c r="G10" s="48">
         <v>451789</v>
       </c>
@@ -17731,14 +18655,14 @@
       <c r="H37" s="30"/>
     </row>
     <row r="38" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1">
-      <c r="A38" s="279" t="s">
+      <c r="A38" s="280" t="s">
         <v>251</v>
       </c>
-      <c r="B38" s="280"/>
-      <c r="C38" s="280"/>
-      <c r="D38" s="280"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="280"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="281"/>
+      <c r="D38" s="281"/>
+      <c r="E38" s="281"/>
+      <c r="F38" s="281"/>
       <c r="G38" s="48">
         <f>G37</f>
         <v>85826</v>
@@ -18230,14 +19154,14 @@
       </c>
     </row>
     <row r="60" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1">
-      <c r="A60" s="279" t="s">
+      <c r="A60" s="280" t="s">
         <v>382</v>
       </c>
-      <c r="B60" s="280"/>
-      <c r="C60" s="280"/>
-      <c r="D60" s="280"/>
-      <c r="E60" s="280"/>
-      <c r="F60" s="280"/>
+      <c r="B60" s="281"/>
+      <c r="C60" s="281"/>
+      <c r="D60" s="281"/>
+      <c r="E60" s="281"/>
+      <c r="F60" s="281"/>
       <c r="G60" s="48">
         <f>G59</f>
         <v>0</v>
@@ -18455,7 +19379,7 @@
       <c r="C69" s="26"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27">
-        <f t="shared" ref="E69:E83" si="6">C69*D69</f>
+        <f t="shared" ref="E69:E92" si="6">C69*D69</f>
         <v>0</v>
       </c>
       <c r="F69" s="29">
@@ -18617,216 +19541,434 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
-      <c r="A76" s="24"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="27"/>
+      <c r="A76" s="24">
+        <v>42320</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="26">
+        <v>2000</v>
+      </c>
+      <c r="D76" s="27">
+        <v>14.5</v>
+      </c>
       <c r="E76" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="F76" s="29"/>
       <c r="G76" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="24"/>
+        <v>724500</v>
+      </c>
+      <c r="H76" s="31" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
-      <c r="A77" s="24"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="27"/>
+      <c r="A77" s="24">
+        <v>42330</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C77" s="26">
+        <v>2518</v>
+      </c>
+      <c r="D77" s="27">
+        <v>10</v>
+      </c>
       <c r="E77" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25180</v>
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="24"/>
+        <v>749680</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
-      <c r="A78" s="24"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
+      <c r="A78" s="24">
+        <v>42342</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C78" s="26">
+        <v>8758</v>
+      </c>
+      <c r="D78" s="27">
+        <v>7.7</v>
+      </c>
       <c r="E78" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>67436.600000000006</v>
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="24"/>
+        <v>817116.6</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
-      <c r="A79" s="24"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="27"/>
+      <c r="A79" s="24">
+        <v>42347</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C79" s="26">
+        <v>5351</v>
+      </c>
+      <c r="D79" s="27">
+        <v>5.8</v>
+      </c>
       <c r="E79" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>31035.8</v>
       </c>
       <c r="F79" s="29"/>
       <c r="G79" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="24"/>
+        <v>848152.4</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
       <c r="A80" s="24"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
+      <c r="B80" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="C80" s="26">
+        <v>2277</v>
+      </c>
+      <c r="D80" s="27">
+        <v>7.7</v>
+      </c>
       <c r="E80" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>17532.900000000001</v>
       </c>
       <c r="F80" s="29"/>
       <c r="G80" s="27">
-        <f t="shared" ref="G80:G83" si="7">IF(B80&lt;&gt;"",G79+E80-F80,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="24"/>
+        <f t="shared" ref="G80:G92" si="7">IF(B80&lt;&gt;"",G79+E80-F80,0)</f>
+        <v>865685.3</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="81" spans="1:9" ht="21" customHeight="1">
-      <c r="A81" s="24"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="27"/>
+      <c r="A81" s="24">
+        <v>42343</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="C81" s="26">
+        <v>1920</v>
+      </c>
+      <c r="D81" s="27">
+        <v>48.5</v>
+      </c>
       <c r="E81" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>93120</v>
       </c>
       <c r="F81" s="29"/>
       <c r="G81" s="27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="24"/>
+        <v>958805.3</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="21" customHeight="1">
-      <c r="A82" s="24"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="27"/>
+      <c r="A82" s="24">
+        <v>42348</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="C82" s="26">
+        <v>5000</v>
+      </c>
+      <c r="D82" s="27">
+        <v>48.5</v>
+      </c>
       <c r="E82" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="E82:E91" si="8">C82*D82</f>
+        <v>242500</v>
       </c>
       <c r="F82" s="29"/>
       <c r="G82" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="24"/>
+        <f t="shared" ref="G82:G91" si="9">IF(B82&lt;&gt;"",G81+E82-F82,0)</f>
+        <v>1201305.3</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="21" customHeight="1">
-      <c r="A83" s="24"/>
-      <c r="B83" s="31"/>
+      <c r="A83" s="24">
+        <v>42360</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C83" s="26"/>
       <c r="D83" s="27"/>
       <c r="E83" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="29">
+        <v>400000</v>
+      </c>
+      <c r="G83" s="27">
+        <f t="shared" si="9"/>
+        <v>801305.3</v>
+      </c>
+      <c r="H83" s="24"/>
+    </row>
+    <row r="84" spans="1:9" ht="21" customHeight="1">
+      <c r="A84" s="24"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="29"/>
+      <c r="G84" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="24"/>
+    </row>
+    <row r="85" spans="1:9" ht="21" customHeight="1">
+      <c r="A85" s="24"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="29"/>
+      <c r="G85" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="24"/>
+    </row>
+    <row r="86" spans="1:9" ht="21" customHeight="1">
+      <c r="A86" s="24"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="29"/>
+      <c r="G86" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="24"/>
+    </row>
+    <row r="87" spans="1:9" ht="21" customHeight="1">
+      <c r="A87" s="24"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="29"/>
+      <c r="G87" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="24"/>
+    </row>
+    <row r="88" spans="1:9" ht="21" customHeight="1">
+      <c r="A88" s="24"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="29"/>
+      <c r="G88" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="24"/>
+    </row>
+    <row r="89" spans="1:9" ht="21" customHeight="1">
+      <c r="A89" s="24"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="29"/>
+      <c r="G89" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="24"/>
+    </row>
+    <row r="90" spans="1:9" ht="21" customHeight="1">
+      <c r="A90" s="24"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="29"/>
+      <c r="G90" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="24"/>
+    </row>
+    <row r="91" spans="1:9" ht="21" customHeight="1">
+      <c r="A91" s="24"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="29"/>
+      <c r="G91" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="24"/>
+    </row>
+    <row r="92" spans="1:9" ht="21" customHeight="1">
+      <c r="A92" s="24"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F83" s="29"/>
-      <c r="G83" s="27">
+      <c r="F92" s="29"/>
+      <c r="G92" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H83" s="24"/>
-    </row>
-    <row r="84" spans="1:9" s="37" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A84" s="242" t="s">
+      <c r="H92" s="24"/>
+    </row>
+    <row r="93" spans="1:9" s="37" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A93" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="242"/>
-      <c r="C84" s="242"/>
-      <c r="D84" s="242"/>
-      <c r="E84" s="68">
-        <f>SUM(E11:E83)+G10</f>
-        <v>5314676.9000000004</v>
-      </c>
-      <c r="F84" s="68">
-        <f>SUM(F11:F83)+H10</f>
-        <v>4619176.9000000004</v>
-      </c>
-      <c r="G84" s="68">
-        <f>(E84-F84)</f>
-        <v>695500</v>
-      </c>
-      <c r="H84" s="69"/>
-    </row>
-    <row r="86" spans="1:9" s="111" customFormat="1" ht="21" customHeight="1">
-      <c r="A86" s="108"/>
-      <c r="B86" s="114" t="s">
+      <c r="B93" s="243"/>
+      <c r="C93" s="243"/>
+      <c r="D93" s="243"/>
+      <c r="E93" s="68">
+        <f>SUM(E11:E92)+G10</f>
+        <v>5820482.2000000002</v>
+      </c>
+      <c r="F93" s="68">
+        <f>SUM(F11:F92)+H10</f>
+        <v>5019176.9000000004</v>
+      </c>
+      <c r="G93" s="68">
+        <f>(E93-F93)</f>
+        <v>801305.29999999981</v>
+      </c>
+      <c r="H93" s="69"/>
+    </row>
+    <row r="95" spans="1:9" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A95" s="108"/>
+      <c r="B95" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="C86" s="109"/>
-      <c r="D86" s="110"/>
-      <c r="E86" s="281">
-        <f>G84*1000</f>
-        <v>695500000</v>
-      </c>
-      <c r="F86" s="281"/>
-      <c r="G86" s="115" t="s">
+      <c r="C95" s="109"/>
+      <c r="D95" s="110"/>
+      <c r="E95" s="282">
+        <f>G93*1000</f>
+        <v>801305299.99999976</v>
+      </c>
+      <c r="F95" s="282"/>
+      <c r="G95" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="H86" s="110"/>
-      <c r="I86" s="110"/>
-    </row>
-    <row r="87" spans="1:9" s="111" customFormat="1" ht="21" customHeight="1">
-      <c r="A87" s="108"/>
-      <c r="B87" s="114" t="s">
+      <c r="H95" s="110"/>
+      <c r="I95" s="110"/>
+    </row>
+    <row r="96" spans="1:9" s="111" customFormat="1" ht="21" customHeight="1">
+      <c r="A96" s="108"/>
+      <c r="B96" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="112" t="str">
-        <f>[1]!VND(E86, TRUE)</f>
-        <v>Sáu trăm chín mươi lăm triệu, năm trăm ngàn đồng</v>
-      </c>
-      <c r="D87" s="110"/>
-      <c r="E87" s="110"/>
-      <c r="F87" s="113"/>
-      <c r="G87" s="110"/>
-      <c r="H87" s="110"/>
-      <c r="I87" s="110"/>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1">
-      <c r="E89" s="282" t="s">
+      <c r="C96" s="112" t="str">
+        <f>[1]!VND(E95, TRUE)</f>
+        <v>Tám trăm lẻ một triệu, ba trăm lẻ năm ngàn, ba trăm đồng</v>
+      </c>
+      <c r="D96" s="110"/>
+      <c r="E96" s="110"/>
+      <c r="F96" s="113"/>
+      <c r="G96" s="110"/>
+      <c r="H96" s="110"/>
+      <c r="I96" s="110"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1">
+      <c r="E98" s="283" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="282"/>
-      <c r="G89" s="282"/>
-      <c r="H89" s="282"/>
-    </row>
-    <row r="90" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A90" s="15" t="s">
+      <c r="F98" s="283"/>
+      <c r="G98" s="283"/>
+      <c r="H98" s="283"/>
+    </row>
+    <row r="99" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A99" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="E90" s="278" t="s">
+      <c r="B99" s="14"/>
+      <c r="E99" s="279" t="s">
         <v>86</v>
       </c>
-      <c r="F90" s="278"/>
-      <c r="G90" s="278"/>
-      <c r="H90" s="278"/>
+      <c r="F99" s="279"/>
+      <c r="G99" s="279"/>
+      <c r="H99" s="279"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="15">
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="A93:D93"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E98:H98"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A5:H5"/>
@@ -18855,7 +19997,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B64" sqref="B64"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -18874,40 +20016,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="270" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
       <c r="H1" s="162"/>
       <c r="I1" s="162"/>
     </row>
     <row r="2" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
       <c r="H2" s="162"/>
       <c r="I2" s="162"/>
     </row>
     <row r="3" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="269" t="s">
+      <c r="A3" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="269"/>
+      <c r="B3" s="270"/>
       <c r="C3" s="194"/>
-      <c r="D3" s="269" t="s">
+      <c r="D3" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
       <c r="G3" s="194"/>
       <c r="H3" s="162"/>
       <c r="I3" s="162"/>
@@ -18920,17 +20062,17 @@
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="268" t="s">
+      <c r="A5" s="269" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="268"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="268"/>
-      <c r="H5" s="268"/>
-      <c r="I5" s="268"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="D6" s="8"/>
@@ -18940,10 +20082,10 @@
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="266" t="s">
+      <c r="A7" s="267" t="s">
         <v>348</v>
       </c>
-      <c r="B7" s="266"/>
+      <c r="B7" s="267"/>
       <c r="C7" s="192"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
@@ -20381,19 +21523,25 @@
       <c r="I64" s="18"/>
     </row>
     <row r="65" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A65" s="18"/>
-      <c r="B65" s="16"/>
+      <c r="A65" s="18">
+        <v>42347</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="C65" s="18"/>
       <c r="D65" s="20"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="19"/>
+        <f t="shared" ref="F65" si="8">D65*E65</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="19">
+        <v>60000</v>
+      </c>
       <c r="H65" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="H65" si="9">IF(B65&lt;&gt;"",H64+F65-G65,0)</f>
+        <v>44996</v>
       </c>
       <c r="I65" s="18"/>
     </row>
@@ -20432,24 +21580,24 @@
       <c r="I67" s="18"/>
     </row>
     <row r="68" spans="1:9" s="192" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A68" s="267" t="s">
+      <c r="A68" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="267"/>
-      <c r="C68" s="267"/>
-      <c r="D68" s="267"/>
-      <c r="E68" s="267"/>
+      <c r="B68" s="268"/>
+      <c r="C68" s="268"/>
+      <c r="D68" s="268"/>
+      <c r="E68" s="268"/>
       <c r="F68" s="170">
         <f>SUM(F10:F67)</f>
         <v>920849.4</v>
       </c>
       <c r="G68" s="170">
         <f>SUM(G10:G67)</f>
-        <v>815853.4</v>
+        <v>875853.4</v>
       </c>
       <c r="H68" s="171">
         <f>F68-G68</f>
-        <v>104996</v>
+        <v>44996</v>
       </c>
       <c r="I68" s="193"/>
     </row>
@@ -20467,7 +21615,7 @@
       <c r="E70" s="110"/>
       <c r="F70" s="128">
         <f>H68*1000</f>
-        <v>104996000</v>
+        <v>44996000</v>
       </c>
       <c r="G70" s="115" t="s">
         <v>88</v>
@@ -20483,7 +21631,7 @@
       <c r="C71" s="114"/>
       <c r="D71" s="112" t="str">
         <f>[1]!VND(F70, TRUE)</f>
-        <v>Một trăm lẻ bốn triệu, chín trăm chín mươi sáu ngàn đồng</v>
+        <v>Bốn mươi bốn triệu, chín trăm chín mươi sáu ngàn đồng</v>
       </c>
       <c r="E71" s="110"/>
       <c r="F71" s="110"/>
@@ -20517,10 +21665,10 @@
   </sheetPr>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A184" sqref="A184"/>
-      <selection pane="bottomLeft" activeCell="I183" sqref="I183"/>
+      <selection pane="bottomLeft" activeCell="F194" sqref="F194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="20.25" customHeight="1"/>
@@ -20538,39 +21686,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
       <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
       <c r="I2" s="107"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
@@ -20583,17 +21731,17 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -20602,14 +21750,14 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="246" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="246"/>
+      <c r="D7" s="247"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="18" customHeight="1">
       <c r="C8" s="57"/>
@@ -20650,15 +21798,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="248" t="s">
+      <c r="A10" s="249" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="249"/>
-      <c r="C10" s="249"/>
-      <c r="D10" s="249"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="249"/>
-      <c r="G10" s="250"/>
+      <c r="B10" s="250"/>
+      <c r="C10" s="250"/>
+      <c r="D10" s="250"/>
+      <c r="E10" s="250"/>
+      <c r="F10" s="250"/>
+      <c r="G10" s="251"/>
       <c r="H10" s="99">
         <v>2622054</v>
       </c>
@@ -22541,15 +23689,15 @@
       </c>
     </row>
     <row r="90" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A90" s="248" t="s">
+      <c r="A90" s="249" t="s">
         <v>251</v>
       </c>
-      <c r="B90" s="249"/>
-      <c r="C90" s="249"/>
-      <c r="D90" s="249"/>
-      <c r="E90" s="249"/>
-      <c r="F90" s="249"/>
-      <c r="G90" s="250"/>
+      <c r="B90" s="250"/>
+      <c r="C90" s="250"/>
+      <c r="D90" s="250"/>
+      <c r="E90" s="250"/>
+      <c r="F90" s="250"/>
+      <c r="G90" s="251"/>
       <c r="H90" s="99">
         <f>H89</f>
         <v>2411924</v>
@@ -23625,15 +24773,15 @@
       </c>
     </row>
     <row r="136" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A136" s="251"/>
-      <c r="B136" s="252"/>
-      <c r="C136" s="252"/>
-      <c r="D136" s="252"/>
-      <c r="E136" s="252"/>
-      <c r="F136" s="252"/>
-      <c r="G136" s="252"/>
-      <c r="H136" s="252"/>
-      <c r="I136" s="253"/>
+      <c r="A136" s="252"/>
+      <c r="B136" s="253"/>
+      <c r="C136" s="253"/>
+      <c r="D136" s="253"/>
+      <c r="E136" s="253"/>
+      <c r="F136" s="253"/>
+      <c r="G136" s="253"/>
+      <c r="H136" s="253"/>
+      <c r="I136" s="254"/>
     </row>
     <row r="137" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
       <c r="A137" s="39"/>
@@ -24823,12 +25971,12 @@
       <c r="I187" s="105"/>
     </row>
     <row r="188" spans="1:9" s="37" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A188" s="242" t="s">
+      <c r="A188" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B188" s="242"/>
-      <c r="C188" s="242"/>
-      <c r="D188" s="242"/>
+      <c r="B188" s="243"/>
+      <c r="C188" s="243"/>
+      <c r="D188" s="243"/>
       <c r="E188" s="68">
         <f>SUM(E10:E187)</f>
         <v>17332086</v>
@@ -24894,10 +26042,10 @@
     <row r="193" spans="1:9" ht="21.75" customHeight="1">
       <c r="A193" s="15"/>
       <c r="B193" s="14"/>
-      <c r="E193" s="245"/>
-      <c r="F193" s="245"/>
-      <c r="G193" s="245"/>
-      <c r="H193" s="245"/>
+      <c r="E193" s="246"/>
+      <c r="F193" s="246"/>
+      <c r="G193" s="246"/>
+      <c r="H193" s="246"/>
       <c r="I193" s="4"/>
     </row>
   </sheetData>
@@ -24951,66 +26099,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>397</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="273" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="273"/>
+      <c r="D7" s="274"/>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="274"/>
-      <c r="D8" s="275"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="276"/>
       <c r="F8" s="56"/>
       <c r="G8" s="38"/>
     </row>
@@ -25327,12 +26475,12 @@
       <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" s="200" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="242" t="s">
+      <c r="A27" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="242"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="242"/>
+      <c r="B27" s="243"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="243"/>
       <c r="E27" s="68">
         <f>SUM(E10:E26)</f>
         <v>422100</v>
@@ -25397,37 +26545,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="G1" s="53"/>
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
       <c r="G2" s="53"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="255"/>
-      <c r="C3" s="255" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="51"/>
       <c r="G3" s="53"/>
       <c r="H3" s="54"/>
@@ -25439,17 +26587,17 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="254" t="s">
+      <c r="A5" s="255" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="254"/>
-      <c r="C5" s="254"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="254"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="255"/>
+      <c r="G5" s="255"/>
+      <c r="H5" s="255"/>
+      <c r="I5" s="255"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -25458,14 +26606,14 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="266" t="s">
+      <c r="A7" s="267" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="266"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
+      <c r="B7" s="267"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="266"/>
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="20.25" customHeight="1">
@@ -26044,12 +27192,12 @@
       <c r="I32" s="155"/>
     </row>
     <row r="33" spans="1:9" s="37" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A33" s="242" t="s">
+      <c r="A33" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="242"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
+      <c r="B33" s="243"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="243"/>
       <c r="E33" s="68">
         <f>SUM(E10:E32)</f>
         <v>756686.5</v>
@@ -26116,39 +27264,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -26163,18 +27311,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="245"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -26185,19 +27333,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>398</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="246" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="247" t="s">
         <v>399</v>
       </c>
-      <c r="D7" s="246"/>
-      <c r="E7" s="265" t="s">
+      <c r="D7" s="247"/>
+      <c r="E7" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -26493,12 +27641,12 @@
       <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="242" t="s">
+      <c r="A25" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="242"/>
-      <c r="C25" s="242"/>
-      <c r="D25" s="242"/>
+      <c r="B25" s="243"/>
+      <c r="C25" s="243"/>
+      <c r="D25" s="243"/>
       <c r="E25" s="68">
         <f>SUM(E10:E24)</f>
         <v>0</v>
@@ -26565,39 +27713,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -26612,18 +27760,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="245"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -26634,19 +27782,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="246" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="246"/>
-      <c r="E7" s="265" t="s">
+      <c r="D7" s="247"/>
+      <c r="E7" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -26852,12 +28000,12 @@
       <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A18" s="242" t="s">
+      <c r="A18" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="242"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
+      <c r="B18" s="243"/>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
       <c r="E18" s="68">
         <f>SUM(E10:E17)</f>
         <v>169780</v>
@@ -26924,39 +28072,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -26971,18 +28119,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="245"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -26993,19 +28141,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="246" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="246"/>
-      <c r="E7" s="265" t="s">
+      <c r="D7" s="247"/>
+      <c r="E7" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -27265,12 +28413,12 @@
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="242" t="s">
+      <c r="A22" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="242"/>
-      <c r="C22" s="242"/>
-      <c r="D22" s="242"/>
+      <c r="B22" s="243"/>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
       <c r="E22" s="68">
         <f>SUM(E10:E21)</f>
         <v>90861</v>
@@ -27314,12 +28462,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B80" sqref="B80"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16:I20"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -27338,42 +28486,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
+      <c r="B3" s="244"/>
       <c r="C3" s="215"/>
-      <c r="D3" s="243" t="s">
+      <c r="D3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
       <c r="G3" s="93"/>
       <c r="H3" s="215"/>
       <c r="I3" s="62"/>
@@ -27388,19 +28536,19 @@
       <c r="J4" s="217"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="245"/>
+      <c r="K5" s="245"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1">
       <c r="D6" s="4"/>
@@ -27411,20 +28559,20 @@
       <c r="J6" s="217"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>410</v>
       </c>
-      <c r="B7" s="247"/>
+      <c r="B7" s="248"/>
       <c r="C7" s="214"/>
-      <c r="D7" s="246" t="s">
+      <c r="D7" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="246"/>
-      <c r="F7" s="265" t="s">
+      <c r="E7" s="247"/>
+      <c r="F7" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="265"/>
-      <c r="H7" s="265"/>
+      <c r="G7" s="266"/>
+      <c r="H7" s="266"/>
       <c r="J7" s="217"/>
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="18" customHeight="1">
@@ -27482,7 +28630,7 @@
         <v>9.5</v>
       </c>
       <c r="F10" s="27">
-        <f t="shared" ref="F10:F22" si="0">D10*E10</f>
+        <f t="shared" ref="F10:F29" si="0">D10*E10</f>
         <v>88255</v>
       </c>
       <c r="G10" s="28"/>
@@ -27539,7 +28687,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="29"/>
       <c r="I12" s="27">
-        <f t="shared" ref="I12:I22" si="2">IF(B12&lt;&gt;"",I11+F12-G12-H12,0)</f>
+        <f t="shared" ref="I12:I29" si="2">IF(B12&lt;&gt;"",I11+F12-G12-H12,0)</f>
         <v>106775.09999999999</v>
       </c>
       <c r="J12" s="155"/>
@@ -27685,7 +28833,7 @@
         <v>42332</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>341</v>
@@ -27757,8 +28905,12 @@
       <c r="J20" s="155"/>
     </row>
     <row r="21" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="24">
+        <v>42360</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C21" s="31"/>
       <c r="D21" s="26"/>
       <c r="E21" s="27"/>
@@ -27767,7 +28919,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
+      <c r="H21" s="29">
+        <f>I20</f>
+        <v>122604.29999999993</v>
+      </c>
       <c r="I21" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27792,39 +28947,165 @@
       </c>
       <c r="J22" s="155"/>
     </row>
-    <row r="23" spans="1:11" s="214" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="242" t="s">
+    <row r="23" spans="1:11" ht="20.25" customHeight="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="155"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.25" customHeight="1">
+      <c r="A24" s="24"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="155"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.25" customHeight="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="155"/>
+    </row>
+    <row r="26" spans="1:11" ht="20.25" customHeight="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="155"/>
+    </row>
+    <row r="27" spans="1:11" ht="20.25" customHeight="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="155"/>
+    </row>
+    <row r="28" spans="1:11" ht="20.25" customHeight="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="155"/>
+    </row>
+    <row r="29" spans="1:11" ht="20.25" customHeight="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="155"/>
+    </row>
+    <row r="30" spans="1:11" s="214" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A30" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="242"/>
-      <c r="C23" s="242"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="68">
-        <f>SUM(F10:F22)</f>
+      <c r="B30" s="243"/>
+      <c r="C30" s="243"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="243"/>
+      <c r="F30" s="68">
+        <f>SUM(F10:F29)</f>
         <v>710859.29999999993</v>
       </c>
-      <c r="G23" s="68">
-        <f>SUM(G10:G22)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="68">
-        <f>SUM(H10:H22)</f>
-        <v>588255</v>
-      </c>
-      <c r="I23" s="68">
-        <f>F23-G23-H23</f>
-        <v>122604.29999999993</v>
-      </c>
-      <c r="J23" s="68"/>
-      <c r="K23" s="216"/>
+      <c r="G30" s="68">
+        <f>SUM(G10:G29)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="68">
+        <f>SUM(H10:H29)</f>
+        <v>710859.29999999993</v>
+      </c>
+      <c r="I30" s="68">
+        <f>F30-G30-H30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="68"/>
+      <c r="K30" s="216"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:J9">
     <filterColumn colId="2"/>
   </autoFilter>
   <mergeCells count="9">
-    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:B3"/>
@@ -27850,7 +29131,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B80" sqref="B80"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -27868,39 +29149,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -27915,18 +29196,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="245"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -27937,19 +29218,19 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>417</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="246" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="246"/>
-      <c r="E7" s="265" t="s">
+      <c r="D7" s="247"/>
+      <c r="E7" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
       <c r="I7" s="222"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -28063,8 +29344,12 @@
       <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="24">
+        <v>42345</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27">
@@ -28072,16 +29357,22 @@
         <v>0</v>
       </c>
       <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
+      <c r="G13" s="29">
+        <v>150000</v>
+      </c>
       <c r="H13" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>89360</v>
       </c>
       <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="24">
+        <v>42360</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27">
@@ -28089,7 +29380,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
+      <c r="G14" s="29">
+        <f>H13</f>
+        <v>89360</v>
+      </c>
       <c r="H14" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -28216,12 +29510,12 @@
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:10" s="219" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="242" t="s">
+      <c r="A22" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="242"/>
-      <c r="C22" s="242"/>
-      <c r="D22" s="242"/>
+      <c r="B22" s="243"/>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
       <c r="E22" s="68">
         <f>SUM(E10:E21)</f>
         <v>339360</v>
@@ -28232,11 +29526,11 @@
       </c>
       <c r="G22" s="68">
         <f>SUM(G10:G21)</f>
-        <v>100000</v>
+        <v>339360</v>
       </c>
       <c r="H22" s="68">
         <f>E22-F22-G22</f>
-        <v>239360</v>
+        <v>0</v>
       </c>
       <c r="I22" s="68"/>
       <c r="J22" s="221"/>
@@ -28288,39 +29582,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -28335,18 +29629,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="245"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -28357,19 +29651,19 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>418</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="246" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="246"/>
-      <c r="E7" s="265" t="s">
+      <c r="D7" s="247"/>
+      <c r="E7" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
       <c r="I7" s="222"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -28641,12 +29935,12 @@
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:10" s="219" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="242" t="s">
+      <c r="A22" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="242"/>
-      <c r="C22" s="242"/>
-      <c r="D22" s="242"/>
+      <c r="B22" s="243"/>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
       <c r="E22" s="68">
         <f>SUM(E10:E21)</f>
         <v>202400</v>
@@ -29656,7 +30950,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A184" sqref="A184"/>
-      <selection pane="bottomLeft" activeCell="E137" sqref="E137:E138"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -29673,37 +30967,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
       <c r="G2" s="54"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="255"/>
-      <c r="C3" s="255" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="51"/>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
@@ -29716,16 +31010,16 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="254" t="s">
+      <c r="A5" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="254"/>
-      <c r="C5" s="254"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="255"/>
+      <c r="G5" s="255"/>
+      <c r="H5" s="255"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -29735,10 +31029,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="247"/>
+      <c r="B7" s="248"/>
       <c r="E7" s="185" t="s">
         <v>303</v>
       </c>
@@ -30097,14 +31391,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="256" t="s">
+      <c r="A24" s="257" t="s">
         <v>251</v>
       </c>
-      <c r="B24" s="256"/>
-      <c r="C24" s="256"/>
-      <c r="D24" s="256"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="256"/>
+      <c r="B24" s="257"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="257"/>
+      <c r="E24" s="257"/>
+      <c r="F24" s="257"/>
       <c r="G24" s="172">
         <f>G23</f>
         <v>853629</v>
@@ -32724,41 +34018,59 @@
       <c r="H138" s="24"/>
     </row>
     <row r="139" spans="1:8" ht="18" customHeight="1">
-      <c r="A139" s="24"/>
-      <c r="B139" s="31"/>
+      <c r="A139" s="24">
+        <v>42347</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C139" s="26"/>
       <c r="D139" s="27"/>
       <c r="E139" s="27">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F139" s="29"/>
+      <c r="F139" s="29">
+        <v>200000</v>
+      </c>
       <c r="G139" s="27">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>300562.00000000012</v>
       </c>
       <c r="H139" s="24"/>
     </row>
     <row r="140" spans="1:8" ht="18" customHeight="1">
-      <c r="A140" s="24"/>
-      <c r="B140" s="31"/>
+      <c r="A140" s="24">
+        <v>42360</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="C140" s="26"/>
       <c r="D140" s="27"/>
       <c r="E140" s="27">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F140" s="29"/>
+      <c r="F140" s="29">
+        <v>250000</v>
+      </c>
       <c r="G140" s="27">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>50562.000000000116</v>
       </c>
       <c r="H140" s="24"/>
     </row>
     <row r="141" spans="1:8" ht="18" customHeight="1">
-      <c r="A141" s="24"/>
-      <c r="B141" s="31"/>
-      <c r="C141" s="26"/>
+      <c r="A141" s="24">
+        <v>42347</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="C141" s="26">
+        <v>1050</v>
+      </c>
       <c r="D141" s="27"/>
       <c r="E141" s="27">
         <f t="shared" si="20"/>
@@ -32767,7 +34079,7 @@
       <c r="F141" s="29"/>
       <c r="G141" s="27">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>50562.000000000116</v>
       </c>
       <c r="H141" s="24"/>
     </row>
@@ -32932,23 +34244,23 @@
       <c r="H151" s="24"/>
     </row>
     <row r="152" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="242" t="s">
+      <c r="A152" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B152" s="242"/>
-      <c r="C152" s="242"/>
-      <c r="D152" s="242"/>
+      <c r="B152" s="243"/>
+      <c r="C152" s="243"/>
+      <c r="D152" s="243"/>
       <c r="E152" s="68">
         <f>SUM(E10:E151)</f>
         <v>10208134</v>
       </c>
       <c r="F152" s="68">
         <f>SUM(F10:F151)</f>
-        <v>9707572</v>
+        <v>10157572</v>
       </c>
       <c r="G152" s="82">
         <f>E152-F152</f>
-        <v>500562</v>
+        <v>50562</v>
       </c>
       <c r="H152" s="69"/>
     </row>
@@ -32965,7 +34277,7 @@
       <c r="D154" s="110"/>
       <c r="E154" s="128">
         <f>G152*1000</f>
-        <v>500562000</v>
+        <v>50562000</v>
       </c>
       <c r="F154" s="115" t="s">
         <v>88</v>
@@ -32980,7 +34292,7 @@
       </c>
       <c r="C155" s="112" t="str">
         <f>[1]!VND(E154, TRUE)</f>
-        <v>Năm trăm triệu, năm trăm sáu mươi hai ngàn đồng</v>
+        <v>Năm mươi triệu, năm trăm sáu mươi hai ngàn đồng</v>
       </c>
       <c r="D155" s="110"/>
       <c r="E155" s="110"/>
@@ -33018,7 +34330,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A184" sqref="A184"/>
-      <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
+      <selection pane="bottomLeft" activeCell="I161" sqref="I161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1"/>
@@ -33036,65 +34348,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="247" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="247"/>
+      <c r="D7" s="248"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="11.25" customHeight="1">
       <c r="G8" s="56"/>
@@ -33130,15 +34442,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A10" s="257" t="s">
+      <c r="A10" s="258" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="258"/>
-      <c r="C10" s="258"/>
-      <c r="D10" s="258"/>
-      <c r="E10" s="258"/>
-      <c r="F10" s="258"/>
-      <c r="G10" s="259"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="260"/>
       <c r="H10" s="144">
         <v>699938</v>
       </c>
@@ -34825,15 +36137,15 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A81" s="257" t="s">
+      <c r="A81" s="258" t="s">
         <v>199</v>
       </c>
-      <c r="B81" s="258"/>
-      <c r="C81" s="258"/>
-      <c r="D81" s="258"/>
-      <c r="E81" s="258"/>
-      <c r="F81" s="258"/>
-      <c r="G81" s="259"/>
+      <c r="B81" s="259"/>
+      <c r="C81" s="259"/>
+      <c r="D81" s="259"/>
+      <c r="E81" s="259"/>
+      <c r="F81" s="259"/>
+      <c r="G81" s="260"/>
       <c r="H81" s="144">
         <f>H80</f>
         <v>1800668</v>
@@ -35815,15 +37127,15 @@
       <c r="I120" s="31"/>
     </row>
     <row r="121" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A121" s="257" t="s">
+      <c r="A121" s="258" t="s">
         <v>251</v>
       </c>
-      <c r="B121" s="258"/>
-      <c r="C121" s="258"/>
-      <c r="D121" s="258"/>
-      <c r="E121" s="258"/>
-      <c r="F121" s="258"/>
-      <c r="G121" s="259"/>
+      <c r="B121" s="259"/>
+      <c r="C121" s="259"/>
+      <c r="D121" s="259"/>
+      <c r="E121" s="259"/>
+      <c r="F121" s="259"/>
+      <c r="G121" s="260"/>
       <c r="H121" s="144">
         <f>H120</f>
         <v>2586475</v>
@@ -36555,7 +37867,7 @@
         <f t="shared" si="22"/>
         <v>307801.5</v>
       </c>
-      <c r="I152" s="263" t="s">
+      <c r="I152" s="264" t="s">
         <v>198</v>
       </c>
     </row>
@@ -36580,7 +37892,7 @@
         <f t="shared" si="22"/>
         <v>318851.5</v>
       </c>
-      <c r="I153" s="264"/>
+      <c r="I153" s="265"/>
     </row>
     <row r="154" spans="1:9" ht="20.25" customHeight="1">
       <c r="A154" s="24">
@@ -36728,7 +38040,9 @@
     </row>
     <row r="160" spans="1:9" ht="20.25" customHeight="1">
       <c r="A160" s="24"/>
-      <c r="B160" s="16"/>
+      <c r="B160" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="C160" s="26"/>
       <c r="D160" s="27"/>
       <c r="E160" s="27">
@@ -36736,12 +38050,16 @@
         <v>0</v>
       </c>
       <c r="F160" s="27"/>
-      <c r="G160" s="29"/>
+      <c r="G160" s="29">
+        <v>50000</v>
+      </c>
       <c r="H160" s="27">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I160" s="30"/>
+        <v>79826.5</v>
+      </c>
+      <c r="I160" s="30">
+        <v>42347</v>
+      </c>
     </row>
     <row r="161" spans="1:9" ht="20.25" customHeight="1">
       <c r="A161" s="24"/>
@@ -36797,12 +38115,12 @@
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" s="37" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A164" s="260" t="s">
+      <c r="A164" s="261" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="261"/>
-      <c r="C164" s="261"/>
-      <c r="D164" s="262"/>
+      <c r="B164" s="262"/>
+      <c r="C164" s="262"/>
+      <c r="D164" s="263"/>
       <c r="E164" s="81">
         <f>SUM(E11:E163)+H10</f>
         <v>8739526.5</v>
@@ -36813,11 +38131,11 @@
       </c>
       <c r="G164" s="81">
         <f>SUM(G11:G163)+J10</f>
-        <v>8609700</v>
+        <v>8659700</v>
       </c>
       <c r="H164" s="68">
         <f>E164-F164-G164</f>
-        <v>129826.5</v>
+        <v>79826.5</v>
       </c>
       <c r="I164" s="69"/>
     </row>
@@ -36834,7 +38152,7 @@
       <c r="D166" s="110"/>
       <c r="E166" s="128">
         <f>H164*1000</f>
-        <v>129826500</v>
+        <v>79826500</v>
       </c>
       <c r="F166" s="115" t="s">
         <v>88</v>
@@ -36886,9 +38204,9 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B80" sqref="B80"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -36907,42 +38225,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
+      <c r="B3" s="244"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="243" t="s">
+      <c r="D3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
       <c r="G3" s="93"/>
       <c r="H3" s="198"/>
       <c r="I3" s="62"/>
@@ -36957,19 +38275,19 @@
       <c r="J4" s="207"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="245"/>
+      <c r="K5" s="245"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1">
       <c r="D6" s="4"/>
@@ -36980,20 +38298,20 @@
       <c r="J6" s="207"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>398</v>
       </c>
-      <c r="B7" s="247"/>
+      <c r="B7" s="248"/>
       <c r="C7" s="227"/>
-      <c r="D7" s="246" t="s">
+      <c r="D7" s="247" t="s">
         <v>399</v>
       </c>
-      <c r="E7" s="246"/>
-      <c r="F7" s="265" t="s">
+      <c r="E7" s="247"/>
+      <c r="F7" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="265"/>
-      <c r="H7" s="265"/>
+      <c r="G7" s="266"/>
+      <c r="H7" s="266"/>
       <c r="J7" s="207"/>
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="18" customHeight="1">
@@ -37514,16 +38832,16 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="35" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="A29" s="256" t="s">
+      <c r="A29" s="257" t="s">
         <v>252</v>
       </c>
-      <c r="B29" s="256"/>
-      <c r="C29" s="256"/>
-      <c r="D29" s="256"/>
-      <c r="E29" s="256"/>
-      <c r="F29" s="256"/>
-      <c r="G29" s="256"/>
-      <c r="H29" s="256"/>
+      <c r="B29" s="257"/>
+      <c r="C29" s="257"/>
+      <c r="D29" s="257"/>
+      <c r="E29" s="257"/>
+      <c r="F29" s="257"/>
+      <c r="G29" s="257"/>
+      <c r="H29" s="257"/>
       <c r="I29" s="153">
         <f>I28</f>
         <v>0</v>
@@ -38984,20 +40302,26 @@
       <c r="J86" s="31"/>
     </row>
     <row r="87" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A87" s="24"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
+      <c r="A87" s="24">
+        <v>42363</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="25"/>
       <c r="D87" s="26"/>
       <c r="E87" s="27"/>
       <c r="F87" s="27">
-        <f t="shared" ref="F87:F93" si="7">D87*E87</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="28"/>
-      <c r="H87" s="29"/>
+      <c r="H87" s="29">
+        <v>200000</v>
+      </c>
       <c r="I87" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="I87" si="7">IF(B87&lt;&gt;"",I86+F87-G87-H87,0)</f>
+        <v>466896</v>
       </c>
       <c r="J87" s="31"/>
     </row>
@@ -39008,7 +40332,7 @@
       <c r="D88" s="26"/>
       <c r="E88" s="27"/>
       <c r="F88" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F88:F93" si="8">D88*E88</f>
         <v>0</v>
       </c>
       <c r="G88" s="28"/>
@@ -39026,7 +40350,7 @@
       <c r="D89" s="26"/>
       <c r="E89" s="27"/>
       <c r="F89" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G89" s="28"/>
@@ -39044,7 +40368,7 @@
       <c r="D90" s="26"/>
       <c r="E90" s="27"/>
       <c r="F90" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G90" s="28"/>
@@ -39062,7 +40386,7 @@
       <c r="D91" s="26"/>
       <c r="E91" s="27"/>
       <c r="F91" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G91" s="28"/>
@@ -39080,7 +40404,7 @@
       <c r="D92" s="26"/>
       <c r="E92" s="27"/>
       <c r="F92" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G92" s="28"/>
@@ -39098,7 +40422,7 @@
       <c r="D93" s="26"/>
       <c r="E93" s="27"/>
       <c r="F93" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G93" s="28"/>
@@ -39128,13 +40452,13 @@
       <c r="J94" s="31"/>
     </row>
     <row r="95" spans="1:11" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A95" s="242" t="s">
+      <c r="A95" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="242"/>
-      <c r="C95" s="242"/>
-      <c r="D95" s="242"/>
-      <c r="E95" s="242"/>
+      <c r="B95" s="243"/>
+      <c r="C95" s="243"/>
+      <c r="D95" s="243"/>
+      <c r="E95" s="243"/>
       <c r="F95" s="68">
         <f>SUM(F10:F94)</f>
         <v>5694938.5</v>
@@ -39145,11 +40469,11 @@
       </c>
       <c r="H95" s="68">
         <f>SUM(H10:H94)</f>
-        <v>5028042.5</v>
+        <v>5228042.5</v>
       </c>
       <c r="I95" s="68">
         <f>F95-G95-H95</f>
-        <v>666896</v>
+        <v>466896</v>
       </c>
       <c r="J95" s="68"/>
       <c r="K95" s="206"/>
@@ -39189,7 +40513,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A184" sqref="A184"/>
-      <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -39206,38 +40530,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="270" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
       <c r="F1" s="177"/>
       <c r="G1" s="162"/>
       <c r="H1" s="162"/>
     </row>
     <row r="2" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
       <c r="G2" s="162"/>
       <c r="H2" s="162"/>
     </row>
     <row r="3" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="269" t="s">
+      <c r="A3" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269" t="s">
+      <c r="B3" s="270"/>
+      <c r="C3" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
       <c r="F3" s="178"/>
       <c r="G3" s="162"/>
       <c r="H3" s="162"/>
@@ -39250,17 +40574,17 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="268" t="s">
+      <c r="A5" s="269" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="268"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="268"/>
-      <c r="H5" s="268"/>
-      <c r="I5" s="268"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="8"/>
@@ -39270,10 +40594,10 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="266" t="s">
+      <c r="A7" s="267" t="s">
         <v>369</v>
       </c>
-      <c r="B7" s="266"/>
+      <c r="B7" s="267"/>
       <c r="C7" s="210" t="s">
         <v>371</v>
       </c>
@@ -39369,19 +40693,25 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
+      <c r="B13" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="29">
+        <v>100000</v>
+      </c>
       <c r="G13" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="30"/>
+        <v>145985</v>
+      </c>
+      <c r="H13" s="30">
+        <v>42363</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1">
       <c r="A14" s="18"/>
@@ -39432,23 +40762,23 @@
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:9" s="158" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="267" t="s">
+      <c r="A17" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="267"/>
-      <c r="C17" s="267"/>
-      <c r="D17" s="267"/>
+      <c r="B17" s="268"/>
+      <c r="C17" s="268"/>
+      <c r="D17" s="268"/>
       <c r="E17" s="170">
         <f>SUM(E10:E16)</f>
         <v>445985</v>
       </c>
       <c r="F17" s="180">
         <f>SUM(F10:F16)</f>
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="G17" s="171">
         <f>E17-F17</f>
-        <v>245985</v>
+        <v>145985</v>
       </c>
       <c r="H17" s="169"/>
     </row>
@@ -39465,7 +40795,7 @@
       <c r="D19" s="110"/>
       <c r="E19" s="128">
         <f>G17*1000</f>
-        <v>245985000</v>
+        <v>145985000</v>
       </c>
       <c r="F19" s="181" t="s">
         <v>88</v>
@@ -39481,7 +40811,7 @@
       </c>
       <c r="C20" s="112" t="str">
         <f>[1]!VND(E19, TRUE)</f>
-        <v>Hai trăm bốn mươi lăm triệu, chín trăm tám mươi lăm ngàn đồng</v>
+        <v>Một trăm bốn mươi lăm triệu, chín trăm tám mươi lăm ngàn đồng</v>
       </c>
       <c r="D20" s="110"/>
       <c r="E20" s="110"/>
@@ -39535,38 +40865,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="270" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
       <c r="F1" s="177"/>
       <c r="G1" s="162"/>
       <c r="H1" s="162"/>
     </row>
     <row r="2" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
       <c r="G2" s="162"/>
       <c r="H2" s="162"/>
     </row>
     <row r="3" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="269" t="s">
+      <c r="A3" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269" t="s">
+      <c r="B3" s="270"/>
+      <c r="C3" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
       <c r="F3" s="178"/>
       <c r="G3" s="162"/>
       <c r="H3" s="162"/>
@@ -39579,17 +40909,17 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="268" t="s">
+      <c r="A5" s="269" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="268"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="268"/>
-      <c r="H5" s="268"/>
-      <c r="I5" s="268"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="8"/>
@@ -39599,10 +40929,10 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="266" t="s">
+      <c r="A7" s="267" t="s">
         <v>421</v>
       </c>
-      <c r="B7" s="266"/>
+      <c r="B7" s="267"/>
       <c r="C7" s="210"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
@@ -39769,12 +41099,12 @@
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:9" s="230" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="267" t="s">
+      <c r="A17" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="267"/>
-      <c r="C17" s="267"/>
-      <c r="D17" s="267"/>
+      <c r="B17" s="268"/>
+      <c r="C17" s="268"/>
+      <c r="D17" s="268"/>
       <c r="E17" s="170">
         <f>SUM(E10:E16)</f>
         <v>193050</v>
@@ -39872,39 +41202,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -39919,18 +41249,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="245"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -39941,19 +41271,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="246" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="246"/>
-      <c r="E7" s="265" t="s">
+      <c r="D7" s="247"/>
+      <c r="E7" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -40665,12 +41995,12 @@
       <c r="I38" s="201"/>
     </row>
     <row r="39" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="242" t="s">
+      <c r="A39" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="242"/>
-      <c r="C39" s="242"/>
-      <c r="D39" s="242"/>
+      <c r="B39" s="243"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="68">
         <f>SUM(E10:E38)</f>
         <v>93300</v>
@@ -40739,39 +42069,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -40786,18 +42116,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="245"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -40808,19 +42138,19 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="248" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="246" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="247" t="s">
         <v>413</v>
       </c>
-      <c r="D7" s="246"/>
-      <c r="E7" s="265" t="s">
+      <c r="D7" s="247"/>
+      <c r="E7" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
       <c r="I7" s="222"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -41391,12 +42721,12 @@
       <c r="I38" s="220"/>
     </row>
     <row r="39" spans="1:10" s="219" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="242" t="s">
+      <c r="A39" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="242"/>
-      <c r="C39" s="242"/>
-      <c r="D39" s="242"/>
+      <c r="B39" s="243"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="68">
         <f>SUM(E10:E38)</f>
         <v>153360</v>

--- a/SO SACH - LA/CONG NO/CONG NO 2015/Cong no NL ca 2015.xlsx
+++ b/SO SACH - LA/CONG NO/CONG NO 2015/Cong no NL ca 2015.xlsx
@@ -2839,13 +2839,16 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -2875,6 +2878,12 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2884,6 +2893,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2891,15 +2909,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2960,15 +2969,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3912,18 +3912,18 @@
       <c r="G34" s="212"/>
     </row>
     <row r="35" spans="1:7" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A35" s="243" t="s">
+      <c r="A35" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="243"/>
+      <c r="B35" s="246"/>
       <c r="C35" s="213">
         <f>SUM(C4:C34)</f>
         <v>5304881.5</v>
       </c>
-      <c r="E35" s="243" t="s">
+      <c r="E35" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="243"/>
+      <c r="F35" s="246"/>
       <c r="G35" s="213">
         <f>SUM(G4:G34)</f>
         <v>92340</v>
@@ -3968,39 +3968,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="226"/>
       <c r="H3" s="62"/>
@@ -4015,18 +4015,18 @@
       <c r="I4" s="233"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
-      <c r="J5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -4037,17 +4037,17 @@
       <c r="I6" s="233"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>424</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="247"/>
-      <c r="E7" s="266" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
       <c r="I7" s="233"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -4452,12 +4452,12 @@
       <c r="I25" s="229"/>
     </row>
     <row r="26" spans="1:10" s="227" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A26" s="243" t="s">
+      <c r="A26" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="243"/>
-      <c r="C26" s="243"/>
-      <c r="D26" s="243"/>
+      <c r="B26" s="246"/>
+      <c r="C26" s="246"/>
+      <c r="D26" s="246"/>
       <c r="E26" s="68">
         <f>SUM(E10:E25)</f>
         <v>287320</v>
@@ -4526,39 +4526,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="59"/>
       <c r="H3" s="62"/>
@@ -4573,18 +4573,18 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
-      <c r="J5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -4595,19 +4595,19 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="247" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>372</v>
       </c>
-      <c r="D7" s="247"/>
-      <c r="E7" s="266" t="s">
+      <c r="D7" s="248"/>
+      <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -4894,17 +4894,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1">
-      <c r="A20" s="271" t="s">
+      <c r="A20" s="274" t="s">
         <v>252</v>
       </c>
-      <c r="B20" s="272"/>
-      <c r="C20" s="272"/>
-      <c r="D20" s="272"/>
-      <c r="E20" s="272"/>
-      <c r="F20" s="272"/>
-      <c r="G20" s="272"/>
-      <c r="H20" s="272"/>
-      <c r="I20" s="273"/>
+      <c r="B20" s="275"/>
+      <c r="C20" s="275"/>
+      <c r="D20" s="275"/>
+      <c r="E20" s="275"/>
+      <c r="F20" s="275"/>
+      <c r="G20" s="275"/>
+      <c r="H20" s="275"/>
+      <c r="I20" s="276"/>
     </row>
     <row r="21" spans="1:9" s="8" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="18">
@@ -8008,12 +8008,12 @@
       <c r="I149" s="242"/>
     </row>
     <row r="150" spans="1:10" s="37" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A150" s="243" t="s">
+      <c r="A150" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B150" s="243"/>
-      <c r="C150" s="243"/>
-      <c r="D150" s="243"/>
+      <c r="B150" s="246"/>
+      <c r="C150" s="246"/>
+      <c r="D150" s="246"/>
       <c r="E150" s="68">
         <f>SUM(E21:E149)</f>
         <v>2129439.5</v>
@@ -8085,66 +8085,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="274" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="277" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="274"/>
+      <c r="D7" s="277"/>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="275"/>
-      <c r="D8" s="276"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="279"/>
       <c r="F8" s="56"/>
       <c r="G8" s="38"/>
     </row>
@@ -8196,7 +8196,7 @@
         <f>IF(B10&lt;&gt;"",+E10-F10,0)</f>
         <v>31790</v>
       </c>
-      <c r="H10" s="277" t="s">
+      <c r="H10" s="280" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8221,7 +8221,7 @@
         <f>IF(B11&lt;&gt;"",G10+E11-F11,0)</f>
         <v>153370</v>
       </c>
-      <c r="H11" s="278"/>
+      <c r="H11" s="281"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" hidden="1" customHeight="1">
       <c r="A12" s="24"/>
@@ -8237,14 +8237,14 @@
       <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" hidden="1" customHeight="1">
-      <c r="A13" s="252"/>
-      <c r="B13" s="253"/>
-      <c r="C13" s="253"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="254"/>
+      <c r="A13" s="253"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="254"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="255"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" hidden="1" customHeight="1">
       <c r="A14" s="24">
@@ -8460,14 +8460,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" hidden="1" customHeight="1">
-      <c r="A23" s="252"/>
-      <c r="B23" s="253"/>
-      <c r="C23" s="253"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="254"/>
+      <c r="A23" s="253"/>
+      <c r="B23" s="254"/>
+      <c r="C23" s="254"/>
+      <c r="D23" s="254"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="255"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" hidden="1" customHeight="1">
       <c r="A24" s="24">
@@ -8600,14 +8600,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" hidden="1" customHeight="1">
-      <c r="A30" s="252"/>
-      <c r="B30" s="253"/>
-      <c r="C30" s="253"/>
-      <c r="D30" s="253"/>
-      <c r="E30" s="253"/>
-      <c r="F30" s="253"/>
-      <c r="G30" s="253"/>
-      <c r="H30" s="254"/>
+      <c r="A30" s="253"/>
+      <c r="B30" s="254"/>
+      <c r="C30" s="254"/>
+      <c r="D30" s="254"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="254"/>
+      <c r="G30" s="254"/>
+      <c r="H30" s="255"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" hidden="1" customHeight="1">
       <c r="A31" s="24">
@@ -8838,14 +8838,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" hidden="1" customHeight="1">
-      <c r="A41" s="252"/>
-      <c r="B41" s="253"/>
-      <c r="C41" s="253"/>
-      <c r="D41" s="253"/>
-      <c r="E41" s="253"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="253"/>
-      <c r="H41" s="254"/>
+      <c r="A41" s="253"/>
+      <c r="B41" s="254"/>
+      <c r="C41" s="254"/>
+      <c r="D41" s="254"/>
+      <c r="E41" s="254"/>
+      <c r="F41" s="254"/>
+      <c r="G41" s="254"/>
+      <c r="H41" s="255"/>
     </row>
     <row r="42" spans="1:8" ht="18.75" customHeight="1">
       <c r="A42" s="24">
@@ -9387,7 +9387,7 @@
       <c r="C65" s="26"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27">
-        <f t="shared" ref="E64:E77" si="7">C65*D65</f>
+        <f t="shared" ref="E65:E77" si="7">C65*D65</f>
         <v>0</v>
       </c>
       <c r="F65" s="29">
@@ -9630,12 +9630,12 @@
       <c r="H79" s="30"/>
     </row>
     <row r="80" spans="1:8" s="37" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A80" s="243" t="s">
+      <c r="A80" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="243"/>
-      <c r="C80" s="243"/>
-      <c r="D80" s="243"/>
+      <c r="B80" s="246"/>
+      <c r="C80" s="246"/>
+      <c r="D80" s="246"/>
       <c r="E80" s="68">
         <f>SUM(E10:E79)</f>
         <v>7008495</v>
@@ -9657,6 +9657,11 @@
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="14">
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:B7"/>
@@ -9666,11 +9671,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.54" right="0.26" top="0.32" bottom="0.74" header="0.23" footer="0.17"/>
@@ -9707,67 +9707,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
       <c r="F2" s="236"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="236"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="248"/>
-      <c r="B7" s="248"/>
-      <c r="C7" s="274" t="s">
+      <c r="A7" s="249"/>
+      <c r="B7" s="249"/>
+      <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="274"/>
+      <c r="D7" s="277"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="275"/>
-      <c r="D8" s="276"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="279"/>
       <c r="G8" s="56"/>
       <c r="H8" s="38"/>
     </row>
@@ -9837,7 +9837,7 @@
         <v>169</v>
       </c>
       <c r="E11" s="27">
-        <f t="shared" ref="E11:E23" si="0">C11*D11</f>
+        <f t="shared" ref="E11:E19" si="0">C11*D11</f>
         <v>5070</v>
       </c>
       <c r="F11" s="27"/>
@@ -10138,11 +10138,11 @@
       <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A24" s="284"/>
-      <c r="B24" s="285" t="s">
+      <c r="A24" s="243"/>
+      <c r="B24" s="244" t="s">
         <v>441</v>
       </c>
-      <c r="C24" s="286">
+      <c r="C24" s="245">
         <v>1597</v>
       </c>
       <c r="D24" s="223">
@@ -10190,7 +10190,7 @@
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27">
-        <f t="shared" ref="E24:E34" si="6">C26*D26</f>
+        <f t="shared" ref="E26:E34" si="6">C26*D26</f>
         <v>0</v>
       </c>
       <c r="F26" s="27"/>
@@ -10213,7 +10213,7 @@
       <c r="F27" s="27"/>
       <c r="G27" s="29"/>
       <c r="H27" s="27">
-        <f t="shared" ref="H24:H34" si="7">IF(B27&lt;&gt;"",H26+E27-F27-G27,0)</f>
+        <f t="shared" ref="H27:H34" si="7">IF(B27&lt;&gt;"",H26+E27-F27-G27,0)</f>
         <v>0</v>
       </c>
       <c r="I27" s="31"/>
@@ -10355,12 +10355,12 @@
       <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" s="227" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A36" s="243" t="s">
+      <c r="A36" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="243"/>
-      <c r="C36" s="243"/>
-      <c r="D36" s="243"/>
+      <c r="B36" s="246"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="246"/>
       <c r="E36" s="68">
         <f>SUM(E10:E35)</f>
         <v>1069190</v>
@@ -10432,66 +10432,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="274" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="274"/>
+      <c r="D7" s="277"/>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="275"/>
-      <c r="D8" s="276"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="279"/>
       <c r="F8" s="56"/>
       <c r="G8" s="38"/>
     </row>
@@ -10836,12 +10836,12 @@
       <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" s="200" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="243" t="s">
+      <c r="A27" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="243"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="243"/>
+      <c r="B27" s="246"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="246"/>
       <c r="E27" s="68">
         <f>SUM(E10:E26)</f>
         <v>165493.6</v>
@@ -10908,71 +10908,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
+      <c r="B3" s="256"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="244" t="s">
+      <c r="D3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>390</v>
       </c>
-      <c r="B7" s="248"/>
+      <c r="B7" s="249"/>
       <c r="C7" s="227"/>
-      <c r="D7" s="274" t="s">
+      <c r="D7" s="277" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="274"/>
+      <c r="E7" s="277"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D8" s="275"/>
-      <c r="E8" s="276"/>
+      <c r="D8" s="278"/>
+      <c r="E8" s="279"/>
       <c r="G8" s="56"/>
       <c r="H8" s="38"/>
     </row>
@@ -11877,13 +11877,13 @@
       <c r="I45" s="31"/>
     </row>
     <row r="46" spans="1:9" s="200" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A46" s="243" t="s">
+      <c r="A46" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="243"/>
-      <c r="C46" s="243"/>
-      <c r="D46" s="243"/>
-      <c r="E46" s="243"/>
+      <c r="B46" s="246"/>
+      <c r="C46" s="246"/>
+      <c r="D46" s="246"/>
+      <c r="E46" s="246"/>
       <c r="F46" s="68">
         <f>SUM(F10:F45)</f>
         <v>981848</v>
@@ -11949,41 +11949,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
       <c r="I1" s="162"/>
       <c r="J1" s="162"/>
     </row>
     <row r="2" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="273" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
       <c r="I2" s="162"/>
       <c r="J2" s="162"/>
     </row>
     <row r="3" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="270"/>
+      <c r="B3" s="273"/>
       <c r="C3" s="190"/>
-      <c r="D3" s="270" t="s">
+      <c r="D3" s="273" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
       <c r="G3" s="190"/>
       <c r="H3" s="186"/>
       <c r="I3" s="162"/>
@@ -11998,18 +11998,18 @@
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="269" t="s">
+      <c r="A5" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="269"/>
-      <c r="C5" s="269"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-      <c r="I5" s="269"/>
-      <c r="J5" s="269"/>
+      <c r="B5" s="272"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
+      <c r="J5" s="272"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="D6" s="8"/>
@@ -12020,10 +12020,10 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="270" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="267"/>
+      <c r="B7" s="270"/>
       <c r="C7" s="189"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" hidden="1" customHeight="1">
@@ -12308,16 +12308,16 @@
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="271" t="s">
+      <c r="A20" s="274" t="s">
         <v>353</v>
       </c>
-      <c r="B20" s="272"/>
-      <c r="C20" s="272"/>
-      <c r="D20" s="272"/>
-      <c r="E20" s="272"/>
-      <c r="F20" s="272"/>
-      <c r="G20" s="272"/>
-      <c r="H20" s="272"/>
+      <c r="B20" s="275"/>
+      <c r="C20" s="275"/>
+      <c r="D20" s="275"/>
+      <c r="E20" s="275"/>
+      <c r="F20" s="275"/>
+      <c r="G20" s="275"/>
+      <c r="H20" s="275"/>
       <c r="I20" s="99">
         <f>I19</f>
         <v>170230</v>
@@ -12815,16 +12815,16 @@
       <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A41" s="271" t="s">
+      <c r="A41" s="274" t="s">
         <v>354</v>
       </c>
-      <c r="B41" s="272"/>
-      <c r="C41" s="272"/>
-      <c r="D41" s="272"/>
-      <c r="E41" s="272"/>
-      <c r="F41" s="272"/>
-      <c r="G41" s="272"/>
-      <c r="H41" s="272"/>
+      <c r="B41" s="275"/>
+      <c r="C41" s="275"/>
+      <c r="D41" s="275"/>
+      <c r="E41" s="275"/>
+      <c r="F41" s="275"/>
+      <c r="G41" s="275"/>
+      <c r="H41" s="275"/>
       <c r="I41" s="99">
         <f>I40</f>
         <v>-14903</v>
@@ -13359,16 +13359,16 @@
       <c r="J62" s="16"/>
     </row>
     <row r="63" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A63" s="271" t="s">
+      <c r="A63" s="274" t="s">
         <v>355</v>
       </c>
-      <c r="B63" s="272"/>
-      <c r="C63" s="272"/>
-      <c r="D63" s="272"/>
-      <c r="E63" s="272"/>
-      <c r="F63" s="272"/>
-      <c r="G63" s="272"/>
-      <c r="H63" s="272"/>
+      <c r="B63" s="275"/>
+      <c r="C63" s="275"/>
+      <c r="D63" s="275"/>
+      <c r="E63" s="275"/>
+      <c r="F63" s="275"/>
+      <c r="G63" s="275"/>
+      <c r="H63" s="275"/>
       <c r="I63" s="99">
         <f>I62</f>
         <v>-22885</v>
@@ -14164,16 +14164,16 @@
       <c r="J93" s="16"/>
     </row>
     <row r="94" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A94" s="271" t="s">
+      <c r="A94" s="274" t="s">
         <v>356</v>
       </c>
-      <c r="B94" s="272"/>
-      <c r="C94" s="272"/>
-      <c r="D94" s="272"/>
-      <c r="E94" s="272"/>
-      <c r="F94" s="272"/>
-      <c r="G94" s="272"/>
-      <c r="H94" s="272"/>
+      <c r="B94" s="275"/>
+      <c r="C94" s="275"/>
+      <c r="D94" s="275"/>
+      <c r="E94" s="275"/>
+      <c r="F94" s="275"/>
+      <c r="G94" s="275"/>
+      <c r="H94" s="275"/>
       <c r="I94" s="99">
         <f>I93</f>
         <v>-433838</v>
@@ -14867,16 +14867,16 @@
       <c r="J120" s="16"/>
     </row>
     <row r="121" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A121" s="271" t="s">
+      <c r="A121" s="274" t="s">
         <v>357</v>
       </c>
-      <c r="B121" s="272"/>
-      <c r="C121" s="272"/>
-      <c r="D121" s="272"/>
-      <c r="E121" s="272"/>
-      <c r="F121" s="272"/>
-      <c r="G121" s="272"/>
-      <c r="H121" s="272"/>
+      <c r="B121" s="275"/>
+      <c r="C121" s="275"/>
+      <c r="D121" s="275"/>
+      <c r="E121" s="275"/>
+      <c r="F121" s="275"/>
+      <c r="G121" s="275"/>
+      <c r="H121" s="275"/>
       <c r="I121" s="99">
         <f>I120</f>
         <v>-225994.5</v>
@@ -15366,16 +15366,16 @@
       <c r="J139" s="16"/>
     </row>
     <row r="140" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A140" s="271" t="s">
+      <c r="A140" s="274" t="s">
         <v>358</v>
       </c>
-      <c r="B140" s="272"/>
-      <c r="C140" s="272"/>
-      <c r="D140" s="272"/>
-      <c r="E140" s="272"/>
-      <c r="F140" s="272"/>
-      <c r="G140" s="272"/>
-      <c r="H140" s="272"/>
+      <c r="B140" s="275"/>
+      <c r="C140" s="275"/>
+      <c r="D140" s="275"/>
+      <c r="E140" s="275"/>
+      <c r="F140" s="275"/>
+      <c r="G140" s="275"/>
+      <c r="H140" s="275"/>
       <c r="I140" s="99">
         <f>I139</f>
         <v>-92729.3</v>
@@ -15873,16 +15873,16 @@
       <c r="J158" s="16"/>
     </row>
     <row r="159" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A159" s="271" t="s">
+      <c r="A159" s="274" t="s">
         <v>362</v>
       </c>
-      <c r="B159" s="272"/>
-      <c r="C159" s="272"/>
-      <c r="D159" s="272"/>
-      <c r="E159" s="272"/>
-      <c r="F159" s="272"/>
-      <c r="G159" s="272"/>
-      <c r="H159" s="272"/>
+      <c r="B159" s="275"/>
+      <c r="C159" s="275"/>
+      <c r="D159" s="275"/>
+      <c r="E159" s="275"/>
+      <c r="F159" s="275"/>
+      <c r="G159" s="275"/>
+      <c r="H159" s="275"/>
       <c r="I159" s="99">
         <f>I158</f>
         <v>-261663.69999999998</v>
@@ -16456,16 +16456,16 @@
       <c r="J180" s="16"/>
     </row>
     <row r="181" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A181" s="271" t="s">
+      <c r="A181" s="274" t="s">
         <v>415</v>
       </c>
-      <c r="B181" s="272"/>
-      <c r="C181" s="272"/>
-      <c r="D181" s="272"/>
-      <c r="E181" s="272"/>
-      <c r="F181" s="272"/>
-      <c r="G181" s="272"/>
-      <c r="H181" s="272"/>
+      <c r="B181" s="275"/>
+      <c r="C181" s="275"/>
+      <c r="D181" s="275"/>
+      <c r="E181" s="275"/>
+      <c r="F181" s="275"/>
+      <c r="G181" s="275"/>
+      <c r="H181" s="275"/>
       <c r="I181" s="99">
         <f>I180</f>
         <v>-29693.799999999945</v>
@@ -17338,13 +17338,13 @@
       <c r="J214" s="16"/>
     </row>
     <row r="215" spans="1:10" s="158" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A215" s="268" t="s">
+      <c r="A215" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="B215" s="268"/>
-      <c r="C215" s="268"/>
-      <c r="D215" s="268"/>
-      <c r="E215" s="268"/>
+      <c r="B215" s="271"/>
+      <c r="C215" s="271"/>
+      <c r="D215" s="271"/>
+      <c r="E215" s="271"/>
       <c r="F215" s="170">
         <f>SUM(F10:F214)</f>
         <v>5102122</v>
@@ -17423,41 +17423,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
       <c r="I1" s="162"/>
       <c r="J1" s="162"/>
     </row>
     <row r="2" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="273" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
       <c r="I2" s="162"/>
       <c r="J2" s="162"/>
     </row>
     <row r="3" spans="1:10" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="270"/>
+      <c r="B3" s="273"/>
       <c r="C3" s="204"/>
-      <c r="D3" s="270" t="s">
+      <c r="D3" s="273" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
       <c r="G3" s="204"/>
       <c r="H3" s="204"/>
       <c r="I3" s="162"/>
@@ -17472,18 +17472,18 @@
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="269" t="s">
+      <c r="A5" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="269"/>
-      <c r="C5" s="269"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-      <c r="I5" s="269"/>
-      <c r="J5" s="269"/>
+      <c r="B5" s="272"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
+      <c r="J5" s="272"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="D6" s="8"/>
@@ -17494,10 +17494,10 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="270" t="s">
         <v>405</v>
       </c>
-      <c r="B7" s="267"/>
+      <c r="B7" s="270"/>
       <c r="C7" s="202"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" hidden="1" customHeight="1">
@@ -17845,13 +17845,13 @@
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10" s="202" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A26" s="268" t="s">
+      <c r="A26" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="268"/>
-      <c r="C26" s="268"/>
-      <c r="D26" s="268"/>
-      <c r="E26" s="268"/>
+      <c r="B26" s="271"/>
+      <c r="C26" s="271"/>
+      <c r="D26" s="271"/>
+      <c r="E26" s="271"/>
       <c r="F26" s="170">
         <f>SUM(F10:F25)</f>
         <v>216000</v>
@@ -17923,37 +17923,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="259" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="259" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
       <c r="G2" s="54"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="259" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="259"/>
+      <c r="C3" s="259" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
       <c r="F3" s="51"/>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
@@ -17966,16 +17966,16 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:9" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="258" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="255"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="255"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
       <c r="I5" s="76"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
@@ -17986,18 +17986,18 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="247" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="247"/>
-      <c r="E7" s="266" t="s">
+      <c r="D7" s="248"/>
+      <c r="E7" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="266"/>
+      <c r="F7" s="269"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="18" customHeight="1">
@@ -18036,14 +18036,14 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1">
-      <c r="A10" s="280" t="s">
+      <c r="A10" s="283" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="281"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="281"/>
-      <c r="E10" s="281"/>
-      <c r="F10" s="281"/>
+      <c r="B10" s="284"/>
+      <c r="C10" s="284"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="284"/>
+      <c r="F10" s="284"/>
       <c r="G10" s="48">
         <v>451789</v>
       </c>
@@ -18655,14 +18655,14 @@
       <c r="H37" s="30"/>
     </row>
     <row r="38" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1">
-      <c r="A38" s="280" t="s">
+      <c r="A38" s="283" t="s">
         <v>251</v>
       </c>
-      <c r="B38" s="281"/>
-      <c r="C38" s="281"/>
-      <c r="D38" s="281"/>
-      <c r="E38" s="281"/>
-      <c r="F38" s="281"/>
+      <c r="B38" s="284"/>
+      <c r="C38" s="284"/>
+      <c r="D38" s="284"/>
+      <c r="E38" s="284"/>
+      <c r="F38" s="284"/>
       <c r="G38" s="48">
         <f>G37</f>
         <v>85826</v>
@@ -19154,14 +19154,14 @@
       </c>
     </row>
     <row r="60" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1">
-      <c r="A60" s="280" t="s">
+      <c r="A60" s="283" t="s">
         <v>382</v>
       </c>
-      <c r="B60" s="281"/>
-      <c r="C60" s="281"/>
-      <c r="D60" s="281"/>
-      <c r="E60" s="281"/>
-      <c r="F60" s="281"/>
+      <c r="B60" s="284"/>
+      <c r="C60" s="284"/>
+      <c r="D60" s="284"/>
+      <c r="E60" s="284"/>
+      <c r="F60" s="284"/>
       <c r="G60" s="48">
         <f>G59</f>
         <v>0</v>
@@ -19887,12 +19887,12 @@
       <c r="H92" s="24"/>
     </row>
     <row r="93" spans="1:9" s="37" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A93" s="243" t="s">
+      <c r="A93" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="243"/>
-      <c r="C93" s="243"/>
-      <c r="D93" s="243"/>
+      <c r="B93" s="246"/>
+      <c r="C93" s="246"/>
+      <c r="D93" s="246"/>
       <c r="E93" s="68">
         <f>SUM(E11:E92)+G10</f>
         <v>5820482.2000000002</v>
@@ -19914,11 +19914,11 @@
       </c>
       <c r="C95" s="109"/>
       <c r="D95" s="110"/>
-      <c r="E95" s="282">
+      <c r="E95" s="285">
         <f>G93*1000</f>
         <v>801305299.99999976</v>
       </c>
-      <c r="F95" s="282"/>
+      <c r="F95" s="285"/>
       <c r="G95" s="115" t="s">
         <v>88</v>
       </c>
@@ -19942,35 +19942,28 @@
       <c r="I96" s="110"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1">
-      <c r="E98" s="283" t="s">
+      <c r="E98" s="286" t="s">
         <v>93</v>
       </c>
-      <c r="F98" s="283"/>
-      <c r="G98" s="283"/>
-      <c r="H98" s="283"/>
+      <c r="F98" s="286"/>
+      <c r="G98" s="286"/>
+      <c r="H98" s="286"/>
     </row>
     <row r="99" spans="1:8" ht="21.75" customHeight="1">
       <c r="A99" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B99" s="14"/>
-      <c r="E99" s="279" t="s">
+      <c r="E99" s="282" t="s">
         <v>86</v>
       </c>
-      <c r="F99" s="279"/>
-      <c r="G99" s="279"/>
-      <c r="H99" s="279"/>
+      <c r="F99" s="282"/>
+      <c r="G99" s="282"/>
+      <c r="H99" s="282"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="15">
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A60:F60"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
@@ -19979,6 +19972,13 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A60:F60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.61" right="0.16" top="0.64" bottom="0.2" header="0.3" footer="0.17"/>
@@ -20016,40 +20016,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
       <c r="H1" s="162"/>
       <c r="I1" s="162"/>
     </row>
     <row r="2" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="273" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
       <c r="H2" s="162"/>
       <c r="I2" s="162"/>
     </row>
     <row r="3" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="270"/>
+      <c r="B3" s="273"/>
       <c r="C3" s="194"/>
-      <c r="D3" s="270" t="s">
+      <c r="D3" s="273" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
       <c r="G3" s="194"/>
       <c r="H3" s="162"/>
       <c r="I3" s="162"/>
@@ -20062,17 +20062,17 @@
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="269" t="s">
+      <c r="A5" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="269"/>
-      <c r="C5" s="269"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-      <c r="I5" s="269"/>
+      <c r="B5" s="272"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="D6" s="8"/>
@@ -20082,10 +20082,10 @@
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="270" t="s">
         <v>348</v>
       </c>
-      <c r="B7" s="267"/>
+      <c r="B7" s="270"/>
       <c r="C7" s="192"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
@@ -21580,13 +21580,13 @@
       <c r="I67" s="18"/>
     </row>
     <row r="68" spans="1:9" s="192" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A68" s="268" t="s">
+      <c r="A68" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="268"/>
-      <c r="C68" s="268"/>
-      <c r="D68" s="268"/>
-      <c r="E68" s="268"/>
+      <c r="B68" s="271"/>
+      <c r="C68" s="271"/>
+      <c r="D68" s="271"/>
+      <c r="E68" s="271"/>
       <c r="F68" s="170">
         <f>SUM(F10:F67)</f>
         <v>920849.4</v>
@@ -21686,39 +21686,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
       <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
       <c r="I2" s="107"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
@@ -21731,17 +21731,17 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -21750,14 +21750,14 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="247" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="247"/>
+      <c r="D7" s="248"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="18" customHeight="1">
       <c r="C8" s="57"/>
@@ -21798,15 +21798,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="249" t="s">
+      <c r="A10" s="250" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="250"/>
-      <c r="C10" s="250"/>
-      <c r="D10" s="250"/>
-      <c r="E10" s="250"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="251"/>
+      <c r="B10" s="251"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="252"/>
       <c r="H10" s="99">
         <v>2622054</v>
       </c>
@@ -23689,15 +23689,15 @@
       </c>
     </row>
     <row r="90" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A90" s="249" t="s">
+      <c r="A90" s="250" t="s">
         <v>251</v>
       </c>
-      <c r="B90" s="250"/>
-      <c r="C90" s="250"/>
-      <c r="D90" s="250"/>
-      <c r="E90" s="250"/>
-      <c r="F90" s="250"/>
-      <c r="G90" s="251"/>
+      <c r="B90" s="251"/>
+      <c r="C90" s="251"/>
+      <c r="D90" s="251"/>
+      <c r="E90" s="251"/>
+      <c r="F90" s="251"/>
+      <c r="G90" s="252"/>
       <c r="H90" s="99">
         <f>H89</f>
         <v>2411924</v>
@@ -24773,15 +24773,15 @@
       </c>
     </row>
     <row r="136" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A136" s="252"/>
-      <c r="B136" s="253"/>
-      <c r="C136" s="253"/>
-      <c r="D136" s="253"/>
-      <c r="E136" s="253"/>
-      <c r="F136" s="253"/>
-      <c r="G136" s="253"/>
-      <c r="H136" s="253"/>
-      <c r="I136" s="254"/>
+      <c r="A136" s="253"/>
+      <c r="B136" s="254"/>
+      <c r="C136" s="254"/>
+      <c r="D136" s="254"/>
+      <c r="E136" s="254"/>
+      <c r="F136" s="254"/>
+      <c r="G136" s="254"/>
+      <c r="H136" s="254"/>
+      <c r="I136" s="255"/>
     </row>
     <row r="137" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1">
       <c r="A137" s="39"/>
@@ -25971,12 +25971,12 @@
       <c r="I187" s="105"/>
     </row>
     <row r="188" spans="1:9" s="37" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A188" s="243" t="s">
+      <c r="A188" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B188" s="243"/>
-      <c r="C188" s="243"/>
-      <c r="D188" s="243"/>
+      <c r="B188" s="246"/>
+      <c r="C188" s="246"/>
+      <c r="D188" s="246"/>
       <c r="E188" s="68">
         <f>SUM(E10:E187)</f>
         <v>17332086</v>
@@ -26042,15 +26042,20 @@
     <row r="193" spans="1:9" ht="21.75" customHeight="1">
       <c r="A193" s="15"/>
       <c r="B193" s="14"/>
-      <c r="E193" s="246"/>
-      <c r="F193" s="246"/>
-      <c r="G193" s="246"/>
-      <c r="H193" s="246"/>
+      <c r="E193" s="247"/>
+      <c r="F193" s="247"/>
+      <c r="G193" s="247"/>
+      <c r="H193" s="247"/>
       <c r="I193" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="E193:H193"/>
     <mergeCell ref="A188:D188"/>
     <mergeCell ref="C7:D7"/>
@@ -26058,11 +26063,6 @@
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A136:I136"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.16" right="0.17" top="0.16" bottom="0.17" header="0.16" footer="0.16"/>
@@ -26099,66 +26099,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>397</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="274" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="274"/>
+      <c r="D7" s="277"/>
     </row>
     <row r="8" spans="1:8" s="55" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C8" s="275"/>
-      <c r="D8" s="276"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="279"/>
       <c r="F8" s="56"/>
       <c r="G8" s="38"/>
     </row>
@@ -26475,12 +26475,12 @@
       <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" s="200" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="243" t="s">
+      <c r="A27" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="243"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="243"/>
+      <c r="B27" s="246"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="246"/>
       <c r="E27" s="68">
         <f>SUM(E10:E26)</f>
         <v>422100</v>
@@ -26545,37 +26545,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="259" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
       <c r="G1" s="53"/>
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="259" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
       <c r="G2" s="53"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:9" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="259" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="259"/>
+      <c r="C3" s="259" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
       <c r="F3" s="51"/>
       <c r="G3" s="53"/>
       <c r="H3" s="54"/>
@@ -26587,17 +26587,17 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="255"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="255"/>
-      <c r="I5" s="255"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="258"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -26606,14 +26606,14 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="270" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="267"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="247"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="266"/>
+      <c r="B7" s="270"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="269"/>
+      <c r="F7" s="269"/>
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="20.25" customHeight="1">
@@ -27192,12 +27192,12 @@
       <c r="I32" s="155"/>
     </row>
     <row r="33" spans="1:9" s="37" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A33" s="243" t="s">
+      <c r="A33" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="243"/>
-      <c r="C33" s="243"/>
-      <c r="D33" s="243"/>
+      <c r="B33" s="246"/>
+      <c r="C33" s="246"/>
+      <c r="D33" s="246"/>
       <c r="E33" s="68">
         <f>SUM(E10:E32)</f>
         <v>756686.5</v>
@@ -27264,39 +27264,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -27311,18 +27311,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
-      <c r="J5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -27333,19 +27333,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>398</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="247" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>399</v>
       </c>
-      <c r="D7" s="247"/>
-      <c r="E7" s="266" t="s">
+      <c r="D7" s="248"/>
+      <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -27641,12 +27641,12 @@
       <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="243" t="s">
+      <c r="A25" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="243"/>
-      <c r="C25" s="243"/>
-      <c r="D25" s="243"/>
+      <c r="B25" s="246"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="246"/>
       <c r="E25" s="68">
         <f>SUM(E10:E24)</f>
         <v>0</v>
@@ -27713,39 +27713,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -27760,18 +27760,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
-      <c r="J5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -27782,19 +27782,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="247" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="247"/>
-      <c r="E7" s="266" t="s">
+      <c r="D7" s="248"/>
+      <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -28000,12 +28000,12 @@
       <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A18" s="243" t="s">
+      <c r="A18" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="243"/>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
+      <c r="B18" s="246"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="246"/>
       <c r="E18" s="68">
         <f>SUM(E10:E17)</f>
         <v>169780</v>
@@ -28072,39 +28072,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -28119,18 +28119,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
-      <c r="J5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -28141,19 +28141,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="247" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="247"/>
-      <c r="E7" s="266" t="s">
+      <c r="D7" s="248"/>
+      <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -28413,12 +28413,12 @@
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="243" t="s">
+      <c r="A22" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="243"/>
-      <c r="C22" s="243"/>
-      <c r="D22" s="243"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="246"/>
+      <c r="D22" s="246"/>
       <c r="E22" s="68">
         <f>SUM(E10:E21)</f>
         <v>90861</v>
@@ -28486,42 +28486,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
+      <c r="B3" s="256"/>
       <c r="C3" s="215"/>
-      <c r="D3" s="244" t="s">
+      <c r="D3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
       <c r="G3" s="93"/>
       <c r="H3" s="215"/>
       <c r="I3" s="62"/>
@@ -28536,19 +28536,19 @@
       <c r="J4" s="217"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
-      <c r="J5" s="245"/>
-      <c r="K5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="257"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1">
       <c r="D6" s="4"/>
@@ -28559,20 +28559,20 @@
       <c r="J6" s="217"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>410</v>
       </c>
-      <c r="B7" s="248"/>
+      <c r="B7" s="249"/>
       <c r="C7" s="214"/>
-      <c r="D7" s="247" t="s">
+      <c r="D7" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="247"/>
-      <c r="F7" s="266" t="s">
+      <c r="E7" s="248"/>
+      <c r="F7" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="266"/>
-      <c r="H7" s="266"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="269"/>
       <c r="J7" s="217"/>
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="18" customHeight="1">
@@ -29074,13 +29074,13 @@
       <c r="J29" s="155"/>
     </row>
     <row r="30" spans="1:11" s="214" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A30" s="243" t="s">
+      <c r="A30" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="243"/>
-      <c r="C30" s="243"/>
-      <c r="D30" s="243"/>
-      <c r="E30" s="243"/>
+      <c r="B30" s="246"/>
+      <c r="C30" s="246"/>
+      <c r="D30" s="246"/>
+      <c r="E30" s="246"/>
       <c r="F30" s="68">
         <f>SUM(F10:F29)</f>
         <v>710859.29999999993</v>
@@ -29149,39 +29149,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -29196,18 +29196,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
-      <c r="J5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -29218,19 +29218,19 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>417</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="247" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="247"/>
-      <c r="E7" s="266" t="s">
+      <c r="D7" s="248"/>
+      <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
       <c r="I7" s="222"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -29510,12 +29510,12 @@
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:10" s="219" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="243" t="s">
+      <c r="A22" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="243"/>
-      <c r="C22" s="243"/>
-      <c r="D22" s="243"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="246"/>
+      <c r="D22" s="246"/>
       <c r="E22" s="68">
         <f>SUM(E10:E21)</f>
         <v>339360</v>
@@ -29582,39 +29582,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -29629,18 +29629,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
-      <c r="J5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -29651,19 +29651,19 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>418</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="247" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="247"/>
-      <c r="E7" s="266" t="s">
+      <c r="D7" s="248"/>
+      <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
       <c r="I7" s="222"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -29935,12 +29935,12 @@
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:10" s="219" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="243" t="s">
+      <c r="A22" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="243"/>
-      <c r="C22" s="243"/>
-      <c r="D22" s="243"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="246"/>
+      <c r="D22" s="246"/>
       <c r="E22" s="68">
         <f>SUM(E10:E21)</f>
         <v>202400</v>
@@ -30967,37 +30967,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="259" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="259" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
       <c r="G2" s="54"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" s="52" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="259" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="259"/>
+      <c r="C3" s="259" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
       <c r="F3" s="51"/>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
@@ -31010,16 +31010,16 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="258" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="255"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="255"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -31029,10 +31029,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="248"/>
+      <c r="B7" s="249"/>
       <c r="E7" s="185" t="s">
         <v>303</v>
       </c>
@@ -31391,14 +31391,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="257" t="s">
+      <c r="A24" s="260" t="s">
         <v>251</v>
       </c>
-      <c r="B24" s="257"/>
-      <c r="C24" s="257"/>
-      <c r="D24" s="257"/>
-      <c r="E24" s="257"/>
-      <c r="F24" s="257"/>
+      <c r="B24" s="260"/>
+      <c r="C24" s="260"/>
+      <c r="D24" s="260"/>
+      <c r="E24" s="260"/>
+      <c r="F24" s="260"/>
       <c r="G24" s="172">
         <f>G23</f>
         <v>853629</v>
@@ -34244,12 +34244,12 @@
       <c r="H151" s="24"/>
     </row>
     <row r="152" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="243" t="s">
+      <c r="A152" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B152" s="243"/>
-      <c r="C152" s="243"/>
-      <c r="D152" s="243"/>
+      <c r="B152" s="246"/>
+      <c r="C152" s="246"/>
+      <c r="D152" s="246"/>
       <c r="E152" s="68">
         <f>SUM(E10:E151)</f>
         <v>10208134</v>
@@ -34348,65 +34348,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="249"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="11.25" customHeight="1">
       <c r="G8" s="56"/>
@@ -34442,15 +34442,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A10" s="258" t="s">
+      <c r="A10" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="259"/>
-      <c r="C10" s="259"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="259"/>
-      <c r="F10" s="259"/>
-      <c r="G10" s="260"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="266"/>
       <c r="H10" s="144">
         <v>699938</v>
       </c>
@@ -36137,15 +36137,15 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A81" s="258" t="s">
+      <c r="A81" s="264" t="s">
         <v>199</v>
       </c>
-      <c r="B81" s="259"/>
-      <c r="C81" s="259"/>
-      <c r="D81" s="259"/>
-      <c r="E81" s="259"/>
-      <c r="F81" s="259"/>
-      <c r="G81" s="260"/>
+      <c r="B81" s="265"/>
+      <c r="C81" s="265"/>
+      <c r="D81" s="265"/>
+      <c r="E81" s="265"/>
+      <c r="F81" s="265"/>
+      <c r="G81" s="266"/>
       <c r="H81" s="144">
         <f>H80</f>
         <v>1800668</v>
@@ -37127,15 +37127,15 @@
       <c r="I120" s="31"/>
     </row>
     <row r="121" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A121" s="258" t="s">
+      <c r="A121" s="264" t="s">
         <v>251</v>
       </c>
-      <c r="B121" s="259"/>
-      <c r="C121" s="259"/>
-      <c r="D121" s="259"/>
-      <c r="E121" s="259"/>
-      <c r="F121" s="259"/>
-      <c r="G121" s="260"/>
+      <c r="B121" s="265"/>
+      <c r="C121" s="265"/>
+      <c r="D121" s="265"/>
+      <c r="E121" s="265"/>
+      <c r="F121" s="265"/>
+      <c r="G121" s="266"/>
       <c r="H121" s="144">
         <f>H120</f>
         <v>2586475</v>
@@ -37867,7 +37867,7 @@
         <f t="shared" si="22"/>
         <v>307801.5</v>
       </c>
-      <c r="I152" s="264" t="s">
+      <c r="I152" s="267" t="s">
         <v>198</v>
       </c>
     </row>
@@ -37892,7 +37892,7 @@
         <f t="shared" si="22"/>
         <v>318851.5</v>
       </c>
-      <c r="I153" s="265"/>
+      <c r="I153" s="268"/>
     </row>
     <row r="154" spans="1:9" ht="20.25" customHeight="1">
       <c r="A154" s="24">
@@ -38177,6 +38177,11 @@
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A164:D164"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A7:B7"/>
@@ -38184,11 +38189,6 @@
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="I152:I153"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.41" right="0.22" top="0.28000000000000003" bottom="0.15" header="0.16" footer="0.15"/>
@@ -38225,42 +38225,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
+      <c r="B3" s="256"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="244" t="s">
+      <c r="D3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
       <c r="G3" s="93"/>
       <c r="H3" s="198"/>
       <c r="I3" s="62"/>
@@ -38275,19 +38275,19 @@
       <c r="J4" s="207"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
-      <c r="J5" s="245"/>
-      <c r="K5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="257"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1">
       <c r="D6" s="4"/>
@@ -38298,20 +38298,20 @@
       <c r="J6" s="207"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>398</v>
       </c>
-      <c r="B7" s="248"/>
+      <c r="B7" s="249"/>
       <c r="C7" s="227"/>
-      <c r="D7" s="247" t="s">
+      <c r="D7" s="248" t="s">
         <v>399</v>
       </c>
-      <c r="E7" s="247"/>
-      <c r="F7" s="266" t="s">
+      <c r="E7" s="248"/>
+      <c r="F7" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="266"/>
-      <c r="H7" s="266"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="269"/>
       <c r="J7" s="207"/>
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="18" customHeight="1">
@@ -38832,16 +38832,16 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="35" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="A29" s="257" t="s">
+      <c r="A29" s="260" t="s">
         <v>252</v>
       </c>
-      <c r="B29" s="257"/>
-      <c r="C29" s="257"/>
-      <c r="D29" s="257"/>
-      <c r="E29" s="257"/>
-      <c r="F29" s="257"/>
-      <c r="G29" s="257"/>
-      <c r="H29" s="257"/>
+      <c r="B29" s="260"/>
+      <c r="C29" s="260"/>
+      <c r="D29" s="260"/>
+      <c r="E29" s="260"/>
+      <c r="F29" s="260"/>
+      <c r="G29" s="260"/>
+      <c r="H29" s="260"/>
       <c r="I29" s="153">
         <f>I28</f>
         <v>0</v>
@@ -40452,13 +40452,13 @@
       <c r="J94" s="31"/>
     </row>
     <row r="95" spans="1:11" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A95" s="243" t="s">
+      <c r="A95" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="243"/>
-      <c r="C95" s="243"/>
-      <c r="D95" s="243"/>
-      <c r="E95" s="243"/>
+      <c r="B95" s="246"/>
+      <c r="C95" s="246"/>
+      <c r="D95" s="246"/>
+      <c r="E95" s="246"/>
       <c r="F95" s="68">
         <f>SUM(F10:F94)</f>
         <v>5694938.5</v>
@@ -40530,38 +40530,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
       <c r="F1" s="177"/>
       <c r="G1" s="162"/>
       <c r="H1" s="162"/>
     </row>
     <row r="2" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="273" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
       <c r="G2" s="162"/>
       <c r="H2" s="162"/>
     </row>
     <row r="3" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="270"/>
-      <c r="C3" s="270" t="s">
+      <c r="B3" s="273"/>
+      <c r="C3" s="273" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
       <c r="F3" s="178"/>
       <c r="G3" s="162"/>
       <c r="H3" s="162"/>
@@ -40574,17 +40574,17 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="269" t="s">
+      <c r="A5" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="269"/>
-      <c r="C5" s="269"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-      <c r="I5" s="269"/>
+      <c r="B5" s="272"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="8"/>
@@ -40594,10 +40594,10 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="270" t="s">
         <v>369</v>
       </c>
-      <c r="B7" s="267"/>
+      <c r="B7" s="270"/>
       <c r="C7" s="210" t="s">
         <v>371</v>
       </c>
@@ -40762,12 +40762,12 @@
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:9" s="158" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="268" t="s">
+      <c r="A17" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="268"/>
-      <c r="C17" s="268"/>
-      <c r="D17" s="268"/>
+      <c r="B17" s="271"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="271"/>
       <c r="E17" s="170">
         <f>SUM(E10:E16)</f>
         <v>445985</v>
@@ -40865,38 +40865,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
       <c r="F1" s="177"/>
       <c r="G1" s="162"/>
       <c r="H1" s="162"/>
     </row>
     <row r="2" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="273" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
       <c r="G2" s="162"/>
       <c r="H2" s="162"/>
     </row>
     <row r="3" spans="1:9" s="161" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="270"/>
-      <c r="C3" s="270" t="s">
+      <c r="B3" s="273"/>
+      <c r="C3" s="273" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
       <c r="F3" s="178"/>
       <c r="G3" s="162"/>
       <c r="H3" s="162"/>
@@ -40909,17 +40909,17 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="163" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="269" t="s">
+      <c r="A5" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="269"/>
-      <c r="C5" s="269"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-      <c r="I5" s="269"/>
+      <c r="B5" s="272"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1">
       <c r="C6" s="8"/>
@@ -40929,10 +40929,10 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="270" t="s">
         <v>421</v>
       </c>
-      <c r="B7" s="267"/>
+      <c r="B7" s="270"/>
       <c r="C7" s="210"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
@@ -41099,12 +41099,12 @@
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:9" s="230" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="268" t="s">
+      <c r="A17" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="268"/>
-      <c r="C17" s="268"/>
-      <c r="D17" s="268"/>
+      <c r="B17" s="271"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="271"/>
       <c r="E17" s="170">
         <f>SUM(E10:E16)</f>
         <v>193050</v>
@@ -41202,39 +41202,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -41249,18 +41249,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
-      <c r="J5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -41271,19 +41271,19 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="247" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="247"/>
-      <c r="E7" s="266" t="s">
+      <c r="D7" s="248"/>
+      <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -41995,12 +41995,12 @@
       <c r="I38" s="201"/>
     </row>
     <row r="39" spans="1:10" s="200" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="243" t="s">
+      <c r="A39" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="243"/>
-      <c r="C39" s="243"/>
-      <c r="D39" s="243"/>
+      <c r="B39" s="246"/>
+      <c r="C39" s="246"/>
+      <c r="D39" s="246"/>
       <c r="E39" s="68">
         <f>SUM(E10:E38)</f>
         <v>93300</v>
@@ -42069,39 +42069,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -42116,18 +42116,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="245"/>
-      <c r="J5" s="245"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
       <c r="C6" s="4"/>
@@ -42138,19 +42138,19 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="249" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="247" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="248" t="s">
         <v>413</v>
       </c>
-      <c r="D7" s="247"/>
-      <c r="E7" s="266" t="s">
+      <c r="D7" s="248"/>
+      <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
       <c r="I7" s="222"/>
     </row>
     <row r="8" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
@@ -42721,12 +42721,12 @@
       <c r="I38" s="220"/>
     </row>
     <row r="39" spans="1:10" s="219" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A39" s="243" t="s">
+      <c r="A39" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="243"/>
-      <c r="C39" s="243"/>
-      <c r="D39" s="243"/>
+      <c r="B39" s="246"/>
+      <c r="C39" s="246"/>
+      <c r="D39" s="246"/>
       <c r="E39" s="68">
         <f>SUM(E10:E38)</f>
         <v>153360</v>

--- a/SO SACH - LA/CONG NO/CONG NO 2015/Cong no NL ca 2015.xlsx
+++ b/SO SACH - LA/CONG NO/CONG NO 2015/Cong no NL ca 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968" firstSheet="13" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="T.KẾT" sheetId="26" r:id="rId1"/>
@@ -64,16 +64,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">THANHMN!$A$9:$H$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'THỦY KG'!$A$9:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'TRẮNG (VL)'!$A$9:$I$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'TRÍ HẢO VT'!$A$9:$J$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'TRÍ HẢO VT'!$A$9:$J$230</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TỶ LIÊN'!$A$9:$H$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="27">Sheet1!$C$16:$L$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="27">Sheet1!$O$23:$Q$23</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="449">
   <si>
     <t xml:space="preserve">NGÀY </t>
   </si>
@@ -1051,14 +1051,6 @@
 2015</t>
   </si>
   <si>
-    <t>LÃI VAY&amp; HỤI 
-2015</t>
-  </si>
-  <si>
-    <t>HẢI
-THỦY</t>
-  </si>
-  <si>
     <t>QUANG
 VT</t>
   </si>
@@ -1524,6 +1516,23 @@
   </si>
   <si>
     <t>Bò lai (lớn)</t>
+  </si>
+  <si>
+    <t>Bò VN (HQ) GC</t>
+  </si>
+  <si>
+    <t>TỔNG KẾT CÒN NỢ  31/12/2015</t>
+  </si>
+  <si>
+    <t>SỔ CÁ 02
+2016</t>
+  </si>
+  <si>
+    <t>LÃI VAY&amp; HỤI 
+2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                       </t>
   </si>
 </sst>
 </file>
@@ -3298,7 +3307,7 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B21" activeCellId="1" sqref="B4:B18 B20:B22"/>
     </sheetView>
@@ -3317,13 +3326,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="120" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="116" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="118"/>
       <c r="D1" s="119"/>
       <c r="E1" s="116" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F1" s="117"/>
       <c r="G1" s="118"/>
@@ -3374,7 +3383,7 @@
         <v/>
       </c>
       <c r="F4" s="150" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G4" s="151">
         <f>'LÙN TV'!H25</f>
@@ -3398,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="150" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G5" s="151">
         <f>'CÚC VT'!H18</f>
@@ -3422,7 +3431,7 @@
         <v/>
       </c>
       <c r="F6" s="150" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G6" s="151">
         <f>'THỦY KG'!H22</f>
@@ -3435,7 +3444,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="150" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C7" s="151">
         <f>'DŨNG KG'!I95</f>
@@ -3446,7 +3455,7 @@
         <v/>
       </c>
       <c r="F7" s="150" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G7" s="151">
         <f>'7 NGHĨA'!H22</f>
@@ -3459,7 +3468,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="150" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C8" s="151">
         <f>'SÁCH VT'!G17</f>
@@ -3470,7 +3479,7 @@
         <v/>
       </c>
       <c r="F8" s="150" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G8" s="151">
         <f>'8 LẬP'!H22</f>
@@ -3483,7 +3492,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="150" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C9" s="151">
         <f>'NAM CV'!$G$17</f>
@@ -3502,7 +3511,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="150" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C10" s="151">
         <f>'THANH KG'!$H$39</f>
@@ -3521,7 +3530,7 @@
         <v/>
       </c>
       <c r="B11" s="150" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C11" s="151">
         <f>'NHÂN CM'!$H$39</f>
@@ -3540,7 +3549,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="150" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C12" s="151">
         <f>'DANH BL'!$H$26</f>
@@ -3578,7 +3587,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="150" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C14" s="151">
         <f>THANHMN!$G$80</f>
@@ -3597,7 +3606,7 @@
         <v/>
       </c>
       <c r="B15" s="150" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C15" s="151">
         <f>'LEE CÁ BÒ'!$H$36</f>
@@ -3616,7 +3625,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="150" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C16" s="151">
         <f>'A.LỢI BC'!$G$27</f>
@@ -3635,7 +3644,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="150" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C17" s="151">
         <f>'HƯƠNG ST'!$H$46</f>
@@ -3654,11 +3663,11 @@
         <v>13</v>
       </c>
       <c r="B18" s="150" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C18" s="151">
-        <f>'TRÍ HẢO VT'!$I$215</f>
-        <v>-56321.799999999814</v>
+        <f>'TRÍ HẢO VT'!$I$230</f>
+        <v>36338.200000000186</v>
       </c>
       <c r="E18" s="149" t="str">
         <f t="array" ref="E18">IF(G18&lt;&gt;0,SUM(($G$4:G18&lt;&gt;0)*1),"")</f>
@@ -3673,7 +3682,7 @@
         <v/>
       </c>
       <c r="B19" s="150" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C19" s="151">
         <f>'MẠNH VT'!$I$26</f>
@@ -3692,7 +3701,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="150" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C20" s="151">
         <f>D.ĐIỂM!$G$93</f>
@@ -3711,7 +3720,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="150" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C21" s="151">
         <f>'TRẮNG (VL)'!$H$68</f>
@@ -3730,7 +3739,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="150" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C22" s="151">
         <f>'RUÔNG (CL)'!$G$27</f>
@@ -3918,7 +3927,7 @@
       <c r="B35" s="246"/>
       <c r="C35" s="213">
         <f>SUM(C4:C34)</f>
-        <v>5304881.5</v>
+        <v>5397541.5</v>
       </c>
       <c r="E35" s="246" t="s">
         <v>14</v>
@@ -4038,7 +4047,7 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" s="249" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B7" s="249"/>
       <c r="C7" s="248"/>
@@ -4600,7 +4609,7 @@
       </c>
       <c r="B7" s="249"/>
       <c r="C7" s="248" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D7" s="248"/>
       <c r="E7" s="269" t="s">
@@ -6356,7 +6365,7 @@
     <row r="80" spans="1:9" ht="20.25" customHeight="1">
       <c r="A80" s="24"/>
       <c r="B80" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C80" s="26">
         <v>619</v>
@@ -7342,7 +7351,7 @@
     <row r="120" spans="1:9" ht="20.25" customHeight="1">
       <c r="A120" s="24"/>
       <c r="B120" s="31" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C120" s="26">
         <v>1060</v>
@@ -9242,7 +9251,7 @@
     <row r="59" spans="1:8" ht="18.75" customHeight="1">
       <c r="A59" s="24"/>
       <c r="B59" s="31" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C59" s="26">
         <v>3090</v>
@@ -9266,7 +9275,7 @@
         <v>42222</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C60" s="26">
         <v>2700</v>
@@ -9288,7 +9297,7 @@
     <row r="61" spans="1:8" ht="18.75" customHeight="1">
       <c r="A61" s="24"/>
       <c r="B61" s="31" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C61" s="26">
         <v>525</v>
@@ -9358,7 +9367,7 @@
         <v>42314</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C64" s="26">
         <v>550</v>
@@ -9788,7 +9797,7 @@
         <v>75</v>
       </c>
       <c r="F9" s="72" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G9" s="73" t="s">
         <v>15</v>
@@ -9805,7 +9814,7 @@
         <v>42318</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C10" s="26">
         <v>2970</v>
@@ -9828,7 +9837,7 @@
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
       <c r="A11" s="24"/>
       <c r="B11" s="31" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C11" s="26">
         <v>30</v>
@@ -9851,7 +9860,7 @@
     <row r="12" spans="1:9" ht="18.75" customHeight="1">
       <c r="A12" s="24"/>
       <c r="B12" s="31" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C12" s="26">
         <v>700</v>
@@ -9876,7 +9885,7 @@
         <v>42319</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C13" s="26">
         <v>870</v>
@@ -9901,7 +9910,7 @@
         <v>42310</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -10048,7 +10057,7 @@
     <row r="20" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1">
       <c r="A20" s="237"/>
       <c r="B20" s="238" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C20" s="239">
         <v>10</v>
@@ -10071,7 +10080,7 @@
     <row r="21" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="237"/>
       <c r="B21" s="238" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C21" s="239">
         <v>10.95</v>
@@ -10094,7 +10103,7 @@
     <row r="22" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="237"/>
       <c r="B22" s="238" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C22" s="239">
         <v>50</v>
@@ -10117,7 +10126,7 @@
     <row r="23" spans="1:9" ht="18.75" customHeight="1">
       <c r="A23" s="24"/>
       <c r="B23" s="238" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C23" s="239">
         <v>25</v>
@@ -10140,7 +10149,7 @@
     <row r="24" spans="1:9" ht="18.75" customHeight="1">
       <c r="A24" s="243"/>
       <c r="B24" s="244" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C24" s="245">
         <v>1597</v>
@@ -10481,7 +10490,7 @@
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
       <c r="A7" s="249" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B7" s="249"/>
       <c r="C7" s="277" t="s">
@@ -10526,7 +10535,7 @@
         <v>42174</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C10" s="26">
         <v>2120</v>
@@ -10550,7 +10559,7 @@
         <v>42206</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C11" s="26">
         <v>278</v>
@@ -10574,7 +10583,7 @@
         <v>42213</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C12" s="26">
         <v>1250</v>
@@ -10596,7 +10605,7 @@
     <row r="13" spans="1:8" ht="18.75" customHeight="1">
       <c r="A13" s="24"/>
       <c r="B13" s="31" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C13" s="26">
         <v>816.5</v>
@@ -10618,7 +10627,7 @@
     <row r="14" spans="1:8" ht="18.75" customHeight="1">
       <c r="A14" s="24"/>
       <c r="B14" s="31" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C14" s="26">
         <v>4.8</v>
@@ -10640,7 +10649,7 @@
     <row r="15" spans="1:8" ht="18.75" customHeight="1">
       <c r="A15" s="24"/>
       <c r="B15" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C15" s="26">
         <v>3.5</v>
@@ -10961,7 +10970,7 @@
     <row r="6" spans="1:9" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
       <c r="A7" s="249" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B7" s="249"/>
       <c r="C7" s="227"/>
@@ -11013,7 +11022,7 @@
         <v>264</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D10" s="26">
         <v>693</v>
@@ -11040,7 +11049,7 @@
         <v>264</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D11" s="26">
         <v>6706</v>
@@ -11062,10 +11071,10 @@
     <row r="12" spans="1:9" ht="18.75" customHeight="1">
       <c r="A12" s="24"/>
       <c r="B12" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D12" s="26">
         <v>6833</v>
@@ -11092,7 +11101,7 @@
         <v>264</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D13" s="26">
         <v>1131</v>
@@ -11140,10 +11149,10 @@
         <v>42284</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D15" s="26">
         <v>5782</v>
@@ -11170,7 +11179,7 @@
         <v>264</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D16" s="26">
         <v>2170</v>
@@ -11192,10 +11201,10 @@
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
       <c r="A17" s="24"/>
       <c r="B17" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D17" s="26">
         <v>2386</v>
@@ -11243,10 +11252,10 @@
         <v>42315</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D19" s="26">
         <v>1391</v>
@@ -11270,10 +11279,10 @@
         <v>42318</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D20" s="26">
         <v>10162</v>
@@ -11324,7 +11333,7 @@
         <v>162</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D22" s="26">
         <v>11993</v>
@@ -11351,7 +11360,7 @@
         <v>162</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D23" s="26">
         <v>2028</v>
@@ -11373,10 +11382,10 @@
     <row r="24" spans="1:9" ht="18.75" customHeight="1">
       <c r="A24" s="24"/>
       <c r="B24" s="31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D24" s="26">
         <v>1796</v>
@@ -11398,10 +11407,10 @@
     <row r="25" spans="1:9" ht="18.75" customHeight="1">
       <c r="A25" s="24"/>
       <c r="B25" s="31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D25" s="26">
         <v>252</v>
@@ -11423,10 +11432,10 @@
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
       <c r="A26" s="24"/>
       <c r="B26" s="31" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D26" s="26">
         <v>33</v>
@@ -11453,7 +11462,7 @@
         <v>162</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D27" s="26">
         <v>14000</v>
@@ -11478,7 +11487,7 @@
         <v>162</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D28" s="26">
         <v>13213</v>
@@ -11505,7 +11514,7 @@
         <v>162</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D29" s="26">
         <v>7956</v>
@@ -11530,7 +11539,7 @@
         <v>162</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D30" s="26">
         <v>683</v>
@@ -11555,7 +11564,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D31" s="26">
         <v>5565</v>
@@ -11582,7 +11591,7 @@
         <v>162</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D32" s="26">
         <v>2964</v>
@@ -11607,7 +11616,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D33" s="26">
         <v>1738</v>
@@ -11680,7 +11689,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D36" s="26">
         <v>1140</v>
@@ -11702,10 +11711,10 @@
     <row r="37" spans="1:9" ht="18.75" customHeight="1">
       <c r="A37" s="24"/>
       <c r="B37" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D37" s="26">
         <v>975</v>
@@ -11729,10 +11738,10 @@
         <v>42356</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D38" s="26">
         <v>1276</v>
@@ -11755,7 +11764,7 @@
         <v>162</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D39" s="26">
         <v>248</v>
@@ -11927,12 +11936,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:J216"/>
+  <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="D196" sqref="D196"/>
+      <selection pane="bottomLeft" activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -11944,7 +11953,7 @@
     <col min="5" max="5" width="11" style="17" customWidth="1"/>
     <col min="6" max="8" width="16.7109375" style="17" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="8" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -12021,7 +12030,7 @@
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1">
       <c r="A7" s="270" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="189"/>
@@ -12049,7 +12058,7 @@
         <v>75</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H9" s="73" t="s">
         <v>15</v>
@@ -12066,7 +12075,7 @@
         <v>42079</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="174">
@@ -12090,7 +12099,7 @@
     <row r="11" spans="1:10" ht="20.25" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="20">
@@ -12138,7 +12147,7 @@
         <v>42089</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="20">
@@ -12188,7 +12197,7 @@
     <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="20">
@@ -12212,7 +12221,7 @@
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="20">
@@ -12236,7 +12245,7 @@
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="20">
@@ -12309,7 +12318,7 @@
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="274" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B20" s="275"/>
       <c r="C20" s="275"/>
@@ -12329,7 +12338,7 @@
         <v>42107</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="20">
@@ -12353,7 +12362,7 @@
     <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="20">
@@ -12403,7 +12412,7 @@
         <v>42115</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="20">
@@ -12427,7 +12436,7 @@
     <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="20">
@@ -12451,7 +12460,7 @@
     <row r="26" spans="1:10" ht="20.25" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="20">
@@ -12475,7 +12484,7 @@
     <row r="27" spans="1:10" ht="20.25" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="20">
@@ -12501,7 +12510,7 @@
         <v>42119</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="20">
@@ -12525,7 +12534,7 @@
     <row r="29" spans="1:10" ht="20.25" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="20">
@@ -12549,7 +12558,7 @@
     <row r="30" spans="1:10" ht="20.25" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="20">
@@ -12573,7 +12582,7 @@
     <row r="31" spans="1:10" ht="20.25" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="20">
@@ -12599,7 +12608,7 @@
         <v>42123</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="20">
@@ -12623,7 +12632,7 @@
     <row r="33" spans="1:10" ht="20.25" customHeight="1">
       <c r="A33" s="18"/>
       <c r="B33" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="20">
@@ -12647,7 +12656,7 @@
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="20">
@@ -12671,7 +12680,7 @@
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>78</v>
@@ -12695,7 +12704,7 @@
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="18"/>
       <c r="B36" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>288</v>
@@ -12816,7 +12825,7 @@
     </row>
     <row r="41" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A41" s="274" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B41" s="275"/>
       <c r="C41" s="275"/>
@@ -12836,7 +12845,7 @@
         <v>42129</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="20">
@@ -12860,7 +12869,7 @@
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="18"/>
       <c r="B43" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="20">
@@ -12884,7 +12893,7 @@
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="18"/>
       <c r="B44" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="20">
@@ -12908,7 +12917,7 @@
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="18"/>
       <c r="B45" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="20">
@@ -12934,7 +12943,7 @@
         <v>42136</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="20">
@@ -12960,7 +12969,7 @@
         <v>42135</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>159</v>
@@ -12986,7 +12995,7 @@
     <row r="48" spans="1:10" ht="20.25" customHeight="1">
       <c r="A48" s="18"/>
       <c r="B48" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>159</v>
@@ -13014,7 +13023,7 @@
         <v>42136</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>159</v>
@@ -13042,10 +13051,10 @@
         <v>42145</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D50" s="20">
         <v>2735</v>
@@ -13070,7 +13079,7 @@
         <v>42151</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="20">
@@ -13094,7 +13103,7 @@
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="18"/>
       <c r="B52" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="20">
@@ -13118,7 +13127,7 @@
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="18"/>
       <c r="B53" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="20">
@@ -13142,7 +13151,7 @@
     <row r="54" spans="1:10" ht="20.25" customHeight="1">
       <c r="A54" s="18"/>
       <c r="B54" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="20">
@@ -13168,7 +13177,7 @@
         <v>42136</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="20">
@@ -13193,7 +13202,7 @@
     <row r="56" spans="1:10" ht="20.25" customHeight="1">
       <c r="A56" s="18"/>
       <c r="B56" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="20">
@@ -13313,7 +13322,7 @@
     <row r="61" spans="1:10" ht="20.25" customHeight="1">
       <c r="A61" s="18"/>
       <c r="B61" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>78</v>
@@ -13337,7 +13346,7 @@
     <row r="62" spans="1:10" ht="20.25" customHeight="1">
       <c r="A62" s="18"/>
       <c r="B62" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>288</v>
@@ -13360,7 +13369,7 @@
     </row>
     <row r="63" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A63" s="274" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B63" s="275"/>
       <c r="C63" s="275"/>
@@ -13380,10 +13389,10 @@
         <v>42159</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D64" s="20">
         <v>1000</v>
@@ -13408,10 +13417,10 @@
         <v>42164</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D65" s="20">
         <v>1940</v>
@@ -13436,7 +13445,7 @@
         <v>42168</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>44</v>
@@ -13462,7 +13471,7 @@
     <row r="67" spans="1:10" ht="20.25" customHeight="1">
       <c r="A67" s="18"/>
       <c r="B67" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>44</v>
@@ -13488,7 +13497,7 @@
     <row r="68" spans="1:10" ht="20.25" customHeight="1">
       <c r="A68" s="18"/>
       <c r="B68" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>44</v>
@@ -13516,7 +13525,7 @@
         <v>42172</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>44</v>
@@ -13542,7 +13551,7 @@
     <row r="70" spans="1:10" ht="20.25" customHeight="1">
       <c r="A70" s="18"/>
       <c r="B70" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>44</v>
@@ -13570,10 +13579,10 @@
         <v>42173</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D71" s="20">
         <v>825</v>
@@ -13626,10 +13635,10 @@
         <v>42177</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D73" s="20">
         <v>785</v>
@@ -13652,10 +13661,10 @@
     <row r="74" spans="1:10" ht="20.25" customHeight="1">
       <c r="A74" s="18"/>
       <c r="B74" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D74" s="20">
         <v>270</v>
@@ -13680,7 +13689,7 @@
         <v>42181</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>44</v>
@@ -13706,7 +13715,7 @@
     <row r="76" spans="1:10" ht="20.25" customHeight="1">
       <c r="A76" s="18"/>
       <c r="B76" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>44</v>
@@ -13732,7 +13741,7 @@
     <row r="77" spans="1:10" ht="20.25" customHeight="1">
       <c r="A77" s="18"/>
       <c r="B77" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>44</v>
@@ -13758,10 +13767,10 @@
     <row r="78" spans="1:10" ht="20.25" customHeight="1">
       <c r="A78" s="18"/>
       <c r="B78" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D78" s="20">
         <v>2516</v>
@@ -13784,10 +13793,10 @@
     <row r="79" spans="1:10" ht="20.25" customHeight="1">
       <c r="A79" s="18"/>
       <c r="B79" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D79" s="20">
         <v>2516</v>
@@ -13810,10 +13819,10 @@
     <row r="80" spans="1:10" ht="20.25" customHeight="1">
       <c r="A80" s="18"/>
       <c r="B80" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="19"/>
@@ -13834,10 +13843,10 @@
     <row r="81" spans="1:10" ht="20.25" customHeight="1">
       <c r="A81" s="18"/>
       <c r="B81" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="19"/>
@@ -13858,10 +13867,10 @@
     <row r="82" spans="1:10" ht="20.25" customHeight="1">
       <c r="A82" s="18"/>
       <c r="B82" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="19"/>
@@ -13885,10 +13894,10 @@
         <v>42169</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D83" s="20">
         <v>1650</v>
@@ -13911,7 +13920,7 @@
     <row r="84" spans="1:10" ht="20.25" customHeight="1">
       <c r="A84" s="18"/>
       <c r="B84" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>288</v>
@@ -13935,7 +13944,7 @@
     <row r="85" spans="1:10" ht="20.25" customHeight="1">
       <c r="A85" s="18"/>
       <c r="B85" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>288</v>
@@ -13961,7 +13970,7 @@
     <row r="86" spans="1:10" ht="20.25" customHeight="1">
       <c r="A86" s="18"/>
       <c r="B86" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>283</v>
@@ -13987,7 +13996,7 @@
         <v>42185</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>283</v>
@@ -14013,7 +14022,7 @@
     <row r="88" spans="1:10" ht="20.25" customHeight="1">
       <c r="A88" s="18"/>
       <c r="B88" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>44</v>
@@ -14041,7 +14050,7 @@
         <v>42181</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>44</v>
@@ -14070,7 +14079,7 @@
         <v>42172</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>44</v>
@@ -14165,7 +14174,7 @@
     </row>
     <row r="94" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A94" s="274" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B94" s="275"/>
       <c r="C94" s="275"/>
@@ -14185,7 +14194,7 @@
         <v>42187</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>44</v>
@@ -14211,7 +14220,7 @@
     <row r="96" spans="1:10" ht="20.25" customHeight="1">
       <c r="A96" s="18"/>
       <c r="B96" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>44</v>
@@ -14239,10 +14248,10 @@
         <v>42190</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D97" s="20">
         <v>850</v>
@@ -14267,10 +14276,10 @@
         <v>42190</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D98" s="20">
         <v>645</v>
@@ -14295,7 +14304,7 @@
         <v>42195</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>44</v>
@@ -14321,7 +14330,7 @@
     <row r="100" spans="1:10" ht="20.25" customHeight="1">
       <c r="A100" s="18"/>
       <c r="B100" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>44</v>
@@ -14347,7 +14356,7 @@
     <row r="101" spans="1:10" ht="20.25" customHeight="1">
       <c r="A101" s="18"/>
       <c r="B101" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>44</v>
@@ -14374,10 +14383,10 @@
         <v>42196</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D102" s="20">
         <v>2240</v>
@@ -14402,7 +14411,7 @@
         <v>42202</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>44</v>
@@ -14428,7 +14437,7 @@
     <row r="104" spans="1:10" ht="20.25" customHeight="1">
       <c r="A104" s="18"/>
       <c r="B104" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>44</v>
@@ -14454,7 +14463,7 @@
     <row r="105" spans="1:10" ht="20.25" customHeight="1">
       <c r="A105" s="18"/>
       <c r="B105" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>44</v>
@@ -14482,7 +14491,7 @@
         <v>42206</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>44</v>
@@ -14508,7 +14517,7 @@
     <row r="107" spans="1:10" ht="20.25" customHeight="1">
       <c r="A107" s="18"/>
       <c r="B107" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>44</v>
@@ -14536,7 +14545,7 @@
         <v>42212</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>44</v>
@@ -14562,7 +14571,7 @@
     <row r="109" spans="1:10" ht="20.25" customHeight="1">
       <c r="A109" s="18"/>
       <c r="B109" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>44</v>
@@ -14588,7 +14597,7 @@
     <row r="110" spans="1:10" ht="20.25" customHeight="1">
       <c r="A110" s="18"/>
       <c r="B110" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>44</v>
@@ -14614,7 +14623,7 @@
     <row r="111" spans="1:10" ht="20.25" customHeight="1">
       <c r="A111" s="18"/>
       <c r="B111" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>288</v>
@@ -14640,7 +14649,7 @@
         <v>42188</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>283</v>
@@ -14668,7 +14677,7 @@
         <v>42194</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>283</v>
@@ -14696,7 +14705,7 @@
         <v>42197</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>283</v>
@@ -14722,7 +14731,7 @@
     <row r="115" spans="1:10" ht="20.25" customHeight="1">
       <c r="A115" s="18"/>
       <c r="B115" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>283</v>
@@ -14750,7 +14759,7 @@
         <v>42214</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>283</v>
@@ -14776,10 +14785,10 @@
     <row r="117" spans="1:10" ht="20.25" customHeight="1">
       <c r="A117" s="18"/>
       <c r="B117" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D117" s="20"/>
       <c r="E117" s="19"/>
@@ -14868,7 +14877,7 @@
     </row>
     <row r="121" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A121" s="274" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B121" s="275"/>
       <c r="C121" s="275"/>
@@ -14888,7 +14897,7 @@
         <v>42217</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>44</v>
@@ -14914,7 +14923,7 @@
     <row r="123" spans="1:10" ht="20.25" customHeight="1">
       <c r="A123" s="18"/>
       <c r="B123" s="16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>44</v>
@@ -14940,7 +14949,7 @@
         <v>42224</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>159</v>
@@ -14966,7 +14975,7 @@
     <row r="125" spans="1:10" ht="20.25" customHeight="1">
       <c r="A125" s="18"/>
       <c r="B125" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>159</v>
@@ -14994,7 +15003,7 @@
         <v>42228</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>159</v>
@@ -15022,10 +15031,10 @@
         <v>42223</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D127" s="20">
         <v>2100</v>
@@ -15050,7 +15059,7 @@
         <v>42230</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>44</v>
@@ -15078,7 +15087,7 @@
         <v>42243</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>44</v>
@@ -15104,7 +15113,7 @@
     <row r="130" spans="1:10" ht="20.25" customHeight="1">
       <c r="A130" s="18"/>
       <c r="B130" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>44</v>
@@ -15135,7 +15144,7 @@
         <v>162</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D131" s="20">
         <v>3400</v>
@@ -15163,7 +15172,7 @@
         <v>162</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D132" s="20">
         <v>2440</v>
@@ -15189,7 +15198,7 @@
         <v>162</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D133" s="20">
         <v>2100</v>
@@ -15215,7 +15224,7 @@
         <v>162</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D134" s="20">
         <v>8850</v>
@@ -15241,7 +15250,7 @@
         <v>162</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D135" s="20">
         <v>1744</v>
@@ -15266,7 +15275,7 @@
         <v>42217</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>44</v>
@@ -15367,7 +15376,7 @@
     </row>
     <row r="140" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="274" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B140" s="275"/>
       <c r="C140" s="275"/>
@@ -15387,7 +15396,7 @@
         <v>42258</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>44</v>
@@ -15415,7 +15424,7 @@
         <v>42263</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>44</v>
@@ -15443,7 +15452,7 @@
         <v>42268</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>44</v>
@@ -15469,7 +15478,7 @@
     <row r="144" spans="1:10" ht="20.25" customHeight="1">
       <c r="A144" s="18"/>
       <c r="B144" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>44</v>
@@ -15495,7 +15504,7 @@
     <row r="145" spans="1:10" ht="20.25" customHeight="1">
       <c r="A145" s="18"/>
       <c r="B145" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>44</v>
@@ -15523,7 +15532,7 @@
         <v>42271</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>44</v>
@@ -15551,7 +15560,7 @@
         <v>42275</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>44</v>
@@ -15579,7 +15588,7 @@
         <v>42217</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>44</v>
@@ -15610,7 +15619,7 @@
         <v>213</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D149" s="20">
         <v>693</v>
@@ -15638,7 +15647,7 @@
         <v>213</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D150" s="20">
         <v>6706</v>
@@ -15663,10 +15672,10 @@
         <v>42272</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D151" s="20">
         <v>6833</v>
@@ -15694,7 +15703,7 @@
         <v>213</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D152" s="20">
         <v>1131</v>
@@ -15722,7 +15731,7 @@
         <v>162</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D153" s="20">
         <v>2927</v>
@@ -15748,7 +15757,7 @@
         <v>162</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D154" s="20">
         <v>8000</v>
@@ -15774,7 +15783,7 @@
         <v>162</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D155" s="20">
         <v>9290</v>
@@ -15874,7 +15883,7 @@
     </row>
     <row r="159" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A159" s="274" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B159" s="275"/>
       <c r="C159" s="275"/>
@@ -15894,7 +15903,7 @@
         <v>42284</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C160" s="16" t="s">
         <v>44</v>
@@ -15920,7 +15929,7 @@
     <row r="161" spans="1:10" ht="20.25" customHeight="1">
       <c r="A161" s="18"/>
       <c r="B161" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C161" s="16" t="s">
         <v>44</v>
@@ -15951,7 +15960,7 @@
         <v>167</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D162" s="20">
         <v>4535</v>
@@ -15976,7 +15985,7 @@
         <v>42293</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C163" s="16" t="s">
         <v>44</v>
@@ -16002,7 +16011,7 @@
     <row r="164" spans="1:10" ht="20.25" customHeight="1">
       <c r="A164" s="18"/>
       <c r="B164" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C164" s="16" t="s">
         <v>44</v>
@@ -16030,7 +16039,7 @@
         <v>42302</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C165" s="16" t="s">
         <v>44</v>
@@ -16056,7 +16065,7 @@
     <row r="166" spans="1:10" ht="20.25" customHeight="1">
       <c r="A166" s="18"/>
       <c r="B166" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C166" s="16" t="s">
         <v>44</v>
@@ -16084,7 +16093,7 @@
         <v>42308</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C167" s="16" t="s">
         <v>44</v>
@@ -16110,7 +16119,7 @@
     <row r="168" spans="1:10" ht="20.25" customHeight="1">
       <c r="A168" s="18"/>
       <c r="B168" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C168" s="16" t="s">
         <v>44</v>
@@ -16138,7 +16147,7 @@
         <v>42284</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C169" s="16" t="s">
         <v>44</v>
@@ -16167,7 +16176,7 @@
         <v>42293</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C170" s="16" t="s">
         <v>44</v>
@@ -16196,7 +16205,7 @@
         <v>42302</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C171" s="16" t="s">
         <v>44</v>
@@ -16225,7 +16234,7 @@
         <v>42308</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C172" s="16" t="s">
         <v>44</v>
@@ -16254,7 +16263,7 @@
         <v>42302</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C173" s="16" t="s">
         <v>44</v>
@@ -16284,7 +16293,7 @@
         <v>162</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D174" s="20"/>
       <c r="E174" s="19"/>
@@ -16305,7 +16314,7 @@
         <v>162</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D175" s="20">
         <v>16906</v>
@@ -16331,7 +16340,7 @@
         <v>162</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D176" s="20">
         <v>12273</v>
@@ -16457,7 +16466,7 @@
     </row>
     <row r="181" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A181" s="274" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B181" s="275"/>
       <c r="C181" s="275"/>
@@ -16477,7 +16486,7 @@
         <v>42316</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C182" s="16" t="s">
         <v>44</v>
@@ -16503,7 +16512,7 @@
     <row r="183" spans="1:10" ht="20.25" customHeight="1">
       <c r="A183" s="18"/>
       <c r="B183" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C183" s="16" t="s">
         <v>44</v>
@@ -16531,7 +16540,7 @@
         <v>42328</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C184" s="16" t="s">
         <v>44</v>
@@ -16543,7 +16552,7 @@
         <v>55</v>
       </c>
       <c r="F184" s="19">
-        <f t="shared" ref="F184:F214" si="26">D184*E184</f>
+        <f t="shared" ref="F184:F229" si="26">D184*E184</f>
         <v>108075</v>
       </c>
       <c r="G184" s="19"/>
@@ -16557,7 +16566,7 @@
     <row r="185" spans="1:10" ht="20.25" customHeight="1">
       <c r="A185" s="18"/>
       <c r="B185" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C185" s="16" t="s">
         <v>44</v>
@@ -16585,7 +16594,7 @@
         <v>42342</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C186" s="16" t="s">
         <v>44</v>
@@ -16603,7 +16612,7 @@
       <c r="G186" s="19"/>
       <c r="H186" s="19"/>
       <c r="I186" s="19">
-        <f t="shared" ref="I186:I214" si="27">IF(B186&lt;&gt;"",I185+F186-H186-G186,0)</f>
+        <f t="shared" ref="I186:I229" si="27">IF(B186&lt;&gt;"",I185+F186-H186-G186,0)</f>
         <v>392776.20000000007</v>
       </c>
       <c r="J186" s="16"/>
@@ -16611,7 +16620,7 @@
     <row r="187" spans="1:10" ht="20.25" customHeight="1">
       <c r="A187" s="18"/>
       <c r="B187" s="16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C187" s="16" t="s">
         <v>44</v>
@@ -16637,7 +16646,7 @@
     <row r="188" spans="1:10" ht="20.25" customHeight="1">
       <c r="A188" s="18"/>
       <c r="B188" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C188" s="16" t="s">
         <v>44</v>
@@ -16665,10 +16674,10 @@
         <v>42348</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D189" s="20">
         <v>1135</v>
@@ -16691,10 +16700,10 @@
     <row r="190" spans="1:10" ht="20.25" customHeight="1">
       <c r="A190" s="18"/>
       <c r="B190" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D190" s="20">
         <v>235</v>
@@ -16719,7 +16728,7 @@
         <v>42356</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C191" s="16" t="s">
         <v>44</v>
@@ -16745,7 +16754,7 @@
     <row r="192" spans="1:10" ht="20.25" customHeight="1">
       <c r="A192" s="18"/>
       <c r="B192" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C192" s="16" t="s">
         <v>44</v>
@@ -16771,7 +16780,7 @@
     <row r="193" spans="1:10" ht="20.25" customHeight="1">
       <c r="A193" s="18"/>
       <c r="B193" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C193" s="16" t="s">
         <v>44</v>
@@ -16799,7 +16808,7 @@
         <v>42328</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C194" s="16"/>
       <c r="D194" s="20">
@@ -16829,7 +16838,7 @@
         <v>162</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D195" s="26">
         <v>458</v>
@@ -16857,7 +16866,7 @@
         <v>162</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D196" s="26">
         <v>7171</v>
@@ -16882,10 +16891,10 @@
         <v>42309</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D197" s="26">
         <v>2604</v>
@@ -16913,7 +16922,7 @@
         <v>162</v>
       </c>
       <c r="C198" s="31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D198" s="26">
         <v>14000</v>
@@ -16941,7 +16950,7 @@
         <v>162</v>
       </c>
       <c r="C199" s="31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D199" s="26">
         <v>13213</v>
@@ -16966,7 +16975,7 @@
         <v>42311</v>
       </c>
       <c r="B200" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C200" s="16" t="s">
         <v>79</v>
@@ -16994,7 +17003,7 @@
         <v>42320</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C201" s="16" t="s">
         <v>79</v>
@@ -17022,7 +17031,7 @@
         <v>42330</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C202" s="16" t="s">
         <v>79</v>
@@ -17106,7 +17115,7 @@
         <v>42347</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C205" s="16" t="s">
         <v>79</v>
@@ -17266,115 +17275,421 @@
       <c r="J210" s="16"/>
     </row>
     <row r="211" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A211" s="18"/>
-      <c r="B211" s="16"/>
-      <c r="C211" s="16"/>
-      <c r="D211" s="20"/>
-      <c r="E211" s="19"/>
+      <c r="A211" s="18">
+        <v>42364</v>
+      </c>
+      <c r="B211" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D211" s="20">
+        <v>805</v>
+      </c>
+      <c r="E211" s="19">
+        <v>48</v>
+      </c>
       <c r="F211" s="19">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>38640</v>
       </c>
       <c r="G211" s="19"/>
       <c r="H211" s="19"/>
       <c r="I211" s="19">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-17681.799999999872</v>
       </c>
       <c r="J211" s="16"/>
     </row>
     <row r="212" spans="1:10" ht="20.25" customHeight="1">
       <c r="A212" s="18"/>
-      <c r="B212" s="16"/>
-      <c r="C212" s="16"/>
-      <c r="D212" s="20"/>
-      <c r="E212" s="19"/>
+      <c r="B212" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D212" s="20">
+        <v>965</v>
+      </c>
+      <c r="E212" s="19">
+        <v>55</v>
+      </c>
       <c r="F212" s="19">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" ref="F212:F222" si="37">D212*E212</f>
+        <v>53075</v>
       </c>
       <c r="G212" s="19"/>
       <c r="H212" s="19"/>
       <c r="I212" s="19">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" ref="I212:I222" si="38">IF(B212&lt;&gt;"",I211+F212-H212-G212,0)</f>
+        <v>35393.200000000128</v>
       </c>
       <c r="J212" s="16"/>
     </row>
     <row r="213" spans="1:10" ht="20.25" customHeight="1">
       <c r="A213" s="18"/>
-      <c r="B213" s="16"/>
-      <c r="C213" s="16"/>
-      <c r="D213" s="20"/>
-      <c r="E213" s="19"/>
+      <c r="B213" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D213" s="20">
+        <v>2250</v>
+      </c>
+      <c r="E213" s="19">
+        <v>6</v>
+      </c>
       <c r="F213" s="19">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>13500</v>
       </c>
       <c r="G213" s="19"/>
       <c r="H213" s="19"/>
       <c r="I213" s="19">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="J213" s="16"/>
+        <f t="shared" si="38"/>
+        <v>48893.200000000128</v>
+      </c>
+      <c r="J213" s="16" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="214" spans="1:10" ht="20.25" customHeight="1">
       <c r="A214" s="18"/>
-      <c r="B214" s="16"/>
-      <c r="C214" s="16"/>
-      <c r="D214" s="20"/>
-      <c r="E214" s="19"/>
-      <c r="F214" s="19">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G214" s="19"/>
+      <c r="B214" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D214" s="20">
+        <f>270*3</f>
+        <v>810</v>
+      </c>
+      <c r="E214" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="F214" s="19"/>
+      <c r="G214" s="19">
+        <f>D214*E214</f>
+        <v>12555</v>
+      </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19">
+        <f t="shared" si="38"/>
+        <v>36338.200000000128</v>
+      </c>
+      <c r="J214" s="16"/>
+    </row>
+    <row r="215" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A215" s="274" t="s">
+        <v>445</v>
+      </c>
+      <c r="B215" s="275"/>
+      <c r="C215" s="275"/>
+      <c r="D215" s="275"/>
+      <c r="E215" s="275"/>
+      <c r="F215" s="275"/>
+      <c r="G215" s="275"/>
+      <c r="H215" s="275"/>
+      <c r="I215" s="99">
+        <f>I214</f>
+        <v>36338.200000000128</v>
+      </c>
+      <c r="J215" s="99"/>
+    </row>
+    <row r="216" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A216" s="18"/>
+      <c r="B216" s="16"/>
+      <c r="C216" s="16"/>
+      <c r="D216" s="20"/>
+      <c r="E216" s="19"/>
+      <c r="F216" s="19">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G216" s="19"/>
+      <c r="H216" s="19"/>
+      <c r="I216" s="19">
+        <f>IF(B216&lt;&gt;"",I214+F216-H216-G216,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J216" s="16"/>
+    </row>
+    <row r="217" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A217" s="18"/>
+      <c r="B217" s="16"/>
+      <c r="C217" s="16"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="19"/>
+      <c r="F217" s="19">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G217" s="19"/>
+      <c r="H217" s="19"/>
+      <c r="I217" s="19">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J217" s="16"/>
+    </row>
+    <row r="218" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A218" s="18"/>
+      <c r="B218" s="16"/>
+      <c r="C218" s="16"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="19"/>
+      <c r="F218" s="19">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G218" s="19"/>
+      <c r="H218" s="19"/>
+      <c r="I218" s="19">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J218" s="16"/>
+    </row>
+    <row r="219" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A219" s="18"/>
+      <c r="B219" s="16"/>
+      <c r="C219" s="16"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="19">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G219" s="19"/>
+      <c r="H219" s="19"/>
+      <c r="I219" s="19">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J219" s="16"/>
+    </row>
+    <row r="220" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A220" s="18"/>
+      <c r="B220" s="16"/>
+      <c r="C220" s="16"/>
+      <c r="D220" s="20"/>
+      <c r="E220" s="19"/>
+      <c r="F220" s="19">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G220" s="19"/>
+      <c r="H220" s="19"/>
+      <c r="I220" s="19">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J220" s="16"/>
+    </row>
+    <row r="221" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A221" s="18"/>
+      <c r="B221" s="16"/>
+      <c r="C221" s="16"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="19"/>
+      <c r="F221" s="19">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G221" s="19"/>
+      <c r="H221" s="19"/>
+      <c r="I221" s="19">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J221" s="16"/>
+    </row>
+    <row r="222" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A222" s="18"/>
+      <c r="B222" s="16"/>
+      <c r="C222" s="16"/>
+      <c r="D222" s="20"/>
+      <c r="E222" s="19"/>
+      <c r="F222" s="19">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G222" s="19"/>
+      <c r="H222" s="19"/>
+      <c r="I222" s="19">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J222" s="16"/>
+    </row>
+    <row r="223" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A223" s="18"/>
+      <c r="B223" s="16"/>
+      <c r="C223" s="16"/>
+      <c r="D223" s="20"/>
+      <c r="E223" s="19"/>
+      <c r="F223" s="19">
+        <f t="shared" ref="F223:F228" si="39">D223*E223</f>
+        <v>0</v>
+      </c>
+      <c r="G223" s="19"/>
+      <c r="H223" s="19"/>
+      <c r="I223" s="19">
+        <f t="shared" ref="I223:I228" si="40">IF(B223&lt;&gt;"",I222+F223-H223-G223,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J223" s="16"/>
+    </row>
+    <row r="224" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A224" s="18"/>
+      <c r="B224" s="16"/>
+      <c r="C224" s="16"/>
+      <c r="D224" s="20"/>
+      <c r="E224" s="19"/>
+      <c r="F224" s="19">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G224" s="19"/>
+      <c r="H224" s="19"/>
+      <c r="I224" s="19">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J224" s="16"/>
+    </row>
+    <row r="225" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A225" s="18"/>
+      <c r="B225" s="16"/>
+      <c r="C225" s="16"/>
+      <c r="D225" s="20"/>
+      <c r="E225" s="19"/>
+      <c r="F225" s="19">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G225" s="19"/>
+      <c r="H225" s="19"/>
+      <c r="I225" s="19">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J225" s="16"/>
+    </row>
+    <row r="226" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A226" s="18"/>
+      <c r="B226" s="16"/>
+      <c r="C226" s="16"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="19"/>
+      <c r="F226" s="19">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G226" s="19"/>
+      <c r="H226" s="19"/>
+      <c r="I226" s="19">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J226" s="16"/>
+    </row>
+    <row r="227" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A227" s="18"/>
+      <c r="B227" s="16"/>
+      <c r="C227" s="16"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="19"/>
+      <c r="F227" s="19">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G227" s="19"/>
+      <c r="H227" s="19"/>
+      <c r="I227" s="19">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J227" s="16"/>
+    </row>
+    <row r="228" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A228" s="18"/>
+      <c r="B228" s="16"/>
+      <c r="C228" s="16"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="19"/>
+      <c r="F228" s="19">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G228" s="19"/>
+      <c r="H228" s="19"/>
+      <c r="I228" s="19">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J228" s="16"/>
+    </row>
+    <row r="229" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A229" s="18"/>
+      <c r="B229" s="16"/>
+      <c r="C229" s="16"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="19"/>
+      <c r="F229" s="19">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G229" s="19"/>
+      <c r="H229" s="19"/>
+      <c r="I229" s="19">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J214" s="16"/>
-    </row>
-    <row r="215" spans="1:10" s="158" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A215" s="271" t="s">
+      <c r="J229" s="16"/>
+    </row>
+    <row r="230" spans="1:10" s="158" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A230" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="B215" s="271"/>
-      <c r="C215" s="271"/>
-      <c r="D215" s="271"/>
-      <c r="E215" s="271"/>
-      <c r="F215" s="170">
-        <f>SUM(F10:F214)</f>
-        <v>5102122</v>
-      </c>
-      <c r="G215" s="170">
-        <f>SUM(G10:G214)</f>
-        <v>3473832.8</v>
-      </c>
-      <c r="H215" s="170">
-        <f>SUM(H10:H214)</f>
+      <c r="B230" s="271"/>
+      <c r="C230" s="271"/>
+      <c r="D230" s="271"/>
+      <c r="E230" s="271"/>
+      <c r="F230" s="170">
+        <f>SUM(F10:F229)</f>
+        <v>5207337</v>
+      </c>
+      <c r="G230" s="170">
+        <f>SUM(G10:G229)</f>
+        <v>3486387.8</v>
+      </c>
+      <c r="H230" s="170">
+        <f>SUM(H10:H229)</f>
         <v>1684611</v>
       </c>
-      <c r="I215" s="171">
-        <f>F215-G215-H215</f>
-        <v>-56321.799999999814</v>
-      </c>
-      <c r="J215" s="169"/>
-    </row>
-    <row r="216" spans="1:10" ht="21.75" customHeight="1">
-      <c r="H216" s="187"/>
-      <c r="I216" s="10"/>
+      <c r="I230" s="171">
+        <f>F230-G230-H230</f>
+        <v>36338.200000000186</v>
+      </c>
+      <c r="J230" s="169"/>
+    </row>
+    <row r="231" spans="1:10" ht="21.75" customHeight="1">
+      <c r="H231" s="187"/>
+      <c r="I231" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:J215">
+  <autoFilter ref="A9:J230">
     <filterColumn colId="2"/>
     <filterColumn colId="6"/>
   </autoFilter>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A230:E230"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:H2"/>
@@ -17388,6 +17703,7 @@
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="A140:H140"/>
     <mergeCell ref="A181:H181"/>
+    <mergeCell ref="A215:H215"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.28000000000000003" right="0.13" top="0.36" bottom="0.16" header="0.28999999999999998" footer="0.16"/>
@@ -17495,7 +17811,7 @@
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1">
       <c r="A7" s="270" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="202"/>
@@ -17523,7 +17839,7 @@
         <v>75</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H9" s="73" t="s">
         <v>15</v>
@@ -17538,7 +17854,7 @@
     <row r="10" spans="1:10" ht="20.25" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>261</v>
@@ -19155,7 +19471,7 @@
     </row>
     <row r="60" spans="1:9" s="49" customFormat="1" ht="21.75" hidden="1" customHeight="1">
       <c r="A60" s="283" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B60" s="284"/>
       <c r="C60" s="284"/>
@@ -19174,7 +19490,7 @@
         <v>42258</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C61" s="26">
         <v>200</v>
@@ -19198,7 +19514,7 @@
     <row r="62" spans="1:9" ht="21" customHeight="1">
       <c r="A62" s="24"/>
       <c r="B62" s="31" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C62" s="26">
         <v>2</v>
@@ -19242,7 +19558,7 @@
         <v>69005</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="21" customHeight="1">
@@ -19250,7 +19566,7 @@
         <v>42271</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C64" s="26">
         <v>2000</v>
@@ -19300,7 +19616,7 @@
     <row r="66" spans="1:8" ht="21" customHeight="1">
       <c r="A66" s="24"/>
       <c r="B66" s="31" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C66" s="26">
         <v>2006.4</v>
@@ -19326,7 +19642,7 @@
         <v>42265</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C67" s="26">
         <v>6000</v>
@@ -19344,7 +19660,7 @@
         <v>921726.5</v>
       </c>
       <c r="H67" s="31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -19419,7 +19735,7 @@
         <v>42311</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C71" s="26">
         <v>7000</v>
@@ -19437,7 +19753,7 @@
         <v>336000</v>
       </c>
       <c r="H71" s="31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -19461,7 +19777,7 @@
         <v>379500</v>
       </c>
       <c r="H72" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -19469,7 +19785,7 @@
         <v>42315</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C73" s="26">
         <v>2500</v>
@@ -19487,7 +19803,7 @@
         <v>500750</v>
       </c>
       <c r="H73" s="31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -19495,7 +19811,7 @@
         <v>42317</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C74" s="26">
         <v>2500</v>
@@ -19513,13 +19829,13 @@
         <v>622000</v>
       </c>
       <c r="H74" s="31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
       <c r="A75" s="24"/>
       <c r="B75" s="31" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C75" s="26">
         <v>1500</v>
@@ -19537,7 +19853,7 @@
         <v>695500</v>
       </c>
       <c r="H75" s="31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -19563,7 +19879,7 @@
         <v>724500</v>
       </c>
       <c r="H76" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -19571,7 +19887,7 @@
         <v>42330</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C77" s="26">
         <v>2518</v>
@@ -19589,7 +19905,7 @@
         <v>749680</v>
       </c>
       <c r="H77" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -19615,7 +19931,7 @@
         <v>817116.6</v>
       </c>
       <c r="H78" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -19641,13 +19957,13 @@
         <v>848152.4</v>
       </c>
       <c r="H79" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
       <c r="A80" s="24"/>
       <c r="B80" s="31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C80" s="26">
         <v>2277</v>
@@ -19665,7 +19981,7 @@
         <v>865685.3</v>
       </c>
       <c r="H80" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="21" customHeight="1">
@@ -19673,7 +19989,7 @@
         <v>42343</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C81" s="26">
         <v>1920</v>
@@ -19699,7 +20015,7 @@
         <v>42348</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C82" s="26">
         <v>5000</v>
@@ -19717,7 +20033,7 @@
         <v>1201305.3</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="21" customHeight="1">
@@ -20083,7 +20399,7 @@
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
       <c r="A7" s="270" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="192"/>
@@ -20173,10 +20489,10 @@
         <v>42158</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D12" s="20">
         <v>1401</v>
@@ -20198,10 +20514,10 @@
     <row r="13" spans="1:9" ht="20.25" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D13" s="20">
         <v>814</v>
@@ -20228,7 +20544,7 @@
         <v>264</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D14" s="20">
         <v>627</v>
@@ -20250,10 +20566,10 @@
     <row r="15" spans="1:9" ht="20.25" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D15" s="20">
         <v>973</v>
@@ -20277,10 +20593,10 @@
         <v>42169</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D16" s="20">
         <v>1650</v>
@@ -20347,10 +20663,10 @@
         <v>42194</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D19" s="20">
         <v>808</v>
@@ -20372,10 +20688,10 @@
     <row r="20" spans="1:12" ht="20.25" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D20" s="20">
         <v>2070</v>
@@ -20399,10 +20715,10 @@
         <v>42200</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D21" s="20">
         <v>635</v>
@@ -20424,10 +20740,10 @@
     <row r="22" spans="1:12" ht="20.25" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D22" s="20">
         <v>1063</v>
@@ -20449,10 +20765,10 @@
     <row r="23" spans="1:12" ht="20.25" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D23" s="20">
         <v>3319</v>
@@ -20476,10 +20792,10 @@
         <v>42202</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D24" s="20">
         <v>696</v>
@@ -20501,10 +20817,10 @@
     <row r="25" spans="1:12" ht="20.25" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D25" s="20">
         <v>1292</v>
@@ -20679,7 +20995,7 @@
         <v>264</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D32" s="20">
         <v>3400</v>
@@ -20703,10 +21019,10 @@
         <v>42226</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D33" s="20">
         <v>2440</v>
@@ -20754,10 +21070,10 @@
         <v>42184</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D35" s="20">
         <v>633</v>
@@ -20781,10 +21097,10 @@
         <v>42165</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D36" s="20">
         <v>627</v>
@@ -20809,7 +21125,7 @@
         <v>264</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D37" s="20">
         <v>973</v>
@@ -20858,7 +21174,7 @@
     <row r="39" spans="1:9" ht="20.25" customHeight="1">
       <c r="A39" s="18"/>
       <c r="B39" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>191</v>
@@ -20912,7 +21228,7 @@
         <v>42227</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>191</v>
@@ -21145,7 +21461,7 @@
         <v>162</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D50" s="20">
         <v>2927</v>
@@ -21169,7 +21485,7 @@
         <v>42264</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>191</v>
@@ -21192,7 +21508,7 @@
     <row r="52" spans="1:9" ht="20.25" customHeight="1">
       <c r="A52" s="18"/>
       <c r="B52" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>191</v>
@@ -21217,7 +21533,7 @@
     <row r="53" spans="1:9" ht="20.25" customHeight="1">
       <c r="A53" s="18"/>
       <c r="B53" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>191</v>
@@ -21244,7 +21560,7 @@
         <v>42271</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>191</v>
@@ -21271,7 +21587,7 @@
         <v>42276</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>191</v>
@@ -21298,7 +21614,7 @@
         <v>42271</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>191</v>
@@ -21373,7 +21689,7 @@
         <v>42295</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>191</v>
@@ -21398,7 +21714,7 @@
     <row r="60" spans="1:9" ht="20.25" customHeight="1">
       <c r="A60" s="18"/>
       <c r="B60" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>191</v>
@@ -21423,7 +21739,7 @@
         <v>42306</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>191</v>
@@ -21450,7 +21766,7 @@
         <v>42311</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>191</v>
@@ -26148,7 +26464,7 @@
     <row r="6" spans="1:8" ht="9.75" customHeight="1"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1">
       <c r="A7" s="249" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B7" s="249"/>
       <c r="C7" s="277" t="s">
@@ -26193,7 +26509,7 @@
         <v>42254</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C10" s="26">
         <v>2010</v>
@@ -26607,7 +26923,7 @@
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
       <c r="A7" s="270" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="248"/>
@@ -26659,7 +26975,7 @@
         <v>42159</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C10" s="26">
         <v>14907</v>
@@ -26678,7 +26994,7 @@
         <v>119256</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
@@ -26686,7 +27002,7 @@
         <v>42161</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C11" s="26">
         <v>11261</v>
@@ -26705,7 +27021,7 @@
         <v>203713.5</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
@@ -26713,7 +27029,7 @@
         <v>42162</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C12" s="26">
         <v>829</v>
@@ -26732,7 +27048,7 @@
         <v>209931</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.25" customHeight="1">
@@ -26763,7 +27079,7 @@
         <v>42171</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C14" s="26">
         <v>12120</v>
@@ -26814,7 +27130,7 @@
         <v>42183</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C16" s="26">
         <v>10844</v>
@@ -26841,7 +27157,7 @@
         <v>42188</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C17" s="26">
         <v>8043</v>
@@ -26860,7 +27176,7 @@
         <v>155117.5</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" customHeight="1">
@@ -26868,7 +27184,7 @@
         <v>42194</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C18" s="26">
         <v>657</v>
@@ -26887,7 +27203,7 @@
         <v>161030.5</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.5" customHeight="1">
@@ -26895,7 +27211,7 @@
         <v>42197</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C19" s="26">
         <v>550</v>
@@ -26914,13 +27230,13 @@
         <v>164880.5</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1">
       <c r="A20" s="24"/>
       <c r="B20" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C20" s="26">
         <v>1375</v>
@@ -26939,7 +27255,7 @@
         <v>177255.5</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19.5" customHeight="1">
@@ -26947,7 +27263,7 @@
         <v>42185</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C21" s="26">
         <v>14800</v>
@@ -26966,7 +27282,7 @@
         <v>280855.5</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="19.5" customHeight="1">
@@ -26974,7 +27290,7 @@
         <v>42214</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C22" s="26">
         <v>25000</v>
@@ -26993,7 +27309,7 @@
         <v>455855.5</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.25" customHeight="1">
@@ -27334,11 +27650,11 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" s="249" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B7" s="249"/>
       <c r="C7" s="248" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D7" s="248"/>
       <c r="E7" s="269" t="s">
@@ -27783,7 +28099,7 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" s="249" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B7" s="249"/>
       <c r="C7" s="248" t="s">
@@ -28142,7 +28458,7 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" s="249" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B7" s="249"/>
       <c r="C7" s="248" t="s">
@@ -28560,7 +28876,7 @@
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1">
       <c r="A7" s="249" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B7" s="249"/>
       <c r="C7" s="214"/>
@@ -28621,7 +28937,7 @@
         <v>162</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D10" s="26">
         <v>9290</v>
@@ -28672,7 +28988,7 @@
         <v>162</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D12" s="26">
         <v>12273</v>
@@ -28697,10 +29013,10 @@
         <v>42306</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D13" s="26">
         <v>6120</v>
@@ -28728,7 +29044,7 @@
         <v>162</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D14" s="26">
         <v>8702</v>
@@ -28754,7 +29070,7 @@
         <v>162</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D15" s="26">
         <v>458</v>
@@ -28782,7 +29098,7 @@
         <v>162</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D16" s="26">
         <v>7171</v>
@@ -28805,10 +29121,10 @@
     <row r="17" spans="1:11" ht="20.25" customHeight="1">
       <c r="A17" s="24"/>
       <c r="B17" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D17" s="26">
         <v>2604</v>
@@ -28833,10 +29149,10 @@
         <v>42332</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D18" s="26">
         <v>1000</v>
@@ -29219,7 +29535,7 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" s="249" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B7" s="249"/>
       <c r="C7" s="248" t="s">
@@ -29652,7 +29968,7 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" s="249" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B7" s="249"/>
       <c r="C7" s="248" t="s">
@@ -29986,8 +30302,8 @@
   </sheetPr>
   <dimension ref="A1:BC38"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15"/>
@@ -29998,7 +30314,7 @@
     <col min="8" max="12" width="10.28515625" style="88" customWidth="1"/>
     <col min="13" max="13" width="9.5703125" style="88" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" style="88" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" style="88" customWidth="1"/>
+    <col min="15" max="15" width="32" style="88" customWidth="1"/>
     <col min="16" max="17" width="27.140625" style="88" customWidth="1"/>
     <col min="18" max="18" width="26.140625" style="80" customWidth="1"/>
     <col min="19" max="16384" width="21.7109375" style="80"/>
@@ -30012,10 +30328,10 @@
         <v>50</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>293</v>
+        <v>104</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>10</v>
+        <v>448</v>
       </c>
       <c r="E1" s="90" t="s">
         <v>185</v>
@@ -30581,10 +30897,10 @@
     <row r="13" spans="1:55" ht="18" customHeight="1"/>
     <row r="14" spans="1:55" ht="42" customHeight="1">
       <c r="C14" s="90" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E14" s="90" t="s">
         <v>227</v>
@@ -30593,55 +30909,55 @@
         <v>192</v>
       </c>
       <c r="G14" s="90" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" s="90" t="s">
+        <v>295</v>
+      </c>
+      <c r="I14" s="90" t="s">
         <v>296</v>
-      </c>
-      <c r="H14" s="90" t="s">
-        <v>297</v>
-      </c>
-      <c r="I14" s="90" t="s">
-        <v>298</v>
       </c>
       <c r="J14" s="90" t="s">
         <v>254</v>
       </c>
       <c r="K14" s="90" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L14" s="90" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:55" ht="18" customHeight="1"/>
     <row r="16" spans="1:55" ht="42" customHeight="1">
       <c r="C16" s="90" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="E16" s="90" t="s">
         <v>407</v>
       </c>
-      <c r="D16" s="90" t="s">
-        <v>408</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>409</v>
-      </c>
       <c r="F16" s="90" t="s">
+        <v>405</v>
+      </c>
+      <c r="G16" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="H16" s="90" t="s">
         <v>407</v>
       </c>
-      <c r="G16" s="90" t="s">
-        <v>408</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>409</v>
-      </c>
       <c r="I16" s="90" t="s">
+        <v>405</v>
+      </c>
+      <c r="J16" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="K16" s="90" t="s">
         <v>407</v>
       </c>
-      <c r="J16" s="90" t="s">
-        <v>408</v>
-      </c>
-      <c r="K16" s="90" t="s">
-        <v>409</v>
-      </c>
       <c r="L16" s="90" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="8:40" ht="18" customHeight="1"/>
@@ -30691,12 +31007,14 @@
       <c r="M23" s="141"/>
       <c r="N23" s="141"/>
       <c r="O23" s="157" t="s">
-        <v>292</v>
+        <v>447</v>
       </c>
       <c r="P23" s="157" t="s">
         <v>197</v>
       </c>
-      <c r="Q23" s="141"/>
+      <c r="Q23" s="157" t="s">
+        <v>446</v>
+      </c>
       <c r="AL23" s="137" t="s">
         <v>145</v>
       </c>
@@ -31034,7 +31352,7 @@
       </c>
       <c r="B7" s="249"/>
       <c r="E7" s="185" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" hidden="1" customHeight="1">
@@ -33588,7 +33906,7 @@
         <v>42107</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C120" s="26">
         <v>1419</v>
@@ -33632,7 +33950,7 @@
     <row r="122" spans="1:8" ht="18" customHeight="1">
       <c r="A122" s="24"/>
       <c r="B122" s="31" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C122" s="26">
         <v>525</v>
@@ -33836,7 +34154,7 @@
     <row r="131" spans="1:8" ht="18" customHeight="1">
       <c r="A131" s="24"/>
       <c r="B131" s="31" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C131" s="26">
         <v>1294</v>
@@ -33990,7 +34308,7 @@
         <v>365362.00000000012</v>
       </c>
       <c r="H137" s="24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="18" customHeight="1">
@@ -34066,7 +34384,7 @@
         <v>42347</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C141" s="26">
         <v>1050</v>
@@ -37899,7 +38217,7 @@
         <v>41817</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C154" s="26">
         <v>4404</v>
@@ -38098,7 +38416,7 @@
     <row r="163" spans="1:9" ht="20.25" customHeight="1">
       <c r="A163" s="24"/>
       <c r="B163" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C163" s="26"/>
       <c r="D163" s="27"/>
@@ -38299,12 +38617,12 @@
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1">
       <c r="A7" s="249" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B7" s="249"/>
       <c r="C7" s="227"/>
       <c r="D7" s="248" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E7" s="248"/>
       <c r="F7" s="269" t="s">
@@ -39904,7 +40222,7 @@
     <row r="72" spans="1:10" ht="20.25" customHeight="1">
       <c r="A72" s="24"/>
       <c r="B72" s="31" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C72" s="31" t="s">
         <v>44</v>
@@ -39960,7 +40278,7 @@
         <v>183</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D74" s="26">
         <v>2496</v>
@@ -39988,7 +40306,7 @@
         <v>183</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D75" s="26">
         <v>3707</v>
@@ -40197,7 +40515,7 @@
         <v>183</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D83" s="26">
         <v>2347</v>
@@ -40225,7 +40543,7 @@
         <v>183</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D84" s="26">
         <v>3774</v>
@@ -40253,7 +40571,7 @@
         <v>183</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D85" s="26">
         <v>4255</v>
@@ -40281,7 +40599,7 @@
         <v>183</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D86" s="26">
         <v>10960</v>
@@ -40595,11 +40913,11 @@
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
       <c r="A7" s="270" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="210" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
@@ -40634,7 +40952,7 @@
     <row r="10" spans="1:9" ht="20.25" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -40930,7 +41248,7 @@
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1">
       <c r="A7" s="270" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="210"/>
@@ -40969,7 +41287,7 @@
         <v>42322</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C10" s="20">
         <v>10</v>
@@ -40993,7 +41311,7 @@
         <v>42326</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C11" s="26">
         <v>1350</v>
@@ -41015,7 +41333,7 @@
     <row r="12" spans="1:9" ht="20.25" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C12" s="20">
         <v>70</v>
@@ -41272,7 +41590,7 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" s="249" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B7" s="249"/>
       <c r="C7" s="248" t="s">
@@ -42139,11 +42457,11 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" s="249" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B7" s="249"/>
       <c r="C7" s="248" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D7" s="248"/>
       <c r="E7" s="269" t="s">
@@ -42195,7 +42513,7 @@
         <v>42298</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C10" s="26">
         <v>388</v>
@@ -42220,7 +42538,7 @@
         <v>42312</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C11" s="26">
         <v>163</v>
@@ -42268,7 +42586,7 @@
         <v>42333</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C13" s="26">
         <v>301</v>
